--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.99963095593207</v>
+      </c>
+      <c r="D3">
+        <v>1.000630581126796</v>
+      </c>
+      <c r="E3">
         <v>1.001197803262716</v>
-      </c>
-      <c r="D3">
-        <v>0.9982918095975041</v>
-      </c>
-      <c r="E3">
-        <v>1.000393855061526</v>
       </c>
       <c r="F3">
         <v>1.001197803262716</v>
       </c>
       <c r="G3">
-        <v>0.99963095593207</v>
+        <v>0.9988835779974023</v>
       </c>
       <c r="H3">
-        <v>1.000630581126796</v>
+        <v>1.000445486275842</v>
       </c>
       <c r="I3">
+        <v>0.9982918095975041</v>
+      </c>
+      <c r="J3">
+        <v>0.9996371195325807</v>
+      </c>
+      <c r="K3">
         <v>1.001197803262716</v>
       </c>
-      <c r="J3">
+      <c r="L3">
+        <v>1.000393855061526</v>
+      </c>
+      <c r="M3">
         <v>0.9982918095975041</v>
-      </c>
-      <c r="K3">
-        <v>0.9996371195325807</v>
-      </c>
-      <c r="L3">
-        <v>1.000445486275842</v>
-      </c>
-      <c r="M3">
-        <v>0.9988835779974023</v>
       </c>
       <c r="N3">
         <v>1.001197803262716</v>
@@ -764,7 +716,7 @@
         <v>0.9998888985983045</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9992874982002709</v>
+      </c>
+      <c r="D4">
+        <v>1.001217588746727</v>
+      </c>
+      <c r="E4">
         <v>1.002311449309538</v>
-      </c>
-      <c r="D4">
-        <v>0.9967018547998792</v>
-      </c>
-      <c r="E4">
-        <v>1.000761151139993</v>
       </c>
       <c r="F4">
         <v>1.002311449309538</v>
       </c>
       <c r="G4">
-        <v>0.9992874982002709</v>
+        <v>0.9978445532733927</v>
       </c>
       <c r="H4">
-        <v>1.001217588746727</v>
+        <v>1.000859748084961</v>
       </c>
       <c r="I4">
+        <v>0.9967018547998792</v>
+      </c>
+      <c r="J4">
+        <v>0.9992998045701011</v>
+      </c>
+      <c r="K4">
         <v>1.002311449309538</v>
       </c>
-      <c r="J4">
+      <c r="L4">
+        <v>1.000761151139993</v>
+      </c>
+      <c r="M4">
         <v>0.9967018547998792</v>
-      </c>
-      <c r="K4">
-        <v>0.9992998045701011</v>
-      </c>
-      <c r="L4">
-        <v>1.000859748084961</v>
-      </c>
-      <c r="M4">
-        <v>0.9978445532733927</v>
       </c>
       <c r="N4">
         <v>1.002311449309538</v>
@@ -835,7 +787,7 @@
         <v>0.9997854560156079</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9986341429919495</v>
+      </c>
+      <c r="D5">
+        <v>1.002335042551137</v>
+      </c>
+      <c r="E5">
         <v>1.004423786155599</v>
-      </c>
-      <c r="D5">
-        <v>0.9936762360853524</v>
-      </c>
-      <c r="E5">
-        <v>1.001463969649045</v>
       </c>
       <c r="F5">
         <v>1.004423786155599</v>
       </c>
       <c r="G5">
-        <v>0.9986341429919495</v>
+        <v>0.9958680016656277</v>
       </c>
       <c r="H5">
-        <v>1.002335042551137</v>
+        <v>1.001645919838188</v>
       </c>
       <c r="I5">
+        <v>0.9936762360853519</v>
+      </c>
+      <c r="J5">
+        <v>0.9986603867840025</v>
+      </c>
+      <c r="K5">
         <v>1.004423786155599</v>
       </c>
-      <c r="J5">
-        <v>0.9936762360853524</v>
-      </c>
-      <c r="K5">
-        <v>0.9986603867840025</v>
-      </c>
       <c r="L5">
-        <v>1.001645919838188</v>
+        <v>1.001463969649045</v>
       </c>
       <c r="M5">
-        <v>0.9958680016656277</v>
+        <v>0.9936762360853519</v>
       </c>
       <c r="N5">
         <v>1.004423786155599</v>
@@ -882,31 +834,31 @@
         <v>1.001463969649045</v>
       </c>
       <c r="P5">
-        <v>0.9975701028671989</v>
+        <v>0.9975701028671987</v>
       </c>
       <c r="Q5">
         <v>1.000049056320498</v>
       </c>
       <c r="R5">
-        <v>0.9998546639633323</v>
+        <v>0.999854663963332</v>
       </c>
       <c r="S5">
-        <v>0.9979247829087825</v>
+        <v>0.9979247829087824</v>
       </c>
       <c r="T5">
-        <v>0.9998546639633323</v>
+        <v>0.999854663963332</v>
       </c>
       <c r="U5">
-        <v>0.9995495337204866</v>
+        <v>0.9995495337204864</v>
       </c>
       <c r="V5">
         <v>1.000524384207509</v>
       </c>
       <c r="W5">
-        <v>0.9995884357151127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9995884357151126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9979964734031457</v>
+      </c>
+      <c r="D6">
+        <v>1.00342574042355</v>
+      </c>
+      <c r="E6">
         <v>1.006484920262247</v>
-      </c>
-      <c r="D6">
-        <v>0.9907231687583485</v>
-      </c>
-      <c r="E6">
-        <v>1.002150257501337</v>
       </c>
       <c r="F6">
         <v>1.006484920262247</v>
       </c>
       <c r="G6">
-        <v>0.9979964734031457</v>
+        <v>0.9939388950340527</v>
       </c>
       <c r="H6">
-        <v>1.00342574042355</v>
+        <v>1.00241306658908</v>
       </c>
       <c r="I6">
+        <v>0.9907231687583488</v>
+      </c>
+      <c r="J6">
+        <v>0.9980365081384044</v>
+      </c>
+      <c r="K6">
         <v>1.006484920262247</v>
       </c>
-      <c r="J6">
-        <v>0.9907231687583485</v>
-      </c>
-      <c r="K6">
-        <v>0.9980365081384044</v>
-      </c>
       <c r="L6">
-        <v>1.00241306658908</v>
+        <v>1.002150257501337</v>
       </c>
       <c r="M6">
-        <v>0.9939388950340527</v>
+        <v>0.9907231687583488</v>
       </c>
       <c r="N6">
         <v>1.006484920262247</v>
@@ -953,22 +905,22 @@
         <v>1.002150257501337</v>
       </c>
       <c r="P6">
-        <v>0.9964367131298428</v>
+        <v>0.9964367131298431</v>
       </c>
       <c r="Q6">
         <v>1.000073365452241</v>
       </c>
       <c r="R6">
-        <v>0.999786115507311</v>
+        <v>0.9997861155073112</v>
       </c>
       <c r="S6">
-        <v>0.9969566332209437</v>
+        <v>0.996956633220944</v>
       </c>
       <c r="T6">
-        <v>0.999786115507311</v>
+        <v>0.9997861155073112</v>
       </c>
       <c r="U6">
-        <v>0.9993387049812696</v>
+        <v>0.9993387049812699</v>
       </c>
       <c r="V6">
         <v>1.000767948037465</v>
@@ -977,7 +929,7 @@
         <v>0.9993961287637707</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,37 +937,37 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9999685289947122</v>
+      </c>
+      <c r="D7">
+        <v>1.000054728884011</v>
+      </c>
+      <c r="E7">
         <v>1.000094872306579</v>
-      </c>
-      <c r="D7">
-        <v>0.9998530520495627</v>
-      </c>
-      <c r="E7">
-        <v>1.00003847740974</v>
       </c>
       <c r="F7">
         <v>1.000094872306579</v>
       </c>
       <c r="G7">
-        <v>0.9999685289947122</v>
+        <v>0.9999047552524507</v>
       </c>
       <c r="H7">
-        <v>1.000054728884011</v>
+        <v>1.00003576921469</v>
       </c>
       <c r="I7">
+        <v>0.9998530520495627</v>
+      </c>
+      <c r="J7">
+        <v>0.9999717247262762</v>
+      </c>
+      <c r="K7">
         <v>1.000094872306579</v>
       </c>
-      <c r="J7">
+      <c r="L7">
+        <v>1.00003847740974</v>
+      </c>
+      <c r="M7">
         <v>0.9998530520495627</v>
-      </c>
-      <c r="K7">
-        <v>0.9999717247262762</v>
-      </c>
-      <c r="L7">
-        <v>1.00003576921469</v>
-      </c>
-      <c r="M7">
-        <v>0.9999047552524507</v>
       </c>
       <c r="N7">
         <v>1.000094872306579</v>
@@ -1036,7 +988,7 @@
         <v>0.999953352818005</v>
       </c>
       <c r="T7">
-        <v>0.9999954672552942</v>
+        <v>0.9999954672552941</v>
       </c>
       <c r="U7">
         <v>0.9999887326901487</v>
@@ -1048,7 +1000,7 @@
         <v>0.9999902386047528</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,37 +1008,37 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9999081879932205</v>
+      </c>
+      <c r="D8">
+        <v>1.000159096007973</v>
+      </c>
+      <c r="E8">
         <v>1.000281093919222</v>
-      </c>
-      <c r="D8">
-        <v>0.9995720600074309</v>
-      </c>
-      <c r="E8">
-        <v>1.00010934770352</v>
       </c>
       <c r="F8">
         <v>1.000281093919222</v>
       </c>
       <c r="G8">
-        <v>0.9999081879932205</v>
+        <v>0.9997221605326657</v>
       </c>
       <c r="H8">
-        <v>1.000159096007973</v>
+        <v>1.000105671173406</v>
       </c>
       <c r="I8">
+        <v>0.9995720600074309</v>
+      </c>
+      <c r="J8">
+        <v>0.9999159247156708</v>
+      </c>
+      <c r="K8">
         <v>1.000281093919222</v>
       </c>
-      <c r="J8">
+      <c r="L8">
+        <v>1.00010934770352</v>
+      </c>
+      <c r="M8">
         <v>0.9995720600074309</v>
-      </c>
-      <c r="K8">
-        <v>0.9999159247156708</v>
-      </c>
-      <c r="L8">
-        <v>1.000105671173406</v>
-      </c>
-      <c r="M8">
-        <v>0.9997221605326657</v>
       </c>
       <c r="N8">
         <v>1.000281093919222</v>
@@ -1119,7 +1071,7 @@
         <v>0.9999716927566387</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9998630526762902</v>
+      </c>
+      <c r="D9">
+        <v>1.000236378860365</v>
+      </c>
+      <c r="E9">
         <v>1.000426367425101</v>
-      </c>
-      <c r="D9">
-        <v>0.9993629270616651</v>
-      </c>
-      <c r="E9">
-        <v>1.000158339824098</v>
       </c>
       <c r="F9">
         <v>1.000426367425101</v>
       </c>
       <c r="G9">
-        <v>0.9998630526762902</v>
+        <v>0.9995856111260534</v>
       </c>
       <c r="H9">
-        <v>1.000236378860365</v>
+        <v>1.000159783477067</v>
       </c>
       <c r="I9">
+        <v>0.9993629270616651</v>
+      </c>
+      <c r="J9">
+        <v>0.9998719914083621</v>
+      </c>
+      <c r="K9">
         <v>1.000426367425101</v>
       </c>
-      <c r="J9">
+      <c r="L9">
+        <v>1.000158339824098</v>
+      </c>
+      <c r="M9">
         <v>0.9993629270616651</v>
-      </c>
-      <c r="K9">
-        <v>0.9998719914083621</v>
-      </c>
-      <c r="L9">
-        <v>1.000159783477067</v>
-      </c>
-      <c r="M9">
-        <v>0.9995856111260534</v>
       </c>
       <c r="N9">
         <v>1.000426367425101</v>
@@ -1190,7 +1142,7 @@
         <v>0.9999580564823751</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9997128367588283</v>
+      </c>
+      <c r="D10">
+        <v>1.000496621581838</v>
+      </c>
+      <c r="E10">
         <v>1.000886694227879</v>
-      </c>
-      <c r="D10">
-        <v>0.9986628410871917</v>
-      </c>
-      <c r="E10">
-        <v>1.000336959089319</v>
       </c>
       <c r="F10">
         <v>1.000886694227879</v>
       </c>
       <c r="G10">
-        <v>0.9997128367588283</v>
+        <v>0.9991310338404422</v>
       </c>
       <c r="H10">
-        <v>1.000496621581838</v>
+        <v>1.000332806378179</v>
       </c>
       <c r="I10">
+        <v>0.9986628410871917</v>
+      </c>
+      <c r="J10">
+        <v>0.9997342772096129</v>
+      </c>
+      <c r="K10">
         <v>1.000886694227879</v>
       </c>
-      <c r="J10">
+      <c r="L10">
+        <v>1.000336959089319</v>
+      </c>
+      <c r="M10">
         <v>0.9986628410871917</v>
-      </c>
-      <c r="K10">
-        <v>0.9997342772096129</v>
-      </c>
-      <c r="L10">
-        <v>1.000332806378179</v>
-      </c>
-      <c r="M10">
-        <v>0.9991310338404422</v>
       </c>
       <c r="N10">
         <v>1.000886694227879</v>
@@ -1261,7 +1213,7 @@
         <v>0.9999117587716612</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9995000745747697</v>
+      </c>
+      <c r="D11">
+        <v>1.000861439970686</v>
+      </c>
+      <c r="E11">
         <v>1.001567592849364</v>
-      </c>
-      <c r="D11">
-        <v>0.9976763190955192</v>
-      </c>
-      <c r="E11">
-        <v>1.000570530777249</v>
       </c>
       <c r="F11">
         <v>1.001567592849364</v>
       </c>
       <c r="G11">
-        <v>0.9995000745747697</v>
+        <v>0.9984873281496286</v>
       </c>
       <c r="H11">
-        <v>1.000861439970686</v>
+        <v>1.00058669106703</v>
       </c>
       <c r="I11">
+        <v>0.9976763190955195</v>
+      </c>
+      <c r="J11">
+        <v>0.999528615786008</v>
+      </c>
+      <c r="K11">
         <v>1.001567592849364</v>
       </c>
-      <c r="J11">
-        <v>0.9976763190955192</v>
-      </c>
-      <c r="K11">
-        <v>0.999528615786008</v>
-      </c>
       <c r="L11">
-        <v>1.00058669106703</v>
+        <v>1.000570530777249</v>
       </c>
       <c r="M11">
-        <v>0.9984873281496286</v>
+        <v>0.9976763190955195</v>
       </c>
       <c r="N11">
         <v>1.001567592849364</v>
@@ -1308,22 +1260,22 @@
         <v>1.000570530777249</v>
       </c>
       <c r="P11">
-        <v>0.9991234249363843</v>
+        <v>0.9991234249363845</v>
       </c>
       <c r="Q11">
         <v>1.00003530267601</v>
       </c>
       <c r="R11">
-        <v>0.9999381475740442</v>
+        <v>0.9999381475740444</v>
       </c>
       <c r="S11">
-        <v>0.9992489748158461</v>
+        <v>0.9992489748158463</v>
       </c>
       <c r="T11">
-        <v>0.9999381475740442</v>
+        <v>0.9999381475740443</v>
       </c>
       <c r="U11">
-        <v>0.9998286293242256</v>
+        <v>0.9998286293242257</v>
       </c>
       <c r="V11">
         <v>1.000176422029253</v>
@@ -1332,7 +1284,7 @@
         <v>0.999847324033782</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,37 +1292,37 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.005818068488067</v>
+      </c>
+      <c r="D12">
+        <v>0.9895609093610205</v>
+      </c>
+      <c r="E12">
         <v>0.9849104901507927</v>
-      </c>
-      <c r="D12">
-        <v>1.027596943453301</v>
-      </c>
-      <c r="E12">
-        <v>0.9912397611167881</v>
       </c>
       <c r="F12">
         <v>0.9849104901507927</v>
       </c>
       <c r="G12">
-        <v>1.005818068488067</v>
+        <v>1.01762146140804</v>
       </c>
       <c r="H12">
-        <v>0.9895609093610204</v>
+        <v>0.9941346584451078</v>
       </c>
       <c r="I12">
+        <v>1.027596943453301</v>
+      </c>
+      <c r="J12">
+        <v>1.004328343866613</v>
+      </c>
+      <c r="K12">
         <v>0.9849104901507927</v>
       </c>
-      <c r="J12">
+      <c r="L12">
+        <v>0.9912397611167881</v>
+      </c>
+      <c r="M12">
         <v>1.027596943453301</v>
-      </c>
-      <c r="K12">
-        <v>1.004328343866613</v>
-      </c>
-      <c r="L12">
-        <v>0.9941346584451078</v>
-      </c>
-      <c r="M12">
-        <v>1.01762146140804</v>
       </c>
       <c r="N12">
         <v>0.9849104901507927</v>
@@ -1403,7 +1355,7 @@
         <v>1.001901329536216</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,43 +1363,43 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.001386664406511</v>
+      </c>
+      <c r="D13">
+        <v>0.9977681729269999</v>
+      </c>
+      <c r="E13">
         <v>0.9944510362848364</v>
-      </c>
-      <c r="D13">
-        <v>1.006234178046039</v>
-      </c>
-      <c r="E13">
-        <v>0.9992249342690589</v>
       </c>
       <c r="F13">
         <v>0.9944510362848364</v>
       </c>
       <c r="G13">
-        <v>1.001386664406511</v>
+        <v>1.004189154967502</v>
       </c>
       <c r="H13">
-        <v>0.9977681729269999</v>
+        <v>0.9980061916441396</v>
       </c>
       <c r="I13">
+        <v>1.006234178046038</v>
+      </c>
+      <c r="J13">
+        <v>1.001748261793105</v>
+      </c>
+      <c r="K13">
         <v>0.9944510362848364</v>
       </c>
-      <c r="J13">
-        <v>1.006234178046039</v>
-      </c>
-      <c r="K13">
-        <v>1.001748261793105</v>
-      </c>
       <c r="L13">
-        <v>0.9980061916441396</v>
+        <v>0.999224934269059</v>
       </c>
       <c r="M13">
-        <v>1.004189154967502</v>
+        <v>1.006234178046038</v>
       </c>
       <c r="N13">
         <v>0.9944510362848364</v>
       </c>
       <c r="O13">
-        <v>0.9992249342690589</v>
+        <v>0.999224934269059</v>
       </c>
       <c r="P13">
         <v>1.002729556157549</v>
@@ -1459,22 +1411,22 @@
         <v>0.9999700495333114</v>
       </c>
       <c r="S13">
-        <v>1.00228192557387</v>
+        <v>1.002281925573869</v>
       </c>
       <c r="T13">
-        <v>0.9999700495333114</v>
+        <v>0.9999700495333111</v>
       </c>
       <c r="U13">
         <v>1.000324203251611</v>
       </c>
       <c r="V13">
-        <v>0.9991495698582563</v>
+        <v>0.9991495698582561</v>
       </c>
       <c r="W13">
         <v>1.000376074292274</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,37 +1434,37 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.9993777859702941</v>
+      </c>
+      <c r="D14">
+        <v>1.001752986563079</v>
+      </c>
+      <c r="E14">
         <v>0.9967624633574996</v>
-      </c>
-      <c r="D14">
-        <v>0.996195832254395</v>
-      </c>
-      <c r="E14">
-        <v>1.004198720700661</v>
       </c>
       <c r="F14">
         <v>0.9967624633574996</v>
       </c>
       <c r="G14">
-        <v>0.9993777859702941</v>
+        <v>0.998088828514448</v>
       </c>
       <c r="H14">
-        <v>1.001752986563079</v>
+        <v>0.9991467770460045</v>
       </c>
       <c r="I14">
+        <v>0.996195832254395</v>
+      </c>
+      <c r="J14">
+        <v>1.001317684068608</v>
+      </c>
+      <c r="K14">
         <v>0.9967624633574996</v>
       </c>
-      <c r="J14">
+      <c r="L14">
+        <v>1.004198720700661</v>
+      </c>
+      <c r="M14">
         <v>0.996195832254395</v>
-      </c>
-      <c r="K14">
-        <v>1.001317684068608</v>
-      </c>
-      <c r="L14">
-        <v>0.9991467770460045</v>
-      </c>
-      <c r="M14">
-        <v>0.998088828514448</v>
       </c>
       <c r="N14">
         <v>0.9967624633574996</v>
@@ -1545,7 +1497,7 @@
         <v>0.9996051348093737</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,43 +1505,43 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.000035746338731</v>
+      </c>
+      <c r="D15">
+        <v>0.9996602188557281</v>
+      </c>
+      <c r="E15">
         <v>1.002007939115971</v>
-      </c>
-      <c r="D15">
-        <v>1.000538818749538</v>
-      </c>
-      <c r="E15">
-        <v>0.9985337662525965</v>
       </c>
       <c r="F15">
         <v>1.002007939115971</v>
       </c>
       <c r="G15">
-        <v>1.000035746338731</v>
+        <v>1.000119795477235</v>
       </c>
       <c r="H15">
-        <v>0.9996602188557281</v>
+        <v>1.000605025881231</v>
       </c>
       <c r="I15">
+        <v>1.000538818749538</v>
+      </c>
+      <c r="J15">
+        <v>0.9992555882860785</v>
+      </c>
+      <c r="K15">
         <v>1.002007939115971</v>
       </c>
-      <c r="J15">
+      <c r="L15">
+        <v>0.9985337662525966</v>
+      </c>
+      <c r="M15">
         <v>1.000538818749538</v>
-      </c>
-      <c r="K15">
-        <v>0.9992555882860786</v>
-      </c>
-      <c r="L15">
-        <v>1.000605025881231</v>
-      </c>
-      <c r="M15">
-        <v>1.000119795477235</v>
       </c>
       <c r="N15">
         <v>1.002007939115971</v>
       </c>
       <c r="O15">
-        <v>0.9985337662525965</v>
+        <v>0.9985337662525966</v>
       </c>
       <c r="P15">
         <v>0.9995362925010673</v>
@@ -1616,7 +1568,7 @@
         <v>1.000094612369639</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.00000389934697</v>
+        <v>0.9927915174787383</v>
       </c>
       <c r="D16">
-        <v>0.9999923567510214</v>
+        <v>1.012333155875442</v>
       </c>
       <c r="E16">
-        <v>1.000002584275864</v>
+        <v>1.0232736483289</v>
       </c>
       <c r="F16">
-        <v>1.00000389934697</v>
+        <v>1.0232736483289</v>
       </c>
       <c r="G16">
-        <v>0.9999983981427837</v>
+        <v>0.9781924226446718</v>
       </c>
       <c r="H16">
-        <v>1.000002908349659</v>
+        <v>1.008664151372662</v>
       </c>
       <c r="I16">
-        <v>1.00000389934697</v>
+        <v>0.9666125897835869</v>
       </c>
       <c r="J16">
-        <v>0.9999923567510214</v>
+        <v>0.9929569848911645</v>
       </c>
       <c r="K16">
-        <v>0.9999989028806054</v>
+        <v>1.0232736483289</v>
       </c>
       <c r="L16">
-        <v>1.000001535617804</v>
+        <v>1.007775702011737</v>
       </c>
       <c r="M16">
-        <v>0.99999514721752</v>
+        <v>0.9666125897835869</v>
       </c>
       <c r="N16">
-        <v>1.00000389934697</v>
+        <v>1.0232736483289</v>
       </c>
       <c r="O16">
-        <v>1.000002584275864</v>
+        <v>1.007775702011737</v>
       </c>
       <c r="P16">
-        <v>0.9999974705134426</v>
+        <v>0.9871941458976617</v>
       </c>
       <c r="Q16">
-        <v>1.000000491209324</v>
+        <v>1.000283609745237</v>
       </c>
       <c r="R16">
-        <v>0.9999996134579515</v>
+        <v>0.9992206467080745</v>
       </c>
       <c r="S16">
-        <v>0.9999977797232229</v>
+        <v>0.9890599364246873</v>
       </c>
       <c r="T16">
-        <v>0.9999996134579515</v>
+        <v>0.9992206467080745</v>
       </c>
       <c r="U16">
-        <v>0.9999993096291596</v>
+        <v>0.9976133644007406</v>
       </c>
       <c r="V16">
-        <v>1.000000227572722</v>
+        <v>1.002745421186372</v>
       </c>
       <c r="W16">
-        <v>0.9999994665727783</v>
+        <v>0.9978250215483627</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000095585640128</v>
+        <v>0.9940750346107682</v>
       </c>
       <c r="D17">
-        <v>0.9998454599710284</v>
+        <v>1.010173860714827</v>
       </c>
       <c r="E17">
-        <v>1.000042821234297</v>
+        <v>1.018849906913448</v>
       </c>
       <c r="F17">
-        <v>1.000095585640128</v>
+        <v>1.018849906913448</v>
       </c>
       <c r="G17">
-        <v>0.9999670447001311</v>
+        <v>0.9820738690721577</v>
       </c>
       <c r="H17">
-        <v>1.000057804151613</v>
+        <v>1.007036080661123</v>
       </c>
       <c r="I17">
-        <v>1.000095585640128</v>
+        <v>0.9725082667342358</v>
       </c>
       <c r="J17">
-        <v>0.9998454599710284</v>
+        <v>0.9943137043022537</v>
       </c>
       <c r="K17">
-        <v>0.999971771730028</v>
+        <v>1.018849906913448</v>
       </c>
       <c r="L17">
-        <v>1.000036308079828</v>
+        <v>1.00657925876443</v>
       </c>
       <c r="M17">
-        <v>0.9999002420402409</v>
+        <v>0.9725082667342358</v>
       </c>
       <c r="N17">
-        <v>1.000095585640128</v>
+        <v>1.018849906913448</v>
       </c>
       <c r="O17">
-        <v>1.000042821234297</v>
+        <v>1.00657925876443</v>
       </c>
       <c r="P17">
-        <v>0.9999441406026628</v>
+        <v>0.9895437627493326</v>
       </c>
       <c r="Q17">
-        <v>1.000004932967214</v>
+        <v>1.000327146687599</v>
       </c>
       <c r="R17">
-        <v>0.9999946222818178</v>
+        <v>0.9993124774707045</v>
       </c>
       <c r="S17">
-        <v>0.9999517753018189</v>
+        <v>0.9910541867031445</v>
       </c>
       <c r="T17">
-        <v>0.9999946222818178</v>
+        <v>0.9993124774707045</v>
       </c>
       <c r="U17">
-        <v>0.9999877278863961</v>
+        <v>0.9980031167557204</v>
       </c>
       <c r="V17">
-        <v>1.000009299437143</v>
+        <v>1.002172474787266</v>
       </c>
       <c r="W17">
-        <v>0.9999896296934117</v>
+        <v>0.9982012477216555</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000373220388429</v>
+        <v>0.9966389020823164</v>
       </c>
       <c r="D18">
-        <v>0.9994765508480162</v>
+        <v>1.005858775979937</v>
       </c>
       <c r="E18">
-        <v>1.000117220026403</v>
+        <v>1.010027203697721</v>
       </c>
       <c r="F18">
-        <v>1.000373220388429</v>
+        <v>1.010027203697721</v>
       </c>
       <c r="G18">
-        <v>0.9998867011012613</v>
+        <v>0.9898272644433243</v>
       </c>
       <c r="H18">
-        <v>1.000192867738235</v>
+        <v>1.003788186058437</v>
       </c>
       <c r="I18">
-        <v>1.000373220388429</v>
+        <v>0.9842875190362561</v>
       </c>
       <c r="J18">
-        <v>0.9994765508480162</v>
+        <v>0.9970187071076501</v>
       </c>
       <c r="K18">
-        <v>0.9998865798380171</v>
+        <v>1.010027203697721</v>
       </c>
       <c r="L18">
-        <v>1.00013844084429</v>
+        <v>1.004180000643343</v>
       </c>
       <c r="M18">
-        <v>0.9996572885712874</v>
+        <v>0.9842875190362561</v>
       </c>
       <c r="N18">
-        <v>1.000373220388429</v>
+        <v>1.010027203697721</v>
       </c>
       <c r="O18">
-        <v>1.000117220026403</v>
+        <v>1.004180000643343</v>
       </c>
       <c r="P18">
-        <v>0.9997968854372095</v>
+        <v>0.9942337598397993</v>
       </c>
       <c r="Q18">
-        <v>1.000001960563832</v>
+        <v>1.000409451362829</v>
       </c>
       <c r="R18">
-        <v>0.9999889970876158</v>
+        <v>0.9994982411257732</v>
       </c>
       <c r="S18">
-        <v>0.9998268239918934</v>
+        <v>0.9950354739206384</v>
       </c>
       <c r="T18">
-        <v>0.9999889970876158</v>
+        <v>0.9994982411257732</v>
       </c>
       <c r="U18">
-        <v>0.9999634230910273</v>
+        <v>0.998783406364909</v>
       </c>
       <c r="V18">
-        <v>1.000045382550508</v>
+        <v>1.001032165831471</v>
       </c>
       <c r="W18">
-        <v>0.9999661086694923</v>
+        <v>0.998953319881123</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9963119813442123</v>
+      </c>
+      <c r="D19">
+        <v>1.006453495493411</v>
+      </c>
+      <c r="E19">
+        <v>1.010813068040767</v>
+      </c>
+      <c r="F19">
+        <v>1.010813068040767</v>
+      </c>
+      <c r="G19">
+        <v>0.9888367594981824</v>
+      </c>
+      <c r="H19">
+        <v>1.004098835817093</v>
+      </c>
+      <c r="I19">
+        <v>0.9827259231489037</v>
+      </c>
+      <c r="J19">
+        <v>0.9967982577817209</v>
+      </c>
+      <c r="K19">
+        <v>1.010813068040767</v>
+      </c>
+      <c r="L19">
+        <v>1.004713943444171</v>
+      </c>
+      <c r="M19">
+        <v>0.9827259231489037</v>
+      </c>
+      <c r="N19">
+        <v>1.010813068040767</v>
+      </c>
+      <c r="O19">
+        <v>1.004713943444171</v>
+      </c>
+      <c r="P19">
+        <v>0.9937199332965376</v>
+      </c>
+      <c r="Q19">
+        <v>1.000512962394192</v>
+      </c>
+      <c r="R19">
+        <v>0.9994176448779474</v>
+      </c>
+      <c r="S19">
+        <v>0.9945839493124291</v>
+      </c>
+      <c r="T19">
+        <v>0.9994176448779474</v>
+      </c>
+      <c r="U19">
+        <v>0.9986412289945137</v>
+      </c>
+      <c r="V19">
+        <v>1.001075596803764</v>
+      </c>
+      <c r="W19">
+        <v>0.9988440330710577</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999983981427836</v>
+      </c>
+      <c r="D20">
+        <v>1.000002908349659</v>
+      </c>
+      <c r="E20">
+        <v>1.00000389934697</v>
+      </c>
+      <c r="F20">
+        <v>1.00000389934697</v>
+      </c>
+      <c r="G20">
+        <v>0.9999951472175203</v>
+      </c>
+      <c r="H20">
+        <v>1.000001535617804</v>
+      </c>
+      <c r="I20">
+        <v>0.9999923567510214</v>
+      </c>
+      <c r="J20">
+        <v>0.9999989028806054</v>
+      </c>
+      <c r="K20">
+        <v>1.00000389934697</v>
+      </c>
+      <c r="L20">
+        <v>1.000002584275864</v>
+      </c>
+      <c r="M20">
+        <v>0.9999923567510214</v>
+      </c>
+      <c r="N20">
+        <v>1.00000389934697</v>
+      </c>
+      <c r="O20">
+        <v>1.000002584275864</v>
+      </c>
+      <c r="P20">
+        <v>0.9999974705134426</v>
+      </c>
+      <c r="Q20">
+        <v>1.000000491209324</v>
+      </c>
+      <c r="R20">
+        <v>0.9999996134579515</v>
+      </c>
+      <c r="S20">
+        <v>0.9999977797232229</v>
+      </c>
+      <c r="T20">
+        <v>0.9999996134579515</v>
+      </c>
+      <c r="U20">
+        <v>0.9999993096291595</v>
+      </c>
+      <c r="V20">
+        <v>1.000000227572722</v>
+      </c>
+      <c r="W20">
+        <v>0.9999994665727784</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999670447001311</v>
+      </c>
+      <c r="D21">
+        <v>1.000057804151613</v>
+      </c>
+      <c r="E21">
+        <v>1.000095585640128</v>
+      </c>
+      <c r="F21">
+        <v>1.000095585640128</v>
+      </c>
+      <c r="G21">
+        <v>0.9999002420402409</v>
+      </c>
+      <c r="H21">
+        <v>1.000036308079828</v>
+      </c>
+      <c r="I21">
+        <v>0.9998454599710284</v>
+      </c>
+      <c r="J21">
+        <v>0.999971771730028</v>
+      </c>
+      <c r="K21">
+        <v>1.000095585640128</v>
+      </c>
+      <c r="L21">
+        <v>1.000042821234298</v>
+      </c>
+      <c r="M21">
+        <v>0.9998454599710284</v>
+      </c>
+      <c r="N21">
+        <v>1.000095585640128</v>
+      </c>
+      <c r="O21">
+        <v>1.000042821234298</v>
+      </c>
+      <c r="P21">
+        <v>0.999944140602663</v>
+      </c>
+      <c r="Q21">
+        <v>1.000004932967214</v>
+      </c>
+      <c r="R21">
+        <v>0.999994622281818</v>
+      </c>
+      <c r="S21">
+        <v>0.999951775301819</v>
+      </c>
+      <c r="T21">
+        <v>0.9999946222818181</v>
+      </c>
+      <c r="U21">
+        <v>0.9999877278863963</v>
+      </c>
+      <c r="V21">
+        <v>1.000009299437143</v>
+      </c>
+      <c r="W21">
+        <v>0.9999896296934119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9998867011012613</v>
+      </c>
+      <c r="D22">
+        <v>1.000192867738235</v>
+      </c>
+      <c r="E22">
+        <v>1.000373220388429</v>
+      </c>
+      <c r="F22">
+        <v>1.000373220388429</v>
+      </c>
+      <c r="G22">
+        <v>0.9996572885712874</v>
+      </c>
+      <c r="H22">
+        <v>1.00013844084429</v>
+      </c>
+      <c r="I22">
+        <v>0.9994765508480162</v>
+      </c>
+      <c r="J22">
+        <v>0.9998865798380169</v>
+      </c>
+      <c r="K22">
+        <v>1.000373220388429</v>
+      </c>
+      <c r="L22">
+        <v>1.000117220026403</v>
+      </c>
+      <c r="M22">
+        <v>0.9994765508480162</v>
+      </c>
+      <c r="N22">
+        <v>1.000373220388429</v>
+      </c>
+      <c r="O22">
+        <v>1.000117220026403</v>
+      </c>
+      <c r="P22">
+        <v>0.9997968854372095</v>
+      </c>
+      <c r="Q22">
+        <v>1.000001960563832</v>
+      </c>
+      <c r="R22">
+        <v>0.999988997087616</v>
+      </c>
+      <c r="S22">
+        <v>0.9998268239918934</v>
+      </c>
+      <c r="T22">
+        <v>0.9999889970876158</v>
+      </c>
+      <c r="U22">
+        <v>0.9999634230910273</v>
+      </c>
+      <c r="V22">
+        <v>1.000045382550508</v>
+      </c>
+      <c r="W22">
+        <v>0.9999661086694923</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9997366092165839</v>
+      </c>
+      <c r="D23">
+        <v>1.000443916177159</v>
+      </c>
+      <c r="E23">
         <v>1.000901635956265</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>1.000901635956265</v>
+      </c>
+      <c r="G23">
+        <v>0.9992034572916542</v>
+      </c>
+      <c r="H23">
+        <v>1.000332212753864</v>
+      </c>
+      <c r="I23">
         <v>0.9987890720773258</v>
       </c>
-      <c r="E19">
+      <c r="J23">
+        <v>0.9997238508623143</v>
+      </c>
+      <c r="K23">
+        <v>1.000901635956265</v>
+      </c>
+      <c r="L23">
         <v>1.000249657946664</v>
       </c>
-      <c r="F19">
+      <c r="M23">
+        <v>0.9987890720773258</v>
+      </c>
+      <c r="N23">
         <v>1.000901635956265</v>
       </c>
-      <c r="G19">
-        <v>0.9997366092165839</v>
-      </c>
-      <c r="H19">
-        <v>1.000443916177159</v>
-      </c>
-      <c r="I19">
-        <v>1.000901635956265</v>
-      </c>
-      <c r="J19">
-        <v>0.9987890720773258</v>
-      </c>
-      <c r="K19">
-        <v>0.9997238508623143</v>
-      </c>
-      <c r="L19">
-        <v>1.000332212753864</v>
-      </c>
-      <c r="M19">
-        <v>0.9992034572916542</v>
-      </c>
-      <c r="N19">
-        <v>1.000901635956265</v>
-      </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.000249657946664</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.999519365011995</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9999931335816241</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999801219934185</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.999591779746858</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999801219934185</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9999192437992098</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.000115722230621</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.999922551535229</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW35.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 1, 1]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.99963095593207</v>
+        <v>0.9959171899135427</v>
       </c>
       <c r="D3">
-        <v>1.000630581126796</v>
+        <v>1.007115500194525</v>
       </c>
       <c r="E3">
-        <v>1.001197803262716</v>
+        <v>1.012190248328529</v>
       </c>
       <c r="F3">
-        <v>1.001197803262716</v>
+        <v>1.012190248328529</v>
       </c>
       <c r="G3">
-        <v>0.9988835779974023</v>
+        <v>0.987642972982709</v>
       </c>
       <c r="H3">
-        <v>1.000445486275842</v>
+        <v>1.004604643681553</v>
       </c>
       <c r="I3">
-        <v>0.9982918095975041</v>
+        <v>0.9809153944308359</v>
       </c>
       <c r="J3">
-        <v>0.9996371195325807</v>
+        <v>0.996374895482707</v>
       </c>
       <c r="K3">
-        <v>1.001197803262716</v>
+        <v>1.012190248328529</v>
       </c>
       <c r="L3">
-        <v>1.000393855061526</v>
+        <v>1.005070861844384</v>
       </c>
       <c r="M3">
-        <v>0.9982918095975041</v>
+        <v>0.9809153944308359</v>
       </c>
       <c r="N3">
-        <v>1.001197803262716</v>
+        <v>1.012190248328529</v>
       </c>
       <c r="O3">
-        <v>1.000393855061526</v>
+        <v>1.005070861844384</v>
       </c>
       <c r="P3">
-        <v>0.999342832329515</v>
+        <v>0.9929931281376099</v>
       </c>
       <c r="Q3">
-        <v>1.000012405496798</v>
+        <v>1.000494025878963</v>
       </c>
       <c r="R3">
-        <v>0.9999611559739153</v>
+        <v>0.9993921682012497</v>
       </c>
       <c r="S3">
-        <v>0.9994388735303668</v>
+        <v>0.9939678153962541</v>
       </c>
       <c r="T3">
-        <v>0.9999611559739153</v>
+        <v>0.9993921682012497</v>
       </c>
       <c r="U3">
-        <v>0.9998786059634539</v>
+        <v>0.9985234236293229</v>
       </c>
       <c r="V3">
-        <v>1.000142445423306</v>
+        <v>1.001256788569164</v>
       </c>
       <c r="W3">
-        <v>0.9998888985983045</v>
+        <v>0.9987289633573482</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9992874982002709</v>
+        <v>0.9963295033479381</v>
       </c>
       <c r="D4">
-        <v>1.001217588746727</v>
+        <v>1.006399758190463</v>
       </c>
       <c r="E4">
-        <v>1.002311449309538</v>
+        <v>1.010937571036153</v>
       </c>
       <c r="F4">
-        <v>1.002311449309538</v>
+        <v>1.010937571036153</v>
       </c>
       <c r="G4">
-        <v>0.9978445532733927</v>
+        <v>0.9888907618477466</v>
       </c>
       <c r="H4">
-        <v>1.000859748084961</v>
+        <v>1.004133035760341</v>
       </c>
       <c r="I4">
-        <v>0.9967018547998792</v>
+        <v>0.9828389052254997</v>
       </c>
       <c r="J4">
-        <v>0.9992998045701011</v>
+        <v>0.9967489188576274</v>
       </c>
       <c r="K4">
-        <v>1.002311449309538</v>
+        <v>1.010937571036153</v>
       </c>
       <c r="L4">
-        <v>1.000761151139993</v>
+        <v>1.004573298930294</v>
       </c>
       <c r="M4">
-        <v>0.9967018547998792</v>
+        <v>0.9828389052254997</v>
       </c>
       <c r="N4">
-        <v>1.002311449309538</v>
+        <v>1.010937571036153</v>
       </c>
       <c r="O4">
-        <v>1.000761151139993</v>
+        <v>1.004573298930294</v>
       </c>
       <c r="P4">
-        <v>0.9987315029699361</v>
+        <v>0.9937061020778968</v>
       </c>
       <c r="Q4">
-        <v>1.000024324670132</v>
+        <v>1.000451401139116</v>
       </c>
       <c r="R4">
-        <v>0.9999248184164699</v>
+        <v>0.9994499250639821</v>
       </c>
       <c r="S4">
-        <v>0.998916834713381</v>
+        <v>0.9945805691679106</v>
       </c>
       <c r="T4">
-        <v>0.9999248184164699</v>
+        <v>0.9994499250639821</v>
       </c>
       <c r="U4">
-        <v>0.9997654883624201</v>
+        <v>0.9986698196349711</v>
       </c>
       <c r="V4">
-        <v>1.000274680551844</v>
+        <v>1.001123369915207</v>
       </c>
       <c r="W4">
-        <v>0.9997854560156079</v>
+        <v>0.9988564691495078</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9986341429919495</v>
+        <v>0.9951247988409703</v>
       </c>
       <c r="D5">
-        <v>1.002335042551137</v>
+        <v>1.008490605660378</v>
       </c>
       <c r="E5">
-        <v>1.004423786155599</v>
+        <v>1.014600851078168</v>
       </c>
       <c r="F5">
-        <v>1.004423786155599</v>
+        <v>1.014600851078168</v>
       </c>
       <c r="G5">
-        <v>0.9958680016656277</v>
+        <v>0.9852449672776283</v>
       </c>
       <c r="H5">
-        <v>1.001645919838188</v>
+        <v>1.005511962722374</v>
       </c>
       <c r="I5">
-        <v>0.9936762360853519</v>
+        <v>0.977219322479784</v>
       </c>
       <c r="J5">
-        <v>0.9986603867840025</v>
+        <v>0.9956549208086265</v>
       </c>
       <c r="K5">
-        <v>1.004423786155599</v>
+        <v>1.014600851078168</v>
       </c>
       <c r="L5">
-        <v>1.001463969649045</v>
+        <v>1.006024946415093</v>
       </c>
       <c r="M5">
-        <v>0.9936762360853519</v>
+        <v>0.977219322479784</v>
       </c>
       <c r="N5">
-        <v>1.004423786155599</v>
+        <v>1.014600851078168</v>
       </c>
       <c r="O5">
-        <v>1.001463969649045</v>
+        <v>1.006024946415093</v>
       </c>
       <c r="P5">
-        <v>0.9975701028671987</v>
+        <v>0.9916221344474384</v>
       </c>
       <c r="Q5">
-        <v>1.000049056320498</v>
+        <v>1.000574872628031</v>
       </c>
       <c r="R5">
-        <v>0.999854663963332</v>
+        <v>0.9992817066576816</v>
       </c>
       <c r="S5">
-        <v>0.9979247829087824</v>
+        <v>0.9927896892452823</v>
       </c>
       <c r="T5">
-        <v>0.999854663963332</v>
+        <v>0.9992817066576816</v>
       </c>
       <c r="U5">
-        <v>0.9995495337204864</v>
+        <v>0.9982424797035038</v>
       </c>
       <c r="V5">
-        <v>1.000524384207509</v>
+        <v>1.001514153978437</v>
       </c>
       <c r="W5">
-        <v>0.9995884357151126</v>
+        <v>0.9984840469103777</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9979964734031457</v>
+        <v>0.9943738120454546</v>
       </c>
       <c r="D6">
-        <v>1.00342574042355</v>
+        <v>1.009793368806818</v>
       </c>
       <c r="E6">
-        <v>1.006484920262247</v>
+        <v>1.016889244375</v>
       </c>
       <c r="F6">
-        <v>1.006484920262247</v>
+        <v>1.016889244375</v>
       </c>
       <c r="G6">
-        <v>0.9939388950340527</v>
+        <v>0.9829722864772716</v>
       </c>
       <c r="H6">
-        <v>1.00241306658908</v>
+        <v>1.006373012670454</v>
       </c>
       <c r="I6">
-        <v>0.9907231687583488</v>
+        <v>0.9737170335795444</v>
       </c>
       <c r="J6">
-        <v>0.9980365081384044</v>
+        <v>0.9949711959090911</v>
       </c>
       <c r="K6">
-        <v>1.006484920262247</v>
+        <v>1.016889244375</v>
       </c>
       <c r="L6">
-        <v>1.002150257501337</v>
+        <v>1.006926652556818</v>
       </c>
       <c r="M6">
-        <v>0.9907231687583488</v>
+        <v>0.9737170335795444</v>
       </c>
       <c r="N6">
-        <v>1.006484920262247</v>
+        <v>1.016889244375</v>
       </c>
       <c r="O6">
-        <v>1.002150257501337</v>
+        <v>1.006926652556818</v>
       </c>
       <c r="P6">
-        <v>0.9964367131298431</v>
+        <v>0.9903218430681811</v>
       </c>
       <c r="Q6">
-        <v>1.000073365452241</v>
+        <v>1.000650232301136</v>
       </c>
       <c r="R6">
-        <v>0.9997861155073112</v>
+        <v>0.9991776435037875</v>
       </c>
       <c r="S6">
-        <v>0.996956633220944</v>
+        <v>0.991672499393939</v>
       </c>
       <c r="T6">
-        <v>0.9997861155073112</v>
+        <v>0.9991776435037875</v>
       </c>
       <c r="U6">
-        <v>0.9993387049812699</v>
+        <v>0.9979766856392043</v>
       </c>
       <c r="V6">
-        <v>1.000767948037465</v>
+        <v>1.001759197386364</v>
       </c>
       <c r="W6">
-        <v>0.9993961287637707</v>
+        <v>0.9982520758025564</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999685289947122</v>
+        <v>0.9857361187399233</v>
       </c>
       <c r="D7">
-        <v>1.000054728884011</v>
+        <v>1.024667115389656</v>
       </c>
       <c r="E7">
-        <v>1.000094872306579</v>
+        <v>1.044050856843291</v>
       </c>
       <c r="F7">
-        <v>1.000094872306579</v>
+        <v>1.044050856843291</v>
       </c>
       <c r="G7">
-        <v>0.9999047552524507</v>
+        <v>0.9568369807238529</v>
       </c>
       <c r="H7">
-        <v>1.00003576921469</v>
+        <v>1.016533299632453</v>
       </c>
       <c r="I7">
-        <v>0.9998530520495627</v>
+        <v>0.9335822761374403</v>
       </c>
       <c r="J7">
-        <v>0.9999717247262762</v>
+        <v>0.9867984087218076</v>
       </c>
       <c r="K7">
-        <v>1.000094872306579</v>
+        <v>1.044050856843291</v>
       </c>
       <c r="L7">
-        <v>1.00003847740974</v>
+        <v>1.01673247841546</v>
       </c>
       <c r="M7">
-        <v>0.9998530520495627</v>
+        <v>0.9335822761374403</v>
       </c>
       <c r="N7">
-        <v>1.000094872306579</v>
+        <v>1.044050856843291</v>
       </c>
       <c r="O7">
-        <v>1.00003847740974</v>
+        <v>1.01673247841546</v>
       </c>
       <c r="P7">
-        <v>0.9999457647296515</v>
+        <v>0.9751573772764499</v>
       </c>
       <c r="Q7">
-        <v>1.000003503202226</v>
+        <v>1.001234298577691</v>
       </c>
       <c r="R7">
-        <v>0.9999954672552942</v>
+        <v>0.9981218704653969</v>
       </c>
       <c r="S7">
-        <v>0.999953352818005</v>
+        <v>0.978683624430941</v>
       </c>
       <c r="T7">
-        <v>0.9999954672552941</v>
+        <v>0.9981218704653969</v>
       </c>
       <c r="U7">
-        <v>0.9999887326901487</v>
+        <v>0.9950254325340285</v>
       </c>
       <c r="V7">
-        <v>1.000009960613435</v>
+        <v>1.004830517395881</v>
       </c>
       <c r="W7">
-        <v>0.9999902386047528</v>
+        <v>0.9956171918254854</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999081879932205</v>
+        <v>0.9856508305758456</v>
       </c>
       <c r="D8">
-        <v>1.000159096007973</v>
+        <v>1.024814008464684</v>
       </c>
       <c r="E8">
-        <v>1.000281093919222</v>
+        <v>1.044318817442543</v>
       </c>
       <c r="F8">
-        <v>1.000281093919222</v>
+        <v>1.044318817442543</v>
       </c>
       <c r="G8">
-        <v>0.9997221605326657</v>
+        <v>0.9565789207091203</v>
       </c>
       <c r="H8">
-        <v>1.000105671173406</v>
+        <v>1.016633551037466</v>
       </c>
       <c r="I8">
-        <v>0.9995720600074309</v>
+        <v>0.9331859467236912</v>
       </c>
       <c r="J8">
-        <v>0.9999159247156708</v>
+        <v>0.9867177960707471</v>
       </c>
       <c r="K8">
-        <v>1.000281093919222</v>
+        <v>1.044318817442543</v>
       </c>
       <c r="L8">
-        <v>1.00010934770352</v>
+        <v>1.016829456448513</v>
       </c>
       <c r="M8">
-        <v>0.9995720600074309</v>
+        <v>0.9331859467236912</v>
       </c>
       <c r="N8">
-        <v>1.000281093919222</v>
+        <v>1.044318817442543</v>
       </c>
       <c r="O8">
-        <v>1.00010934770352</v>
+        <v>1.016829456448513</v>
       </c>
       <c r="P8">
-        <v>0.9998407038554754</v>
+        <v>0.9750077015861019</v>
       </c>
       <c r="Q8">
-        <v>1.00000876784837</v>
+        <v>1.001240143512179</v>
       </c>
       <c r="R8">
-        <v>0.999987500543391</v>
+        <v>0.9981114068715823</v>
       </c>
       <c r="S8">
-        <v>0.9998631985680571</v>
+        <v>0.9785554112493499</v>
       </c>
       <c r="T8">
-        <v>0.999987500543391</v>
+        <v>0.9981114068715823</v>
       </c>
       <c r="U8">
-        <v>0.9999676724058484</v>
+        <v>0.9949962627976481</v>
       </c>
       <c r="V8">
-        <v>1.000030356708523</v>
+        <v>1.004860773726627</v>
       </c>
       <c r="W8">
-        <v>0.9999716927566387</v>
+        <v>0.9955911659340761</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9998630526762902</v>
+        <v>0.9855973309998781</v>
       </c>
       <c r="D9">
-        <v>1.000236378860365</v>
+        <v>1.024909319754466</v>
       </c>
       <c r="E9">
-        <v>1.000426367425101</v>
+        <v>1.044462759469866</v>
       </c>
       <c r="F9">
-        <v>1.000426367425101</v>
+        <v>1.044462759469866</v>
       </c>
       <c r="G9">
-        <v>0.9995856111260534</v>
+        <v>0.9564169122759643</v>
       </c>
       <c r="H9">
-        <v>1.000159783477067</v>
+        <v>1.016689068488956</v>
       </c>
       <c r="I9">
-        <v>0.9993629270616651</v>
+        <v>0.9329330930003108</v>
       </c>
       <c r="J9">
-        <v>0.9998719914083621</v>
+        <v>0.9866760910501973</v>
       </c>
       <c r="K9">
-        <v>1.000426367425101</v>
+        <v>1.044462759469866</v>
       </c>
       <c r="L9">
-        <v>1.000158339824098</v>
+        <v>1.016906522514889</v>
       </c>
       <c r="M9">
-        <v>0.9993629270616651</v>
+        <v>0.9329330930003108</v>
       </c>
       <c r="N9">
-        <v>1.000426367425101</v>
+        <v>1.044462759469866</v>
       </c>
       <c r="O9">
-        <v>1.000158339824098</v>
+        <v>1.016906522514889</v>
       </c>
       <c r="P9">
-        <v>0.9997606334428815</v>
+        <v>0.9749198077575999</v>
       </c>
       <c r="Q9">
-        <v>1.000010696250194</v>
+        <v>1.001251926757384</v>
       </c>
       <c r="R9">
-        <v>0.999982544770288</v>
+        <v>0.9981007916616886</v>
       </c>
       <c r="S9">
-        <v>0.9997947731873511</v>
+        <v>0.9784789821716927</v>
       </c>
       <c r="T9">
-        <v>0.999982544770288</v>
+        <v>0.9981007916616886</v>
       </c>
       <c r="U9">
-        <v>0.9999526717467886</v>
+        <v>0.994974926496236</v>
       </c>
       <c r="V9">
-        <v>1.000047410882451</v>
+        <v>1.004872493090962</v>
       </c>
       <c r="W9">
-        <v>0.9999580564823751</v>
+        <v>0.9955738871943158</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9997128367588283</v>
+        <v>0.9852872869817364</v>
       </c>
       <c r="D10">
-        <v>1.000496621581838</v>
+        <v>1.025437140061997</v>
       </c>
       <c r="E10">
-        <v>1.000886694227879</v>
+        <v>1.045483913240645</v>
       </c>
       <c r="F10">
-        <v>1.000886694227879</v>
+        <v>1.045483913240645</v>
       </c>
       <c r="G10">
-        <v>0.9991310338404422</v>
+        <v>0.9554790570384535</v>
       </c>
       <c r="H10">
-        <v>1.000332806378179</v>
+        <v>1.017067866257823</v>
       </c>
       <c r="I10">
-        <v>0.9986628410871917</v>
+        <v>0.9315006057658177</v>
       </c>
       <c r="J10">
-        <v>0.9997342772096129</v>
+        <v>0.9863657750958761</v>
       </c>
       <c r="K10">
-        <v>1.000886694227879</v>
+        <v>1.045483913240645</v>
       </c>
       <c r="L10">
-        <v>1.000336959089319</v>
+        <v>1.017227427981875</v>
       </c>
       <c r="M10">
-        <v>0.9986628410871917</v>
+        <v>0.9315006057658177</v>
       </c>
       <c r="N10">
-        <v>1.000886694227879</v>
+        <v>1.045483913240645</v>
       </c>
       <c r="O10">
-        <v>1.000336959089319</v>
+        <v>1.017227427981875</v>
       </c>
       <c r="P10">
-        <v>0.9994999000882552</v>
+        <v>0.9743640168738463</v>
       </c>
       <c r="Q10">
-        <v>1.000024897924073</v>
+        <v>1.001257357481806</v>
       </c>
       <c r="R10">
-        <v>0.9999621648014632</v>
+        <v>0.9980706489961126</v>
       </c>
       <c r="S10">
-        <v>0.9995708789784462</v>
+        <v>0.9780051069098098</v>
       </c>
       <c r="T10">
-        <v>0.9999621648014632</v>
+        <v>0.9980706489961126</v>
       </c>
       <c r="U10">
-        <v>0.9998998327908044</v>
+        <v>0.9948748084925185</v>
       </c>
       <c r="V10">
-        <v>1.000097205078219</v>
+        <v>1.004996629442144</v>
       </c>
       <c r="W10">
-        <v>0.9999117587716612</v>
+        <v>0.9954811340530281</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9995000745747697</v>
+        <v>0.9995519959253087</v>
       </c>
       <c r="D11">
-        <v>1.000861439970686</v>
+        <v>1.000763454272709</v>
       </c>
       <c r="E11">
-        <v>1.001567592849364</v>
+        <v>1.001469672136492</v>
       </c>
       <c r="F11">
-        <v>1.001567592849364</v>
+        <v>1.001469672136492</v>
       </c>
       <c r="G11">
-        <v>0.9984873281496286</v>
+        <v>0.9986447945778206</v>
       </c>
       <c r="H11">
-        <v>1.00058669106703</v>
+        <v>1.000545559598994</v>
       </c>
       <c r="I11">
-        <v>0.9976763190955195</v>
+        <v>0.9979290667351292</v>
       </c>
       <c r="J11">
-        <v>0.999528615786008</v>
+        <v>0.9995537566894522</v>
       </c>
       <c r="K11">
-        <v>1.001567592849364</v>
+        <v>1.001469672136492</v>
       </c>
       <c r="L11">
-        <v>1.000570530777249</v>
+        <v>1.000467643747605</v>
       </c>
       <c r="M11">
-        <v>0.9976763190955195</v>
+        <v>0.9979290667351292</v>
       </c>
       <c r="N11">
-        <v>1.001567592849364</v>
+        <v>1.001469672136492</v>
       </c>
       <c r="O11">
-        <v>1.000570530777249</v>
+        <v>1.000467643747605</v>
       </c>
       <c r="P11">
-        <v>0.9991234249363845</v>
+        <v>0.9991983552413672</v>
       </c>
       <c r="Q11">
-        <v>1.00003530267601</v>
+        <v>1.000009819836457</v>
       </c>
       <c r="R11">
-        <v>0.9999381475740444</v>
+        <v>0.9999554608730755</v>
       </c>
       <c r="S11">
-        <v>0.9992489748158463</v>
+        <v>0.9993162354693478</v>
       </c>
       <c r="T11">
-        <v>0.9999381475740443</v>
+        <v>0.9999554608730755</v>
       </c>
       <c r="U11">
-        <v>0.9998286293242257</v>
+        <v>0.9998545946361338</v>
       </c>
       <c r="V11">
-        <v>1.000176422029253</v>
+        <v>1.000177610136205</v>
       </c>
       <c r="W11">
-        <v>0.999847324033782</v>
+        <v>0.9998657429604388</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.005818068488067</v>
+        <v>0.999737669642209</v>
       </c>
       <c r="D12">
-        <v>0.9895609093610205</v>
+        <v>1.000450670756781</v>
       </c>
       <c r="E12">
-        <v>0.9849104901507927</v>
+        <v>1.000832925078907</v>
       </c>
       <c r="F12">
-        <v>0.9849104901507927</v>
+        <v>1.000832925078907</v>
       </c>
       <c r="G12">
-        <v>1.01762146140804</v>
+        <v>0.9992063040354373</v>
       </c>
       <c r="H12">
-        <v>0.9941346584451078</v>
+        <v>1.000311016821503</v>
       </c>
       <c r="I12">
-        <v>1.027596943453301</v>
+        <v>0.9987824993017537</v>
       </c>
       <c r="J12">
-        <v>1.004328343866613</v>
+        <v>0.9997488479113222</v>
       </c>
       <c r="K12">
-        <v>0.9849104901507927</v>
+        <v>1.000832925078907</v>
       </c>
       <c r="L12">
-        <v>0.9912397611167881</v>
+        <v>1.000292418200297</v>
       </c>
       <c r="M12">
-        <v>1.027596943453301</v>
+        <v>0.9987824993017537</v>
       </c>
       <c r="N12">
-        <v>0.9849104901507927</v>
+        <v>1.000832925078907</v>
       </c>
       <c r="O12">
-        <v>0.9912397611167881</v>
+        <v>1.000292418200297</v>
       </c>
       <c r="P12">
-        <v>1.009418352285045</v>
+        <v>0.9995374587510253</v>
       </c>
       <c r="Q12">
-        <v>0.9985289148024277</v>
+        <v>1.000015043921253</v>
       </c>
       <c r="R12">
-        <v>1.001249064906961</v>
+        <v>0.9999692808603194</v>
       </c>
       <c r="S12">
-        <v>1.008218257686052</v>
+        <v>0.9996041957147531</v>
       </c>
       <c r="T12">
-        <v>1.001249064906961</v>
+        <v>0.9999692808603194</v>
       </c>
       <c r="U12">
-        <v>1.002391315802238</v>
+        <v>0.9999113780557918</v>
       </c>
       <c r="V12">
-        <v>0.9988951506719486</v>
+        <v>1.000095687460415</v>
       </c>
       <c r="W12">
-        <v>1.001901329536216</v>
+        <v>0.9999202939685263</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.001386664406511</v>
+        <v>0.9990489443108187</v>
       </c>
       <c r="D13">
-        <v>0.9977681729269999</v>
+        <v>1.001635558806233</v>
       </c>
       <c r="E13">
-        <v>0.9944510362848364</v>
+        <v>1.003006792505017</v>
       </c>
       <c r="F13">
-        <v>0.9944510362848364</v>
+        <v>1.003006792505017</v>
       </c>
       <c r="G13">
-        <v>1.004189154967502</v>
+        <v>0.9971224518805349</v>
       </c>
       <c r="H13">
-        <v>0.9980061916441396</v>
+        <v>1.001123630328608</v>
       </c>
       <c r="I13">
-        <v>1.006234178046038</v>
+        <v>0.9955837869860555</v>
       </c>
       <c r="J13">
-        <v>1.001748261793105</v>
+        <v>0.9990942040037013</v>
       </c>
       <c r="K13">
-        <v>0.9944510362848364</v>
+        <v>1.003006792505017</v>
       </c>
       <c r="L13">
-        <v>0.999224934269059</v>
+        <v>1.001068815930776</v>
       </c>
       <c r="M13">
-        <v>1.006234178046038</v>
+        <v>0.9955837869860555</v>
       </c>
       <c r="N13">
-        <v>0.9944510362848364</v>
+        <v>1.003006792505017</v>
       </c>
       <c r="O13">
-        <v>0.999224934269059</v>
+        <v>1.001068815930776</v>
       </c>
       <c r="P13">
-        <v>1.002729556157549</v>
+        <v>0.9983263014584159</v>
       </c>
       <c r="Q13">
-        <v>1.000305799337785</v>
+        <v>1.000058880120797</v>
       </c>
       <c r="R13">
-        <v>0.9999700495333114</v>
+        <v>0.9998864651406162</v>
       </c>
       <c r="S13">
-        <v>1.002281925573869</v>
+        <v>0.9985671824092169</v>
       </c>
       <c r="T13">
-        <v>0.9999700495333111</v>
+        <v>0.9998864651406162</v>
       </c>
       <c r="U13">
-        <v>1.000324203251611</v>
+        <v>0.9996770849331668</v>
       </c>
       <c r="V13">
-        <v>0.9991495698582561</v>
+        <v>1.000343026447537</v>
       </c>
       <c r="W13">
-        <v>1.000376074292274</v>
+        <v>0.999710523093968</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9993777859702941</v>
+        <v>0.9989654702836837</v>
       </c>
       <c r="D14">
-        <v>1.001752986563079</v>
+        <v>1.001769372320936</v>
       </c>
       <c r="E14">
-        <v>0.9967624633574996</v>
+        <v>1.003344926658716</v>
       </c>
       <c r="F14">
-        <v>0.9967624633574996</v>
+        <v>1.003344926658716</v>
       </c>
       <c r="G14">
-        <v>0.998088828514448</v>
+        <v>0.9968702949027212</v>
       </c>
       <c r="H14">
-        <v>0.9991467770460045</v>
+        <v>1.001244901813996</v>
       </c>
       <c r="I14">
-        <v>0.996195832254395</v>
+        <v>0.9952092218860492</v>
       </c>
       <c r="J14">
-        <v>1.001317684068608</v>
+        <v>0.998987462797912</v>
       </c>
       <c r="K14">
-        <v>0.9967624633574996</v>
+        <v>1.003344926658716</v>
       </c>
       <c r="L14">
-        <v>1.004198720700661</v>
+        <v>1.001112713600237</v>
       </c>
       <c r="M14">
-        <v>0.996195832254395</v>
+        <v>0.9952092218860492</v>
       </c>
       <c r="N14">
-        <v>0.9967624633574996</v>
+        <v>1.003344926658716</v>
       </c>
       <c r="O14">
-        <v>1.004198720700661</v>
+        <v>1.001112713600237</v>
       </c>
       <c r="P14">
-        <v>1.000197276477528</v>
+        <v>0.9981609677431431</v>
       </c>
       <c r="Q14">
-        <v>1.001788253335478</v>
+        <v>1.00003909194196</v>
       </c>
       <c r="R14">
-        <v>0.9990523387708521</v>
+        <v>0.999888954048334</v>
       </c>
       <c r="S14">
-        <v>0.9999241129751169</v>
+        <v>0.9984291352566567</v>
       </c>
       <c r="T14">
-        <v>0.9990523387708521</v>
+        <v>0.999888954048334</v>
       </c>
       <c r="U14">
-        <v>0.9991337005707126</v>
+        <v>0.9996580831071714</v>
       </c>
       <c r="V14">
-        <v>0.9986594531280699</v>
+        <v>1.00039545181748</v>
       </c>
       <c r="W14">
-        <v>0.9996051348093737</v>
+        <v>0.9996880455330314</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000035746338731</v>
+        <v>0.99963095593207</v>
       </c>
       <c r="D15">
-        <v>0.9996602188557281</v>
+        <v>1.000630581126796</v>
       </c>
       <c r="E15">
-        <v>1.002007939115971</v>
+        <v>1.001197803262716</v>
       </c>
       <c r="F15">
-        <v>1.002007939115971</v>
+        <v>1.001197803262716</v>
       </c>
       <c r="G15">
-        <v>1.000119795477235</v>
+        <v>0.9988835779974023</v>
       </c>
       <c r="H15">
-        <v>1.000605025881231</v>
+        <v>1.000445486275842</v>
       </c>
       <c r="I15">
-        <v>1.000538818749538</v>
+        <v>0.9982918095975041</v>
       </c>
       <c r="J15">
-        <v>0.9992555882860785</v>
+        <v>0.9996371195325807</v>
       </c>
       <c r="K15">
-        <v>1.002007939115971</v>
+        <v>1.001197803262716</v>
       </c>
       <c r="L15">
-        <v>0.9985337662525966</v>
+        <v>1.000393855061526</v>
       </c>
       <c r="M15">
-        <v>1.000538818749538</v>
+        <v>0.9982918095975041</v>
       </c>
       <c r="N15">
-        <v>1.002007939115971</v>
+        <v>1.001197803262716</v>
       </c>
       <c r="O15">
-        <v>0.9985337662525966</v>
+        <v>1.000393855061526</v>
       </c>
       <c r="P15">
-        <v>0.9995362925010673</v>
+        <v>0.999342832329515</v>
       </c>
       <c r="Q15">
-        <v>0.9992847562956639</v>
+        <v>1.000012405496798</v>
       </c>
       <c r="R15">
-        <v>1.000360174706035</v>
+        <v>0.9999611559739153</v>
       </c>
       <c r="S15">
-        <v>0.999702777113622</v>
+        <v>0.9994388735303668</v>
       </c>
       <c r="T15">
-        <v>1.000360174706035</v>
+        <v>0.9999611559739153</v>
       </c>
       <c r="U15">
-        <v>1.000279067614209</v>
+        <v>0.9998786059634539</v>
       </c>
       <c r="V15">
-        <v>1.000624841914562</v>
+        <v>1.000142445423306</v>
       </c>
       <c r="W15">
-        <v>1.000094612369639</v>
+        <v>0.9998888985983045</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9927915174787383</v>
+        <v>0.9992874982002709</v>
       </c>
       <c r="D16">
-        <v>1.012333155875442</v>
+        <v>1.001217588746727</v>
       </c>
       <c r="E16">
-        <v>1.0232736483289</v>
+        <v>1.002311449309538</v>
       </c>
       <c r="F16">
-        <v>1.0232736483289</v>
+        <v>1.002311449309538</v>
       </c>
       <c r="G16">
-        <v>0.9781924226446718</v>
+        <v>0.9978445532733927</v>
       </c>
       <c r="H16">
-        <v>1.008664151372662</v>
+        <v>1.000859748084961</v>
       </c>
       <c r="I16">
-        <v>0.9666125897835869</v>
+        <v>0.9967018547998792</v>
       </c>
       <c r="J16">
-        <v>0.9929569848911645</v>
+        <v>0.9992998045701011</v>
       </c>
       <c r="K16">
-        <v>1.0232736483289</v>
+        <v>1.002311449309538</v>
       </c>
       <c r="L16">
-        <v>1.007775702011737</v>
+        <v>1.000761151139993</v>
       </c>
       <c r="M16">
-        <v>0.9666125897835869</v>
+        <v>0.9967018547998792</v>
       </c>
       <c r="N16">
-        <v>1.0232736483289</v>
+        <v>1.002311449309538</v>
       </c>
       <c r="O16">
-        <v>1.007775702011737</v>
+        <v>1.000761151139993</v>
       </c>
       <c r="P16">
-        <v>0.9871941458976617</v>
+        <v>0.9987315029699361</v>
       </c>
       <c r="Q16">
-        <v>1.000283609745237</v>
+        <v>1.000024324670132</v>
       </c>
       <c r="R16">
-        <v>0.9992206467080745</v>
+        <v>0.9999248184164699</v>
       </c>
       <c r="S16">
-        <v>0.9890599364246873</v>
+        <v>0.998916834713381</v>
       </c>
       <c r="T16">
-        <v>0.9992206467080745</v>
+        <v>0.9999248184164699</v>
       </c>
       <c r="U16">
-        <v>0.9976133644007406</v>
+        <v>0.9997654883624201</v>
       </c>
       <c r="V16">
-        <v>1.002745421186372</v>
+        <v>1.000274680551844</v>
       </c>
       <c r="W16">
-        <v>0.9978250215483627</v>
+        <v>0.9997854560156079</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9940750346107682</v>
+        <v>0.9986341429919495</v>
       </c>
       <c r="D17">
-        <v>1.010173860714827</v>
+        <v>1.002335042551137</v>
       </c>
       <c r="E17">
-        <v>1.018849906913448</v>
+        <v>1.004423786155599</v>
       </c>
       <c r="F17">
-        <v>1.018849906913448</v>
+        <v>1.004423786155599</v>
       </c>
       <c r="G17">
-        <v>0.9820738690721577</v>
+        <v>0.9958680016656277</v>
       </c>
       <c r="H17">
-        <v>1.007036080661123</v>
+        <v>1.001645919838188</v>
       </c>
       <c r="I17">
-        <v>0.9725082667342358</v>
+        <v>0.9936762360853519</v>
       </c>
       <c r="J17">
-        <v>0.9943137043022537</v>
+        <v>0.9986603867840025</v>
       </c>
       <c r="K17">
-        <v>1.018849906913448</v>
+        <v>1.004423786155599</v>
       </c>
       <c r="L17">
-        <v>1.00657925876443</v>
+        <v>1.001463969649045</v>
       </c>
       <c r="M17">
-        <v>0.9725082667342358</v>
+        <v>0.9936762360853519</v>
       </c>
       <c r="N17">
-        <v>1.018849906913448</v>
+        <v>1.004423786155599</v>
       </c>
       <c r="O17">
-        <v>1.00657925876443</v>
+        <v>1.001463969649045</v>
       </c>
       <c r="P17">
-        <v>0.9895437627493326</v>
+        <v>0.9975701028671987</v>
       </c>
       <c r="Q17">
-        <v>1.000327146687599</v>
+        <v>1.000049056320498</v>
       </c>
       <c r="R17">
-        <v>0.9993124774707045</v>
+        <v>0.999854663963332</v>
       </c>
       <c r="S17">
-        <v>0.9910541867031445</v>
+        <v>0.9979247829087824</v>
       </c>
       <c r="T17">
-        <v>0.9993124774707045</v>
+        <v>0.999854663963332</v>
       </c>
       <c r="U17">
-        <v>0.9980031167557204</v>
+        <v>0.9995495337204864</v>
       </c>
       <c r="V17">
-        <v>1.002172474787266</v>
+        <v>1.000524384207509</v>
       </c>
       <c r="W17">
-        <v>0.9982012477216555</v>
+        <v>0.9995884357151126</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9966389020823164</v>
+        <v>0.9979964734031457</v>
       </c>
       <c r="D18">
-        <v>1.005858775979937</v>
+        <v>1.00342574042355</v>
       </c>
       <c r="E18">
-        <v>1.010027203697721</v>
+        <v>1.006484920262247</v>
       </c>
       <c r="F18">
-        <v>1.010027203697721</v>
+        <v>1.006484920262247</v>
       </c>
       <c r="G18">
-        <v>0.9898272644433243</v>
+        <v>0.9939388950340527</v>
       </c>
       <c r="H18">
-        <v>1.003788186058437</v>
+        <v>1.00241306658908</v>
       </c>
       <c r="I18">
-        <v>0.9842875190362561</v>
+        <v>0.9907231687583488</v>
       </c>
       <c r="J18">
-        <v>0.9970187071076501</v>
+        <v>0.9980365081384044</v>
       </c>
       <c r="K18">
-        <v>1.010027203697721</v>
+        <v>1.006484920262247</v>
       </c>
       <c r="L18">
-        <v>1.004180000643343</v>
+        <v>1.002150257501337</v>
       </c>
       <c r="M18">
-        <v>0.9842875190362561</v>
+        <v>0.9907231687583488</v>
       </c>
       <c r="N18">
-        <v>1.010027203697721</v>
+        <v>1.006484920262247</v>
       </c>
       <c r="O18">
-        <v>1.004180000643343</v>
+        <v>1.002150257501337</v>
       </c>
       <c r="P18">
-        <v>0.9942337598397993</v>
+        <v>0.9964367131298431</v>
       </c>
       <c r="Q18">
-        <v>1.000409451362829</v>
+        <v>1.000073365452241</v>
       </c>
       <c r="R18">
-        <v>0.9994982411257732</v>
+        <v>0.9997861155073112</v>
       </c>
       <c r="S18">
-        <v>0.9950354739206384</v>
+        <v>0.996956633220944</v>
       </c>
       <c r="T18">
-        <v>0.9994982411257732</v>
+        <v>0.9997861155073112</v>
       </c>
       <c r="U18">
-        <v>0.998783406364909</v>
+        <v>0.9993387049812699</v>
       </c>
       <c r="V18">
-        <v>1.001032165831471</v>
+        <v>1.000767948037465</v>
       </c>
       <c r="W18">
-        <v>0.998953319881123</v>
+        <v>0.9993961287637707</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9963119813442123</v>
+        <v>0.9999685289947122</v>
       </c>
       <c r="D19">
-        <v>1.006453495493411</v>
+        <v>1.000054728884011</v>
       </c>
       <c r="E19">
-        <v>1.010813068040767</v>
+        <v>1.000094872306579</v>
       </c>
       <c r="F19">
-        <v>1.010813068040767</v>
+        <v>1.000094872306579</v>
       </c>
       <c r="G19">
-        <v>0.9888367594981824</v>
+        <v>0.9999047552524507</v>
       </c>
       <c r="H19">
-        <v>1.004098835817093</v>
+        <v>1.00003576921469</v>
       </c>
       <c r="I19">
-        <v>0.9827259231489037</v>
+        <v>0.9998530520495627</v>
       </c>
       <c r="J19">
-        <v>0.9967982577817209</v>
+        <v>0.9999717247262762</v>
       </c>
       <c r="K19">
-        <v>1.010813068040767</v>
+        <v>1.000094872306579</v>
       </c>
       <c r="L19">
-        <v>1.004713943444171</v>
+        <v>1.00003847740974</v>
       </c>
       <c r="M19">
-        <v>0.9827259231489037</v>
+        <v>0.9998530520495627</v>
       </c>
       <c r="N19">
-        <v>1.010813068040767</v>
+        <v>1.000094872306579</v>
       </c>
       <c r="O19">
-        <v>1.004713943444171</v>
+        <v>1.00003847740974</v>
       </c>
       <c r="P19">
-        <v>0.9937199332965376</v>
+        <v>0.9999457647296515</v>
       </c>
       <c r="Q19">
-        <v>1.000512962394192</v>
+        <v>1.000003503202226</v>
       </c>
       <c r="R19">
-        <v>0.9994176448779474</v>
+        <v>0.9999954672552942</v>
       </c>
       <c r="S19">
-        <v>0.9945839493124291</v>
+        <v>0.999953352818005</v>
       </c>
       <c r="T19">
-        <v>0.9994176448779474</v>
+        <v>0.9999954672552941</v>
       </c>
       <c r="U19">
-        <v>0.9986412289945137</v>
+        <v>0.9999887326901487</v>
       </c>
       <c r="V19">
-        <v>1.001075596803764</v>
+        <v>1.000009960613435</v>
       </c>
       <c r="W19">
-        <v>0.9988440330710577</v>
+        <v>0.9999902386047528</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999983981427836</v>
+        <v>0.9999081879932205</v>
       </c>
       <c r="D20">
-        <v>1.000002908349659</v>
+        <v>1.000159096007973</v>
       </c>
       <c r="E20">
-        <v>1.00000389934697</v>
+        <v>1.000281093919222</v>
       </c>
       <c r="F20">
-        <v>1.00000389934697</v>
+        <v>1.000281093919222</v>
       </c>
       <c r="G20">
-        <v>0.9999951472175203</v>
+        <v>0.9997221605326657</v>
       </c>
       <c r="H20">
-        <v>1.000001535617804</v>
+        <v>1.000105671173406</v>
       </c>
       <c r="I20">
-        <v>0.9999923567510214</v>
+        <v>0.9995720600074309</v>
       </c>
       <c r="J20">
-        <v>0.9999989028806054</v>
+        <v>0.9999159247156708</v>
       </c>
       <c r="K20">
-        <v>1.00000389934697</v>
+        <v>1.000281093919222</v>
       </c>
       <c r="L20">
-        <v>1.000002584275864</v>
+        <v>1.00010934770352</v>
       </c>
       <c r="M20">
-        <v>0.9999923567510214</v>
+        <v>0.9995720600074309</v>
       </c>
       <c r="N20">
-        <v>1.00000389934697</v>
+        <v>1.000281093919222</v>
       </c>
       <c r="O20">
-        <v>1.000002584275864</v>
+        <v>1.00010934770352</v>
       </c>
       <c r="P20">
-        <v>0.9999974705134426</v>
+        <v>0.9998407038554754</v>
       </c>
       <c r="Q20">
-        <v>1.000000491209324</v>
+        <v>1.00000876784837</v>
       </c>
       <c r="R20">
-        <v>0.9999996134579515</v>
+        <v>0.999987500543391</v>
       </c>
       <c r="S20">
-        <v>0.9999977797232229</v>
+        <v>0.9998631985680571</v>
       </c>
       <c r="T20">
-        <v>0.9999996134579515</v>
+        <v>0.999987500543391</v>
       </c>
       <c r="U20">
-        <v>0.9999993096291595</v>
+        <v>0.9999676724058484</v>
       </c>
       <c r="V20">
-        <v>1.000000227572722</v>
+        <v>1.000030356708523</v>
       </c>
       <c r="W20">
-        <v>0.9999994665727784</v>
+        <v>0.9999716927566387</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999670447001311</v>
+        <v>0.9998630526762902</v>
       </c>
       <c r="D21">
-        <v>1.000057804151613</v>
+        <v>1.000236378860365</v>
       </c>
       <c r="E21">
-        <v>1.000095585640128</v>
+        <v>1.000426367425101</v>
       </c>
       <c r="F21">
-        <v>1.000095585640128</v>
+        <v>1.000426367425101</v>
       </c>
       <c r="G21">
-        <v>0.9999002420402409</v>
+        <v>0.9995856111260534</v>
       </c>
       <c r="H21">
-        <v>1.000036308079828</v>
+        <v>1.000159783477067</v>
       </c>
       <c r="I21">
-        <v>0.9998454599710284</v>
+        <v>0.9993629270616651</v>
       </c>
       <c r="J21">
-        <v>0.999971771730028</v>
+        <v>0.9998719914083621</v>
       </c>
       <c r="K21">
-        <v>1.000095585640128</v>
+        <v>1.000426367425101</v>
       </c>
       <c r="L21">
-        <v>1.000042821234298</v>
+        <v>1.000158339824098</v>
       </c>
       <c r="M21">
-        <v>0.9998454599710284</v>
+        <v>0.9993629270616651</v>
       </c>
       <c r="N21">
-        <v>1.000095585640128</v>
+        <v>1.000426367425101</v>
       </c>
       <c r="O21">
-        <v>1.000042821234298</v>
+        <v>1.000158339824098</v>
       </c>
       <c r="P21">
-        <v>0.999944140602663</v>
+        <v>0.9997606334428815</v>
       </c>
       <c r="Q21">
-        <v>1.000004932967214</v>
+        <v>1.000010696250194</v>
       </c>
       <c r="R21">
-        <v>0.999994622281818</v>
+        <v>0.999982544770288</v>
       </c>
       <c r="S21">
-        <v>0.999951775301819</v>
+        <v>0.9997947731873511</v>
       </c>
       <c r="T21">
-        <v>0.9999946222818181</v>
+        <v>0.999982544770288</v>
       </c>
       <c r="U21">
-        <v>0.9999877278863963</v>
+        <v>0.9999526717467886</v>
       </c>
       <c r="V21">
-        <v>1.000009299437143</v>
+        <v>1.000047410882451</v>
       </c>
       <c r="W21">
-        <v>0.9999896296934119</v>
+        <v>0.9999580564823751</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9998867011012613</v>
+        <v>0.9997128367588283</v>
       </c>
       <c r="D22">
-        <v>1.000192867738235</v>
+        <v>1.000496621581838</v>
       </c>
       <c r="E22">
-        <v>1.000373220388429</v>
+        <v>1.000886694227879</v>
       </c>
       <c r="F22">
-        <v>1.000373220388429</v>
+        <v>1.000886694227879</v>
       </c>
       <c r="G22">
-        <v>0.9996572885712874</v>
+        <v>0.9991310338404422</v>
       </c>
       <c r="H22">
-        <v>1.00013844084429</v>
+        <v>1.000332806378179</v>
       </c>
       <c r="I22">
-        <v>0.9994765508480162</v>
+        <v>0.9986628410871917</v>
       </c>
       <c r="J22">
-        <v>0.9998865798380169</v>
+        <v>0.9997342772096129</v>
       </c>
       <c r="K22">
-        <v>1.000373220388429</v>
+        <v>1.000886694227879</v>
       </c>
       <c r="L22">
-        <v>1.000117220026403</v>
+        <v>1.000336959089319</v>
       </c>
       <c r="M22">
-        <v>0.9994765508480162</v>
+        <v>0.9986628410871917</v>
       </c>
       <c r="N22">
-        <v>1.000373220388429</v>
+        <v>1.000886694227879</v>
       </c>
       <c r="O22">
-        <v>1.000117220026403</v>
+        <v>1.000336959089319</v>
       </c>
       <c r="P22">
-        <v>0.9997968854372095</v>
+        <v>0.9994999000882552</v>
       </c>
       <c r="Q22">
-        <v>1.000001960563832</v>
+        <v>1.000024897924073</v>
       </c>
       <c r="R22">
-        <v>0.999988997087616</v>
+        <v>0.9999621648014632</v>
       </c>
       <c r="S22">
-        <v>0.9998268239918934</v>
+        <v>0.9995708789784462</v>
       </c>
       <c r="T22">
-        <v>0.9999889970876158</v>
+        <v>0.9999621648014632</v>
       </c>
       <c r="U22">
-        <v>0.9999634230910273</v>
+        <v>0.9998998327908044</v>
       </c>
       <c r="V22">
-        <v>1.000045382550508</v>
+        <v>1.000097205078219</v>
       </c>
       <c r="W22">
-        <v>0.9999661086694923</v>
+        <v>0.9999117587716612</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9995000745747697</v>
+      </c>
+      <c r="D23">
+        <v>1.000861439970686</v>
+      </c>
+      <c r="E23">
+        <v>1.001567592849364</v>
+      </c>
+      <c r="F23">
+        <v>1.001567592849364</v>
+      </c>
+      <c r="G23">
+        <v>0.9984873281496286</v>
+      </c>
+      <c r="H23">
+        <v>1.00058669106703</v>
+      </c>
+      <c r="I23">
+        <v>0.9976763190955195</v>
+      </c>
+      <c r="J23">
+        <v>0.999528615786008</v>
+      </c>
+      <c r="K23">
+        <v>1.001567592849364</v>
+      </c>
+      <c r="L23">
+        <v>1.000570530777249</v>
+      </c>
+      <c r="M23">
+        <v>0.9976763190955195</v>
+      </c>
+      <c r="N23">
+        <v>1.001567592849364</v>
+      </c>
+      <c r="O23">
+        <v>1.000570530777249</v>
+      </c>
+      <c r="P23">
+        <v>0.9991234249363845</v>
+      </c>
+      <c r="Q23">
+        <v>1.00003530267601</v>
+      </c>
+      <c r="R23">
+        <v>0.9999381475740444</v>
+      </c>
+      <c r="S23">
+        <v>0.9992489748158463</v>
+      </c>
+      <c r="T23">
+        <v>0.9999381475740443</v>
+      </c>
+      <c r="U23">
+        <v>0.9998286293242257</v>
+      </c>
+      <c r="V23">
+        <v>1.000176422029253</v>
+      </c>
+      <c r="W23">
+        <v>0.999847324033782</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.005818068488067</v>
+      </c>
+      <c r="D24">
+        <v>0.9895609093610205</v>
+      </c>
+      <c r="E24">
+        <v>0.9849104901507927</v>
+      </c>
+      <c r="F24">
+        <v>0.9849104901507927</v>
+      </c>
+      <c r="G24">
+        <v>1.01762146140804</v>
+      </c>
+      <c r="H24">
+        <v>0.9941346584451078</v>
+      </c>
+      <c r="I24">
+        <v>1.027596943453301</v>
+      </c>
+      <c r="J24">
+        <v>1.004328343866613</v>
+      </c>
+      <c r="K24">
+        <v>0.9849104901507927</v>
+      </c>
+      <c r="L24">
+        <v>0.9912397611167881</v>
+      </c>
+      <c r="M24">
+        <v>1.027596943453301</v>
+      </c>
+      <c r="N24">
+        <v>0.9849104901507927</v>
+      </c>
+      <c r="O24">
+        <v>0.9912397611167881</v>
+      </c>
+      <c r="P24">
+        <v>1.009418352285045</v>
+      </c>
+      <c r="Q24">
+        <v>0.9985289148024277</v>
+      </c>
+      <c r="R24">
+        <v>1.001249064906961</v>
+      </c>
+      <c r="S24">
+        <v>1.008218257686052</v>
+      </c>
+      <c r="T24">
+        <v>1.001249064906961</v>
+      </c>
+      <c r="U24">
+        <v>1.002391315802238</v>
+      </c>
+      <c r="V24">
+        <v>0.9988951506719486</v>
+      </c>
+      <c r="W24">
+        <v>1.001901329536216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.001386664406511</v>
+      </c>
+      <c r="D25">
+        <v>0.9977681729269999</v>
+      </c>
+      <c r="E25">
+        <v>0.9944510362848364</v>
+      </c>
+      <c r="F25">
+        <v>0.9944510362848364</v>
+      </c>
+      <c r="G25">
+        <v>1.004189154967502</v>
+      </c>
+      <c r="H25">
+        <v>0.9980061916441396</v>
+      </c>
+      <c r="I25">
+        <v>1.006234178046038</v>
+      </c>
+      <c r="J25">
+        <v>1.001748261793105</v>
+      </c>
+      <c r="K25">
+        <v>0.9944510362848364</v>
+      </c>
+      <c r="L25">
+        <v>0.999224934269059</v>
+      </c>
+      <c r="M25">
+        <v>1.006234178046038</v>
+      </c>
+      <c r="N25">
+        <v>0.9944510362848364</v>
+      </c>
+      <c r="O25">
+        <v>0.999224934269059</v>
+      </c>
+      <c r="P25">
+        <v>1.002729556157549</v>
+      </c>
+      <c r="Q25">
+        <v>1.000305799337785</v>
+      </c>
+      <c r="R25">
+        <v>0.9999700495333114</v>
+      </c>
+      <c r="S25">
+        <v>1.002281925573869</v>
+      </c>
+      <c r="T25">
+        <v>0.9999700495333111</v>
+      </c>
+      <c r="U25">
+        <v>1.000324203251611</v>
+      </c>
+      <c r="V25">
+        <v>0.9991495698582561</v>
+      </c>
+      <c r="W25">
+        <v>1.000376074292274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9993777859702941</v>
+      </c>
+      <c r="D26">
+        <v>1.001752986563079</v>
+      </c>
+      <c r="E26">
+        <v>0.9967624633574996</v>
+      </c>
+      <c r="F26">
+        <v>0.9967624633574996</v>
+      </c>
+      <c r="G26">
+        <v>0.998088828514448</v>
+      </c>
+      <c r="H26">
+        <v>0.9991467770460045</v>
+      </c>
+      <c r="I26">
+        <v>0.996195832254395</v>
+      </c>
+      <c r="J26">
+        <v>1.001317684068608</v>
+      </c>
+      <c r="K26">
+        <v>0.9967624633574996</v>
+      </c>
+      <c r="L26">
+        <v>1.004198720700661</v>
+      </c>
+      <c r="M26">
+        <v>0.996195832254395</v>
+      </c>
+      <c r="N26">
+        <v>0.9967624633574996</v>
+      </c>
+      <c r="O26">
+        <v>1.004198720700661</v>
+      </c>
+      <c r="P26">
+        <v>1.000197276477528</v>
+      </c>
+      <c r="Q26">
+        <v>1.001788253335478</v>
+      </c>
+      <c r="R26">
+        <v>0.9990523387708521</v>
+      </c>
+      <c r="S26">
+        <v>0.9999241129751169</v>
+      </c>
+      <c r="T26">
+        <v>0.9990523387708521</v>
+      </c>
+      <c r="U26">
+        <v>0.9991337005707126</v>
+      </c>
+      <c r="V26">
+        <v>0.9986594531280699</v>
+      </c>
+      <c r="W26">
+        <v>0.9996051348093737</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000035746338731</v>
+      </c>
+      <c r="D27">
+        <v>0.9996602188557281</v>
+      </c>
+      <c r="E27">
+        <v>1.002007939115971</v>
+      </c>
+      <c r="F27">
+        <v>1.002007939115971</v>
+      </c>
+      <c r="G27">
+        <v>1.000119795477235</v>
+      </c>
+      <c r="H27">
+        <v>1.000605025881231</v>
+      </c>
+      <c r="I27">
+        <v>1.000538818749538</v>
+      </c>
+      <c r="J27">
+        <v>0.9992555882860785</v>
+      </c>
+      <c r="K27">
+        <v>1.002007939115971</v>
+      </c>
+      <c r="L27">
+        <v>0.9985337662525966</v>
+      </c>
+      <c r="M27">
+        <v>1.000538818749538</v>
+      </c>
+      <c r="N27">
+        <v>1.002007939115971</v>
+      </c>
+      <c r="O27">
+        <v>0.9985337662525966</v>
+      </c>
+      <c r="P27">
+        <v>0.9995362925010673</v>
+      </c>
+      <c r="Q27">
+        <v>0.9992847562956639</v>
+      </c>
+      <c r="R27">
+        <v>1.000360174706035</v>
+      </c>
+      <c r="S27">
+        <v>0.999702777113622</v>
+      </c>
+      <c r="T27">
+        <v>1.000360174706035</v>
+      </c>
+      <c r="U27">
+        <v>1.000279067614209</v>
+      </c>
+      <c r="V27">
+        <v>1.000624841914562</v>
+      </c>
+      <c r="W27">
+        <v>1.000094612369639</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9927915174787383</v>
+      </c>
+      <c r="D28">
+        <v>1.012333155875442</v>
+      </c>
+      <c r="E28">
+        <v>1.0232736483289</v>
+      </c>
+      <c r="F28">
+        <v>1.0232736483289</v>
+      </c>
+      <c r="G28">
+        <v>0.9781924226446718</v>
+      </c>
+      <c r="H28">
+        <v>1.008664151372662</v>
+      </c>
+      <c r="I28">
+        <v>0.9666125897835869</v>
+      </c>
+      <c r="J28">
+        <v>0.9929569848911645</v>
+      </c>
+      <c r="K28">
+        <v>1.0232736483289</v>
+      </c>
+      <c r="L28">
+        <v>1.007775702011737</v>
+      </c>
+      <c r="M28">
+        <v>0.9666125897835869</v>
+      </c>
+      <c r="N28">
+        <v>1.0232736483289</v>
+      </c>
+      <c r="O28">
+        <v>1.007775702011737</v>
+      </c>
+      <c r="P28">
+        <v>0.9871941458976617</v>
+      </c>
+      <c r="Q28">
+        <v>1.000283609745237</v>
+      </c>
+      <c r="R28">
+        <v>0.9992206467080745</v>
+      </c>
+      <c r="S28">
+        <v>0.9890599364246873</v>
+      </c>
+      <c r="T28">
+        <v>0.9992206467080745</v>
+      </c>
+      <c r="U28">
+        <v>0.9976133644007406</v>
+      </c>
+      <c r="V28">
+        <v>1.002745421186372</v>
+      </c>
+      <c r="W28">
+        <v>0.9978250215483627</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9940750346107682</v>
+      </c>
+      <c r="D29">
+        <v>1.010173860714827</v>
+      </c>
+      <c r="E29">
+        <v>1.018849906913448</v>
+      </c>
+      <c r="F29">
+        <v>1.018849906913448</v>
+      </c>
+      <c r="G29">
+        <v>0.9820738690721577</v>
+      </c>
+      <c r="H29">
+        <v>1.007036080661123</v>
+      </c>
+      <c r="I29">
+        <v>0.9725082667342358</v>
+      </c>
+      <c r="J29">
+        <v>0.9943137043022537</v>
+      </c>
+      <c r="K29">
+        <v>1.018849906913448</v>
+      </c>
+      <c r="L29">
+        <v>1.00657925876443</v>
+      </c>
+      <c r="M29">
+        <v>0.9725082667342358</v>
+      </c>
+      <c r="N29">
+        <v>1.018849906913448</v>
+      </c>
+      <c r="O29">
+        <v>1.00657925876443</v>
+      </c>
+      <c r="P29">
+        <v>0.9895437627493326</v>
+      </c>
+      <c r="Q29">
+        <v>1.000327146687599</v>
+      </c>
+      <c r="R29">
+        <v>0.9993124774707045</v>
+      </c>
+      <c r="S29">
+        <v>0.9910541867031445</v>
+      </c>
+      <c r="T29">
+        <v>0.9993124774707045</v>
+      </c>
+      <c r="U29">
+        <v>0.9980031167557204</v>
+      </c>
+      <c r="V29">
+        <v>1.002172474787266</v>
+      </c>
+      <c r="W29">
+        <v>0.9982012477216555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9966389020823164</v>
+      </c>
+      <c r="D30">
+        <v>1.005858775979937</v>
+      </c>
+      <c r="E30">
+        <v>1.010027203697721</v>
+      </c>
+      <c r="F30">
+        <v>1.010027203697721</v>
+      </c>
+      <c r="G30">
+        <v>0.9898272644433243</v>
+      </c>
+      <c r="H30">
+        <v>1.003788186058437</v>
+      </c>
+      <c r="I30">
+        <v>0.9842875190362561</v>
+      </c>
+      <c r="J30">
+        <v>0.9970187071076501</v>
+      </c>
+      <c r="K30">
+        <v>1.010027203697721</v>
+      </c>
+      <c r="L30">
+        <v>1.004180000643343</v>
+      </c>
+      <c r="M30">
+        <v>0.9842875190362561</v>
+      </c>
+      <c r="N30">
+        <v>1.010027203697721</v>
+      </c>
+      <c r="O30">
+        <v>1.004180000643343</v>
+      </c>
+      <c r="P30">
+        <v>0.9942337598397993</v>
+      </c>
+      <c r="Q30">
+        <v>1.000409451362829</v>
+      </c>
+      <c r="R30">
+        <v>0.9994982411257732</v>
+      </c>
+      <c r="S30">
+        <v>0.9950354739206384</v>
+      </c>
+      <c r="T30">
+        <v>0.9994982411257732</v>
+      </c>
+      <c r="U30">
+        <v>0.998783406364909</v>
+      </c>
+      <c r="V30">
+        <v>1.001032165831471</v>
+      </c>
+      <c r="W30">
+        <v>0.998953319881123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9963119813442123</v>
+      </c>
+      <c r="D31">
+        <v>1.006453495493411</v>
+      </c>
+      <c r="E31">
+        <v>1.010813068040767</v>
+      </c>
+      <c r="F31">
+        <v>1.010813068040767</v>
+      </c>
+      <c r="G31">
+        <v>0.9888367594981824</v>
+      </c>
+      <c r="H31">
+        <v>1.004098835817093</v>
+      </c>
+      <c r="I31">
+        <v>0.9827259231489037</v>
+      </c>
+      <c r="J31">
+        <v>0.9967982577817209</v>
+      </c>
+      <c r="K31">
+        <v>1.010813068040767</v>
+      </c>
+      <c r="L31">
+        <v>1.004713943444171</v>
+      </c>
+      <c r="M31">
+        <v>0.9827259231489037</v>
+      </c>
+      <c r="N31">
+        <v>1.010813068040767</v>
+      </c>
+      <c r="O31">
+        <v>1.004713943444171</v>
+      </c>
+      <c r="P31">
+        <v>0.9937199332965376</v>
+      </c>
+      <c r="Q31">
+        <v>1.000512962394192</v>
+      </c>
+      <c r="R31">
+        <v>0.9994176448779474</v>
+      </c>
+      <c r="S31">
+        <v>0.9945839493124291</v>
+      </c>
+      <c r="T31">
+        <v>0.9994176448779474</v>
+      </c>
+      <c r="U31">
+        <v>0.9986412289945137</v>
+      </c>
+      <c r="V31">
+        <v>1.001075596803764</v>
+      </c>
+      <c r="W31">
+        <v>0.9988440330710577</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9910630621917811</v>
+      </c>
+      <c r="D32">
+        <v>1.015243086849315</v>
+      </c>
+      <c r="E32">
+        <v>1.029214869863014</v>
+      </c>
+      <c r="F32">
+        <v>1.029214869863014</v>
+      </c>
+      <c r="G32">
+        <v>0.9729653639726028</v>
+      </c>
+      <c r="H32">
+        <v>1.010851709589041</v>
+      </c>
+      <c r="I32">
+        <v>0.9586703263013698</v>
+      </c>
+      <c r="J32">
+        <v>0.9911358361643837</v>
+      </c>
+      <c r="K32">
+        <v>1.029214869863014</v>
+      </c>
+      <c r="L32">
+        <v>1.009397679726028</v>
+      </c>
+      <c r="M32">
+        <v>0.9586703263013698</v>
+      </c>
+      <c r="N32">
+        <v>1.029214869863014</v>
+      </c>
+      <c r="O32">
+        <v>1.009397679726028</v>
+      </c>
+      <c r="P32">
+        <v>0.9840340030136987</v>
+      </c>
+      <c r="Q32">
+        <v>1.000230370958904</v>
+      </c>
+      <c r="R32">
+        <v>0.9990942919634705</v>
+      </c>
+      <c r="S32">
+        <v>0.9863770227397262</v>
+      </c>
+      <c r="T32">
+        <v>0.9990942919634705</v>
+      </c>
+      <c r="U32">
+        <v>0.9970864845205482</v>
+      </c>
+      <c r="V32">
+        <v>1.003512161589041</v>
+      </c>
+      <c r="W32">
+        <v>0.9973177418321919</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9838101831578948</v>
+      </c>
+      <c r="D33">
+        <v>1.02841965</v>
+      </c>
+      <c r="E33">
+        <v>1.046783046842105</v>
+      </c>
+      <c r="F33">
+        <v>1.046783046842105</v>
+      </c>
+      <c r="G33">
+        <v>0.950991384736842</v>
+      </c>
+      <c r="H33">
+        <v>1.01778432368421</v>
+      </c>
+      <c r="I33">
+        <v>0.9240491821052631</v>
+      </c>
+      <c r="J33">
+        <v>0.9861961394736843</v>
+      </c>
+      <c r="K33">
+        <v>1.046783046842105</v>
+      </c>
+      <c r="L33">
+        <v>1.021153789473684</v>
+      </c>
+      <c r="M33">
+        <v>0.9240491821052631</v>
+      </c>
+      <c r="N33">
+        <v>1.046783046842105</v>
+      </c>
+      <c r="O33">
+        <v>1.021153789473684</v>
+      </c>
+      <c r="P33">
+        <v>0.9726014857894736</v>
+      </c>
+      <c r="Q33">
+        <v>1.002481986315789</v>
+      </c>
+      <c r="R33">
+        <v>0.9973286728070173</v>
+      </c>
+      <c r="S33">
+        <v>0.976337718245614</v>
+      </c>
+      <c r="T33">
+        <v>0.9973286728070175</v>
+      </c>
+      <c r="U33">
+        <v>0.9939490503947368</v>
+      </c>
+      <c r="V33">
+        <v>1.00451584968421</v>
+      </c>
+      <c r="W33">
+        <v>0.9948984624342105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9844748889473686</v>
+      </c>
+      <c r="D34">
+        <v>1.026846393157895</v>
+      </c>
+      <c r="E34">
+        <v>1.04795975368421</v>
+      </c>
+      <c r="F34">
+        <v>1.04795975368421</v>
+      </c>
+      <c r="G34">
+        <v>0.9530205294736841</v>
+      </c>
+      <c r="H34">
+        <v>1.017999425789474</v>
+      </c>
+      <c r="I34">
+        <v>0.9277119763157895</v>
+      </c>
+      <c r="J34">
+        <v>0.985626017368421</v>
+      </c>
+      <c r="K34">
+        <v>1.04795975368421</v>
+      </c>
+      <c r="L34">
+        <v>1.01820266</v>
+      </c>
+      <c r="M34">
+        <v>0.9277119763157895</v>
+      </c>
+      <c r="N34">
+        <v>1.04795975368421</v>
+      </c>
+      <c r="O34">
+        <v>1.01820266</v>
+      </c>
+      <c r="P34">
+        <v>0.9729573181578947</v>
+      </c>
+      <c r="Q34">
+        <v>1.001338774473684</v>
+      </c>
+      <c r="R34">
+        <v>0.9979581299999999</v>
+      </c>
+      <c r="S34">
+        <v>0.9767965084210526</v>
+      </c>
+      <c r="T34">
+        <v>0.9979581299999999</v>
+      </c>
+      <c r="U34">
+        <v>0.9945873197368421</v>
+      </c>
+      <c r="V34">
+        <v>1.005261806526316</v>
+      </c>
+      <c r="W34">
+        <v>0.9952302055921052</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9867907332494996</v>
+      </c>
+      <c r="D35">
+        <v>1.023129713658028</v>
+      </c>
+      <c r="E35">
+        <v>1.038611432706954</v>
+      </c>
+      <c r="F35">
+        <v>1.038611432706954</v>
+      </c>
+      <c r="G35">
+        <v>0.9600163027225374</v>
+      </c>
+      <c r="H35">
+        <v>1.014644853222266</v>
+      </c>
+      <c r="I35">
+        <v>0.9381092926669972</v>
+      </c>
+      <c r="J35">
+        <v>0.988575511280151</v>
+      </c>
+      <c r="K35">
+        <v>1.038611432706954</v>
+      </c>
+      <c r="L35">
+        <v>1.016962744990002</v>
+      </c>
+      <c r="M35">
+        <v>0.9381092926669972</v>
+      </c>
+      <c r="N35">
+        <v>1.038611432706954</v>
+      </c>
+      <c r="O35">
+        <v>1.016962744990002</v>
+      </c>
+      <c r="P35">
+        <v>0.9775360188284998</v>
+      </c>
+      <c r="Q35">
+        <v>1.001876739119751</v>
+      </c>
+      <c r="R35">
+        <v>0.9978944901213179</v>
+      </c>
+      <c r="S35">
+        <v>0.9806209236354997</v>
+      </c>
+      <c r="T35">
+        <v>0.9978944901213179</v>
+      </c>
+      <c r="U35">
+        <v>0.9951185509033633</v>
+      </c>
+      <c r="V35">
+        <v>1.003817127264081</v>
+      </c>
+      <c r="W35">
+        <v>0.9958550730620543</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999983981427836</v>
+      </c>
+      <c r="D36">
+        <v>1.000002908349659</v>
+      </c>
+      <c r="E36">
+        <v>1.00000389934697</v>
+      </c>
+      <c r="F36">
+        <v>1.00000389934697</v>
+      </c>
+      <c r="G36">
+        <v>0.9999951472175203</v>
+      </c>
+      <c r="H36">
+        <v>1.000001535617804</v>
+      </c>
+      <c r="I36">
+        <v>0.9999923567510214</v>
+      </c>
+      <c r="J36">
+        <v>0.9999989028806054</v>
+      </c>
+      <c r="K36">
+        <v>1.00000389934697</v>
+      </c>
+      <c r="L36">
+        <v>1.000002584275864</v>
+      </c>
+      <c r="M36">
+        <v>0.9999923567510214</v>
+      </c>
+      <c r="N36">
+        <v>1.00000389934697</v>
+      </c>
+      <c r="O36">
+        <v>1.000002584275864</v>
+      </c>
+      <c r="P36">
+        <v>0.9999974705134426</v>
+      </c>
+      <c r="Q36">
+        <v>1.000000491209324</v>
+      </c>
+      <c r="R36">
+        <v>0.9999996134579515</v>
+      </c>
+      <c r="S36">
+        <v>0.9999977797232229</v>
+      </c>
+      <c r="T36">
+        <v>0.9999996134579515</v>
+      </c>
+      <c r="U36">
+        <v>0.9999993096291595</v>
+      </c>
+      <c r="V36">
+        <v>1.000000227572722</v>
+      </c>
+      <c r="W36">
+        <v>0.9999994665727784</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999670447001311</v>
+      </c>
+      <c r="D37">
+        <v>1.000057804151613</v>
+      </c>
+      <c r="E37">
+        <v>1.000095585640128</v>
+      </c>
+      <c r="F37">
+        <v>1.000095585640128</v>
+      </c>
+      <c r="G37">
+        <v>0.9999002420402409</v>
+      </c>
+      <c r="H37">
+        <v>1.000036308079828</v>
+      </c>
+      <c r="I37">
+        <v>0.9998454599710284</v>
+      </c>
+      <c r="J37">
+        <v>0.999971771730028</v>
+      </c>
+      <c r="K37">
+        <v>1.000095585640128</v>
+      </c>
+      <c r="L37">
+        <v>1.000042821234298</v>
+      </c>
+      <c r="M37">
+        <v>0.9998454599710284</v>
+      </c>
+      <c r="N37">
+        <v>1.000095585640128</v>
+      </c>
+      <c r="O37">
+        <v>1.000042821234298</v>
+      </c>
+      <c r="P37">
+        <v>0.999944140602663</v>
+      </c>
+      <c r="Q37">
+        <v>1.000004932967214</v>
+      </c>
+      <c r="R37">
+        <v>0.999994622281818</v>
+      </c>
+      <c r="S37">
+        <v>0.999951775301819</v>
+      </c>
+      <c r="T37">
+        <v>0.9999946222818181</v>
+      </c>
+      <c r="U37">
+        <v>0.9999877278863963</v>
+      </c>
+      <c r="V37">
+        <v>1.000009299437143</v>
+      </c>
+      <c r="W37">
+        <v>0.9999896296934119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9998867011012613</v>
+      </c>
+      <c r="D38">
+        <v>1.000192867738235</v>
+      </c>
+      <c r="E38">
+        <v>1.000373220388429</v>
+      </c>
+      <c r="F38">
+        <v>1.000373220388429</v>
+      </c>
+      <c r="G38">
+        <v>0.9996572885712874</v>
+      </c>
+      <c r="H38">
+        <v>1.00013844084429</v>
+      </c>
+      <c r="I38">
+        <v>0.9994765508480162</v>
+      </c>
+      <c r="J38">
+        <v>0.9998865798380169</v>
+      </c>
+      <c r="K38">
+        <v>1.000373220388429</v>
+      </c>
+      <c r="L38">
+        <v>1.000117220026403</v>
+      </c>
+      <c r="M38">
+        <v>0.9994765508480162</v>
+      </c>
+      <c r="N38">
+        <v>1.000373220388429</v>
+      </c>
+      <c r="O38">
+        <v>1.000117220026403</v>
+      </c>
+      <c r="P38">
+        <v>0.9997968854372095</v>
+      </c>
+      <c r="Q38">
+        <v>1.000001960563832</v>
+      </c>
+      <c r="R38">
+        <v>0.999988997087616</v>
+      </c>
+      <c r="S38">
+        <v>0.9998268239918934</v>
+      </c>
+      <c r="T38">
+        <v>0.9999889970876158</v>
+      </c>
+      <c r="U38">
+        <v>0.9999634230910273</v>
+      </c>
+      <c r="V38">
+        <v>1.000045382550508</v>
+      </c>
+      <c r="W38">
+        <v>0.9999661086694923</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9997366092165839</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000443916177159</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000901635956265</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000901635956265</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9992034572916542</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000332212753864</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9987890720773258</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9997238508623143</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000901635956265</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000249657946664</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9987890720773258</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000901635956265</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000249657946664</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.999519365011995</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9999931335816241</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999801219934185</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.999591779746858</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999801219934185</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9999192437992098</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.000115722230621</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.999922551535229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9944567125369514</v>
+      </c>
+      <c r="D40">
+        <v>1.009572868225955</v>
+      </c>
+      <c r="E40">
+        <v>1.017221081942067</v>
+      </c>
+      <c r="F40">
+        <v>1.017221081942067</v>
+      </c>
+      <c r="G40">
+        <v>0.9832263725247519</v>
+      </c>
+      <c r="H40">
+        <v>1.006456320847752</v>
+      </c>
+      <c r="I40">
+        <v>0.9742063800023989</v>
+      </c>
+      <c r="J40">
+        <v>0.9948321550494886</v>
+      </c>
+      <c r="K40">
+        <v>1.017221081942067</v>
+      </c>
+      <c r="L40">
+        <v>1.006434153933914</v>
+      </c>
+      <c r="M40">
+        <v>0.9742063800023989</v>
+      </c>
+      <c r="N40">
+        <v>1.017221081942067</v>
+      </c>
+      <c r="O40">
+        <v>1.006434153933914</v>
+      </c>
+      <c r="P40">
+        <v>0.9903202669681566</v>
+      </c>
+      <c r="Q40">
+        <v>1.000445433235433</v>
+      </c>
+      <c r="R40">
+        <v>0.9992872052927932</v>
+      </c>
+      <c r="S40">
+        <v>0.9916990821577549</v>
+      </c>
+      <c r="T40">
+        <v>0.9992872052927932</v>
+      </c>
+      <c r="U40">
+        <v>0.9980795821038329</v>
+      </c>
+      <c r="V40">
+        <v>1.00190788207148</v>
+      </c>
+      <c r="W40">
+        <v>0.9983007556329099</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.002819431113678</v>
+      </c>
+      <c r="D41">
+        <v>0.995089550938135</v>
+      </c>
+      <c r="E41">
+        <v>0.9915571999412568</v>
+      </c>
+      <c r="F41">
+        <v>0.9915571999412568</v>
+      </c>
+      <c r="G41">
+        <v>1.008533150970707</v>
+      </c>
+      <c r="H41">
+        <v>0.9968126747712273</v>
+      </c>
+      <c r="I41">
+        <v>1.013174753056947</v>
+      </c>
+      <c r="J41">
+        <v>1.002512419227302</v>
+      </c>
+      <c r="K41">
+        <v>0.9915571999412568</v>
+      </c>
+      <c r="L41">
+        <v>0.9965148565267222</v>
+      </c>
+      <c r="M41">
+        <v>1.013174753056947</v>
+      </c>
+      <c r="N41">
+        <v>0.9915571999412568</v>
+      </c>
+      <c r="O41">
+        <v>0.9965148565267222</v>
+      </c>
+      <c r="P41">
+        <v>1.004844804791835</v>
+      </c>
+      <c r="Q41">
+        <v>0.9996671438202001</v>
+      </c>
+      <c r="R41">
+        <v>1.000415603174975</v>
+      </c>
+      <c r="S41">
+        <v>1.004169680232449</v>
+      </c>
+      <c r="T41">
+        <v>1.000415603174976</v>
+      </c>
+      <c r="U41">
+        <v>1.001016560159651</v>
+      </c>
+      <c r="V41">
+        <v>0.9991246881159721</v>
+      </c>
+      <c r="W41">
+        <v>1.000876754568247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9950981132252296</v>
+      </c>
+      <c r="D42">
+        <v>1.008590841634416</v>
+      </c>
+      <c r="E42">
+        <v>1.014271067131536</v>
+      </c>
+      <c r="F42">
+        <v>1.014271067131536</v>
+      </c>
+      <c r="G42">
+        <v>0.9851619518471972</v>
+      </c>
+      <c r="H42">
+        <v>1.005417094590996</v>
+      </c>
+      <c r="I42">
+        <v>0.9770225993038085</v>
+      </c>
+      <c r="J42">
+        <v>0.9957815151618633</v>
+      </c>
+      <c r="K42">
+        <v>1.014271067131536</v>
+      </c>
+      <c r="L42">
+        <v>1.006333404978675</v>
+      </c>
+      <c r="M42">
+        <v>0.9770225993038085</v>
+      </c>
+      <c r="N42">
+        <v>1.014271067131536</v>
+      </c>
+      <c r="O42">
+        <v>1.006333404978675</v>
+      </c>
+      <c r="P42">
+        <v>0.9916780021412419</v>
+      </c>
+      <c r="Q42">
+        <v>1.000715759101952</v>
+      </c>
+      <c r="R42">
+        <v>0.999209023804673</v>
+      </c>
+      <c r="S42">
+        <v>0.9928180391692378</v>
+      </c>
+      <c r="T42">
+        <v>0.999209023804673</v>
+      </c>
+      <c r="U42">
+        <v>0.9981812961598122</v>
+      </c>
+      <c r="V42">
+        <v>1.001399250354157</v>
+      </c>
+      <c r="W42">
+        <v>0.9984595734842152</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW35.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001197803262716</v>
+        <v>0.9999081879932205</v>
       </c>
       <c r="D3">
-        <v>0.9982918095975041</v>
+        <v>1.000159096007973</v>
       </c>
       <c r="E3">
-        <v>1.000393855061526</v>
+        <v>1.000281093919222</v>
       </c>
       <c r="F3">
-        <v>1.001197803262716</v>
+        <v>1.000281093919222</v>
       </c>
       <c r="G3">
-        <v>0.99963095593207</v>
+        <v>0.9997221605326657</v>
       </c>
       <c r="H3">
-        <v>1.000630581126796</v>
+        <v>1.000105671173406</v>
       </c>
       <c r="I3">
-        <v>1.001197803262716</v>
+        <v>0.9995720600074309</v>
       </c>
       <c r="J3">
-        <v>0.9982918095975041</v>
+        <v>0.9999159247156708</v>
       </c>
       <c r="K3">
-        <v>0.9996371195325807</v>
+        <v>1.000281093919222</v>
       </c>
       <c r="L3">
-        <v>1.000445486275842</v>
+        <v>1.00010934770352</v>
       </c>
       <c r="M3">
-        <v>0.9988835779974023</v>
+        <v>0.9995720600074309</v>
       </c>
       <c r="N3">
-        <v>1.001197803262716</v>
+        <v>1.000281093919222</v>
       </c>
       <c r="O3">
-        <v>1.000393855061526</v>
+        <v>1.00010934770352</v>
       </c>
       <c r="P3">
-        <v>0.999342832329515</v>
+        <v>0.9998407038554754</v>
       </c>
       <c r="Q3">
-        <v>1.000012405496798</v>
+        <v>1.00000876784837</v>
       </c>
       <c r="R3">
-        <v>0.9999611559739153</v>
+        <v>0.999987500543391</v>
       </c>
       <c r="S3">
-        <v>0.9994388735303668</v>
+        <v>0.9998631985680571</v>
       </c>
       <c r="T3">
-        <v>0.9999611559739153</v>
+        <v>0.999987500543391</v>
       </c>
       <c r="U3">
-        <v>0.9998786059634539</v>
+        <v>0.9999676724058484</v>
       </c>
       <c r="V3">
-        <v>1.000142445423306</v>
+        <v>1.000030356708523</v>
       </c>
       <c r="W3">
-        <v>0.9998888985983045</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9999716927566387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002311449309538</v>
+        <v>0.9944567125369514</v>
       </c>
       <c r="D4">
-        <v>0.9967018547998792</v>
+        <v>1.009572868225955</v>
       </c>
       <c r="E4">
-        <v>1.000761151139993</v>
+        <v>1.017221081942067</v>
       </c>
       <c r="F4">
-        <v>1.002311449309538</v>
+        <v>1.017221081942067</v>
       </c>
       <c r="G4">
-        <v>0.9992874982002709</v>
+        <v>0.9832263725247519</v>
       </c>
       <c r="H4">
-        <v>1.001217588746727</v>
+        <v>1.006456320847752</v>
       </c>
       <c r="I4">
-        <v>1.002311449309538</v>
+        <v>0.9742063800023989</v>
       </c>
       <c r="J4">
-        <v>0.9967018547998792</v>
+        <v>0.9948321550494886</v>
       </c>
       <c r="K4">
-        <v>0.9992998045701011</v>
+        <v>1.017221081942067</v>
       </c>
       <c r="L4">
-        <v>1.000859748084961</v>
+        <v>1.006434153933914</v>
       </c>
       <c r="M4">
-        <v>0.9978445532733927</v>
+        <v>0.9742063800023989</v>
       </c>
       <c r="N4">
-        <v>1.002311449309538</v>
+        <v>1.017221081942067</v>
       </c>
       <c r="O4">
-        <v>1.000761151139993</v>
+        <v>1.006434153933914</v>
       </c>
       <c r="P4">
-        <v>0.9987315029699361</v>
+        <v>0.9903202669681566</v>
       </c>
       <c r="Q4">
-        <v>1.000024324670132</v>
+        <v>1.000445433235433</v>
       </c>
       <c r="R4">
-        <v>0.9999248184164699</v>
+        <v>0.9992872052927932</v>
       </c>
       <c r="S4">
-        <v>0.998916834713381</v>
+        <v>0.9916990821577549</v>
       </c>
       <c r="T4">
-        <v>0.9999248184164699</v>
+        <v>0.9992872052927932</v>
       </c>
       <c r="U4">
-        <v>0.9997654883624201</v>
+        <v>0.9980795821038329</v>
       </c>
       <c r="V4">
-        <v>1.000274680551844</v>
+        <v>1.00190788207148</v>
       </c>
       <c r="W4">
-        <v>0.9997854560156079</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9983007556329099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.004423786155599</v>
+        <v>0.9959171899135427</v>
       </c>
       <c r="D5">
-        <v>0.9936762360853524</v>
+        <v>1.007115500194525</v>
       </c>
       <c r="E5">
-        <v>1.001463969649045</v>
+        <v>1.012190248328529</v>
       </c>
       <c r="F5">
-        <v>1.004423786155599</v>
+        <v>1.012190248328529</v>
       </c>
       <c r="G5">
-        <v>0.9986341429919495</v>
+        <v>0.987642972982709</v>
       </c>
       <c r="H5">
-        <v>1.002335042551137</v>
+        <v>1.004604643681553</v>
       </c>
       <c r="I5">
-        <v>1.004423786155599</v>
+        <v>0.9809153944308359</v>
       </c>
       <c r="J5">
-        <v>0.9936762360853524</v>
+        <v>0.996374895482707</v>
       </c>
       <c r="K5">
-        <v>0.9986603867840025</v>
+        <v>1.012190248328529</v>
       </c>
       <c r="L5">
-        <v>1.001645919838188</v>
+        <v>1.005070861844384</v>
       </c>
       <c r="M5">
-        <v>0.9958680016656277</v>
+        <v>0.9809153944308359</v>
       </c>
       <c r="N5">
-        <v>1.004423786155599</v>
+        <v>1.012190248328529</v>
       </c>
       <c r="O5">
-        <v>1.001463969649045</v>
+        <v>1.005070861844384</v>
       </c>
       <c r="P5">
-        <v>0.9975701028671989</v>
+        <v>0.9929931281376099</v>
       </c>
       <c r="Q5">
-        <v>1.000049056320498</v>
+        <v>1.000494025878963</v>
       </c>
       <c r="R5">
-        <v>0.9998546639633323</v>
+        <v>0.9993921682012497</v>
       </c>
       <c r="S5">
-        <v>0.9979247829087825</v>
+        <v>0.9939678153962541</v>
       </c>
       <c r="T5">
-        <v>0.9998546639633323</v>
+        <v>0.9993921682012497</v>
       </c>
       <c r="U5">
-        <v>0.9995495337204866</v>
+        <v>0.9985234236293229</v>
       </c>
       <c r="V5">
-        <v>1.000524384207509</v>
+        <v>1.001256788569164</v>
       </c>
       <c r="W5">
-        <v>0.9995884357151127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9987289633573482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.006484920262247</v>
+        <v>0.9867907332494996</v>
       </c>
       <c r="D6">
-        <v>0.9907231687583485</v>
+        <v>1.023129713658028</v>
       </c>
       <c r="E6">
-        <v>1.002150257501337</v>
+        <v>1.038611432706954</v>
       </c>
       <c r="F6">
-        <v>1.006484920262247</v>
+        <v>1.038611432706954</v>
       </c>
       <c r="G6">
-        <v>0.9979964734031457</v>
+        <v>0.9600163027225374</v>
       </c>
       <c r="H6">
-        <v>1.00342574042355</v>
+        <v>1.014644853222266</v>
       </c>
       <c r="I6">
-        <v>1.006484920262247</v>
+        <v>0.9381092926669972</v>
       </c>
       <c r="J6">
-        <v>0.9907231687583485</v>
+        <v>0.988575511280151</v>
       </c>
       <c r="K6">
-        <v>0.9980365081384044</v>
+        <v>1.038611432706954</v>
       </c>
       <c r="L6">
-        <v>1.00241306658908</v>
+        <v>1.016962744990002</v>
       </c>
       <c r="M6">
-        <v>0.9939388950340527</v>
+        <v>0.9381092926669972</v>
       </c>
       <c r="N6">
-        <v>1.006484920262247</v>
+        <v>1.038611432706954</v>
       </c>
       <c r="O6">
-        <v>1.002150257501337</v>
+        <v>1.016962744990002</v>
       </c>
       <c r="P6">
-        <v>0.9964367131298428</v>
+        <v>0.9775360188284998</v>
       </c>
       <c r="Q6">
-        <v>1.000073365452241</v>
+        <v>1.001876739119751</v>
       </c>
       <c r="R6">
-        <v>0.999786115507311</v>
+        <v>0.9978944901213179</v>
       </c>
       <c r="S6">
-        <v>0.9969566332209437</v>
+        <v>0.9806209236354997</v>
       </c>
       <c r="T6">
-        <v>0.999786115507311</v>
+        <v>0.9978944901213179</v>
       </c>
       <c r="U6">
-        <v>0.9993387049812696</v>
+        <v>0.9951185509033633</v>
       </c>
       <c r="V6">
-        <v>1.000767948037465</v>
+        <v>1.003817127264081</v>
       </c>
       <c r="W6">
-        <v>0.9993961287637707</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9958550730620543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000094872306579</v>
+        <v>0.9995519959253087</v>
       </c>
       <c r="D7">
-        <v>0.9998530520495627</v>
+        <v>1.000763454272709</v>
       </c>
       <c r="E7">
-        <v>1.00003847740974</v>
+        <v>1.001469672136492</v>
       </c>
       <c r="F7">
-        <v>1.000094872306579</v>
+        <v>1.001469672136492</v>
       </c>
       <c r="G7">
-        <v>0.9999685289947122</v>
+        <v>0.9986447945778206</v>
       </c>
       <c r="H7">
-        <v>1.000054728884011</v>
+        <v>1.000545559598994</v>
       </c>
       <c r="I7">
-        <v>1.000094872306579</v>
+        <v>0.9979290667351292</v>
       </c>
       <c r="J7">
-        <v>0.9998530520495627</v>
+        <v>0.9995537566894522</v>
       </c>
       <c r="K7">
-        <v>0.9999717247262762</v>
+        <v>1.001469672136492</v>
       </c>
       <c r="L7">
-        <v>1.00003576921469</v>
+        <v>1.000467643747605</v>
       </c>
       <c r="M7">
-        <v>0.9999047552524507</v>
+        <v>0.9979290667351292</v>
       </c>
       <c r="N7">
-        <v>1.000094872306579</v>
+        <v>1.001469672136492</v>
       </c>
       <c r="O7">
-        <v>1.00003847740974</v>
+        <v>1.000467643747605</v>
       </c>
       <c r="P7">
-        <v>0.9999457647296515</v>
+        <v>0.9991983552413672</v>
       </c>
       <c r="Q7">
-        <v>1.000003503202226</v>
+        <v>1.000009819836457</v>
       </c>
       <c r="R7">
-        <v>0.9999954672552942</v>
+        <v>0.9999554608730755</v>
       </c>
       <c r="S7">
-        <v>0.999953352818005</v>
+        <v>0.9993162354693478</v>
       </c>
       <c r="T7">
-        <v>0.9999954672552942</v>
+        <v>0.9999554608730755</v>
       </c>
       <c r="U7">
-        <v>0.9999887326901487</v>
+        <v>0.9998545946361338</v>
       </c>
       <c r="V7">
-        <v>1.000009960613435</v>
+        <v>1.000177610136205</v>
       </c>
       <c r="W7">
-        <v>0.9999902386047528</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9998657429604388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000281093919222</v>
+        <v>0.9999670447001311</v>
       </c>
       <c r="D8">
-        <v>0.9995720600074309</v>
+        <v>1.000057804151613</v>
       </c>
       <c r="E8">
-        <v>1.00010934770352</v>
+        <v>1.000095585640128</v>
       </c>
       <c r="F8">
-        <v>1.000281093919222</v>
+        <v>1.000095585640128</v>
       </c>
       <c r="G8">
-        <v>0.9999081879932205</v>
+        <v>0.9999002420402409</v>
       </c>
       <c r="H8">
-        <v>1.000159096007973</v>
+        <v>1.000036308079828</v>
       </c>
       <c r="I8">
-        <v>1.000281093919222</v>
+        <v>0.9998454599710284</v>
       </c>
       <c r="J8">
-        <v>0.9995720600074309</v>
+        <v>0.999971771730028</v>
       </c>
       <c r="K8">
-        <v>0.9999159247156708</v>
+        <v>1.000095585640128</v>
       </c>
       <c r="L8">
-        <v>1.000105671173406</v>
+        <v>1.000042821234298</v>
       </c>
       <c r="M8">
-        <v>0.9997221605326657</v>
+        <v>0.9998454599710284</v>
       </c>
       <c r="N8">
-        <v>1.000281093919222</v>
+        <v>1.000095585640128</v>
       </c>
       <c r="O8">
-        <v>1.00010934770352</v>
+        <v>1.000042821234298</v>
       </c>
       <c r="P8">
-        <v>0.9998407038554754</v>
+        <v>0.999944140602663</v>
       </c>
       <c r="Q8">
-        <v>1.00000876784837</v>
+        <v>1.000004932967214</v>
       </c>
       <c r="R8">
-        <v>0.999987500543391</v>
+        <v>0.999994622281818</v>
       </c>
       <c r="S8">
-        <v>0.9998631985680571</v>
+        <v>0.999951775301819</v>
       </c>
       <c r="T8">
-        <v>0.999987500543391</v>
+        <v>0.9999946222818181</v>
       </c>
       <c r="U8">
-        <v>0.9999676724058484</v>
+        <v>0.9999877278863963</v>
       </c>
       <c r="V8">
-        <v>1.000030356708523</v>
+        <v>1.000009299437143</v>
       </c>
       <c r="W8">
-        <v>0.9999716927566387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999896296934119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000426367425101</v>
+        <v>0.9992874982002709</v>
       </c>
       <c r="D9">
-        <v>0.9993629270616651</v>
+        <v>1.001217588746727</v>
       </c>
       <c r="E9">
-        <v>1.000158339824098</v>
+        <v>1.002311449309538</v>
       </c>
       <c r="F9">
-        <v>1.000426367425101</v>
+        <v>1.002311449309538</v>
       </c>
       <c r="G9">
-        <v>0.9998630526762902</v>
+        <v>0.9978445532733927</v>
       </c>
       <c r="H9">
-        <v>1.000236378860365</v>
+        <v>1.000859748084961</v>
       </c>
       <c r="I9">
-        <v>1.000426367425101</v>
+        <v>0.9967018547998792</v>
       </c>
       <c r="J9">
-        <v>0.9993629270616651</v>
+        <v>0.9992998045701011</v>
       </c>
       <c r="K9">
-        <v>0.9998719914083621</v>
+        <v>1.002311449309538</v>
       </c>
       <c r="L9">
-        <v>1.000159783477067</v>
+        <v>1.000761151139993</v>
       </c>
       <c r="M9">
-        <v>0.9995856111260534</v>
+        <v>0.9967018547998792</v>
       </c>
       <c r="N9">
-        <v>1.000426367425101</v>
+        <v>1.002311449309538</v>
       </c>
       <c r="O9">
-        <v>1.000158339824098</v>
+        <v>1.000761151139993</v>
       </c>
       <c r="P9">
-        <v>0.9997606334428815</v>
+        <v>0.9987315029699361</v>
       </c>
       <c r="Q9">
-        <v>1.000010696250194</v>
+        <v>1.000024324670132</v>
       </c>
       <c r="R9">
-        <v>0.999982544770288</v>
+        <v>0.9999248184164699</v>
       </c>
       <c r="S9">
-        <v>0.9997947731873511</v>
+        <v>0.998916834713381</v>
       </c>
       <c r="T9">
-        <v>0.999982544770288</v>
+        <v>0.9999248184164699</v>
       </c>
       <c r="U9">
-        <v>0.9999526717467886</v>
+        <v>0.9997654883624201</v>
       </c>
       <c r="V9">
-        <v>1.000047410882451</v>
+        <v>1.000274680551844</v>
       </c>
       <c r="W9">
-        <v>0.9999580564823751</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9997854560156079</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000886694227879</v>
+        <v>0.9865922006843681</v>
       </c>
       <c r="D10">
-        <v>0.9986628410871917</v>
+        <v>1.023482383260828</v>
       </c>
       <c r="E10">
-        <v>1.000336959089319</v>
+        <v>1.039153382634587</v>
       </c>
       <c r="F10">
-        <v>1.000886694227879</v>
+        <v>1.039153382634587</v>
       </c>
       <c r="G10">
-        <v>0.9997128367588283</v>
+        <v>0.9594151461576711</v>
       </c>
       <c r="H10">
-        <v>1.000496621581838</v>
+        <v>1.014853252546956</v>
       </c>
       <c r="I10">
-        <v>1.000886694227879</v>
+        <v>0.9371723439895621</v>
       </c>
       <c r="J10">
-        <v>0.9986628410871917</v>
+        <v>0.9884178872281654</v>
       </c>
       <c r="K10">
-        <v>0.9997342772096129</v>
+        <v>1.039153382634587</v>
       </c>
       <c r="L10">
-        <v>1.000332806378179</v>
+        <v>1.017243490327882</v>
       </c>
       <c r="M10">
-        <v>0.9991310338404422</v>
+        <v>0.9371723439895621</v>
       </c>
       <c r="N10">
-        <v>1.000886694227879</v>
+        <v>1.039153382634587</v>
       </c>
       <c r="O10">
-        <v>1.000336959089319</v>
+        <v>1.017243490327882</v>
       </c>
       <c r="P10">
-        <v>0.9994999000882552</v>
+        <v>0.9772079171587222</v>
       </c>
       <c r="Q10">
-        <v>1.000024897924073</v>
+        <v>1.001917845506125</v>
       </c>
       <c r="R10">
-        <v>0.9999621648014632</v>
+        <v>0.9978564056506771</v>
       </c>
       <c r="S10">
-        <v>0.9995708789784462</v>
+        <v>0.9803360116672709</v>
       </c>
       <c r="T10">
-        <v>0.9999621648014632</v>
+        <v>0.9978564056506771</v>
       </c>
       <c r="U10">
-        <v>0.9998998327908044</v>
+        <v>0.9950403544090999</v>
       </c>
       <c r="V10">
-        <v>1.000097205078219</v>
+        <v>1.003862960054197</v>
       </c>
       <c r="W10">
-        <v>0.9999117587716612</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9957912608537525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001567592849364</v>
+        <v>0.9972538424526401</v>
       </c>
       <c r="D11">
-        <v>0.9976763190955192</v>
+        <v>1.004708238466542</v>
       </c>
       <c r="E11">
-        <v>1.000570530777249</v>
+        <v>1.008791869277584</v>
       </c>
       <c r="F11">
-        <v>1.001567592849364</v>
+        <v>1.008791869277584</v>
       </c>
       <c r="G11">
-        <v>0.9995000745747697</v>
+        <v>0.9916917363504226</v>
       </c>
       <c r="H11">
-        <v>1.000861439970686</v>
+        <v>1.003277974977679</v>
       </c>
       <c r="I11">
-        <v>1.001567592849364</v>
+        <v>0.9872675742589541</v>
       </c>
       <c r="J11">
-        <v>0.9976763190955192</v>
+        <v>0.9973442244845649</v>
       </c>
       <c r="K11">
-        <v>0.999528615786008</v>
+        <v>1.008791869277584</v>
       </c>
       <c r="L11">
-        <v>1.00058669106703</v>
+        <v>1.003012341781056</v>
       </c>
       <c r="M11">
-        <v>0.9984873281496286</v>
+        <v>0.9872675742589541</v>
       </c>
       <c r="N11">
-        <v>1.001567592849364</v>
+        <v>1.008791869277584</v>
       </c>
       <c r="O11">
-        <v>1.000570530777249</v>
+        <v>1.003012341781056</v>
       </c>
       <c r="P11">
-        <v>0.9991234249363843</v>
+        <v>0.9951399580200051</v>
       </c>
       <c r="Q11">
-        <v>1.00003530267601</v>
+        <v>1.000133092116848</v>
       </c>
       <c r="R11">
-        <v>0.9999381475740442</v>
+        <v>0.9996905951058649</v>
       </c>
       <c r="S11">
-        <v>0.9992489748158461</v>
+        <v>0.9958445861642168</v>
       </c>
       <c r="T11">
-        <v>0.9999381475740442</v>
+        <v>0.9996905951058649</v>
       </c>
       <c r="U11">
-        <v>0.9998286293242256</v>
+        <v>0.9990814069425588</v>
       </c>
       <c r="V11">
-        <v>1.000176422029253</v>
+        <v>1.001023499409564</v>
       </c>
       <c r="W11">
-        <v>0.999847324033782</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.9991684752561804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9849104901507927</v>
+        <v>0.9959168649368393</v>
       </c>
       <c r="D12">
-        <v>1.027596943453301</v>
+        <v>1.007152400663158</v>
       </c>
       <c r="E12">
-        <v>0.9912397611167881</v>
+        <v>1.011914317978948</v>
       </c>
       <c r="F12">
-        <v>0.9849104901507927</v>
+        <v>1.011914317978948</v>
       </c>
       <c r="G12">
-        <v>1.005818068488067</v>
+        <v>0.9876404707368425</v>
       </c>
       <c r="H12">
-        <v>0.9895609093610204</v>
+        <v>1.00452050773684</v>
       </c>
       <c r="I12">
-        <v>0.9849104901507927</v>
+        <v>0.980865202526313</v>
       </c>
       <c r="J12">
-        <v>1.027596943453301</v>
+        <v>0.9964762379894708</v>
       </c>
       <c r="K12">
-        <v>1.004328343866613</v>
+        <v>1.011914317978948</v>
       </c>
       <c r="L12">
-        <v>0.9941346584451078</v>
+        <v>1.005257440757897</v>
       </c>
       <c r="M12">
-        <v>1.01762146140804</v>
+        <v>0.980865202526313</v>
       </c>
       <c r="N12">
-        <v>0.9849104901507927</v>
+        <v>1.011914317978948</v>
       </c>
       <c r="O12">
-        <v>0.9912397611167881</v>
+        <v>1.005257440757897</v>
       </c>
       <c r="P12">
-        <v>1.009418352285045</v>
+        <v>0.9930613216421051</v>
       </c>
       <c r="Q12">
-        <v>0.9985289148024277</v>
+        <v>1.000587152847368</v>
       </c>
       <c r="R12">
-        <v>1.001249064906961</v>
+        <v>0.9993456537543862</v>
       </c>
       <c r="S12">
-        <v>1.008218257686052</v>
+        <v>0.9940131694070166</v>
       </c>
       <c r="T12">
-        <v>1.001249064906961</v>
+        <v>0.9993456537543861</v>
       </c>
       <c r="U12">
-        <v>1.002391315802238</v>
+        <v>0.9984884565499994</v>
       </c>
       <c r="V12">
-        <v>0.9988951506719486</v>
+        <v>1.001173628835789</v>
       </c>
       <c r="W12">
-        <v>1.001901329536216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9987179304157886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9944510362848364</v>
+        <v>1.002613373225497</v>
       </c>
       <c r="D13">
-        <v>1.006234178046039</v>
+        <v>0.9954736217128148</v>
       </c>
       <c r="E13">
-        <v>0.9992249342690589</v>
+        <v>0.9919822668626431</v>
       </c>
       <c r="F13">
-        <v>0.9944510362848364</v>
+        <v>0.9919822668626431</v>
       </c>
       <c r="G13">
-        <v>1.001386664406511</v>
+        <v>1.007908453878432</v>
       </c>
       <c r="H13">
-        <v>0.9977681729269999</v>
+        <v>0.9969870352280384</v>
       </c>
       <c r="I13">
-        <v>0.9944510362848364</v>
+        <v>1.012178133907131</v>
       </c>
       <c r="J13">
-        <v>1.006234178046039</v>
+        <v>1.002399259494436</v>
       </c>
       <c r="K13">
-        <v>1.001748261793105</v>
+        <v>0.9919822668626431</v>
       </c>
       <c r="L13">
-        <v>0.9980061916441396</v>
+        <v>0.9968986406736717</v>
       </c>
       <c r="M13">
-        <v>1.004189154967502</v>
+        <v>1.012178133907131</v>
       </c>
       <c r="N13">
-        <v>0.9944510362848364</v>
+        <v>0.9919822668626431</v>
       </c>
       <c r="O13">
-        <v>0.9992249342690589</v>
+        <v>0.9968986406736717</v>
       </c>
       <c r="P13">
-        <v>1.002729556157549</v>
+        <v>1.004538387290402</v>
       </c>
       <c r="Q13">
-        <v>1.000305799337785</v>
+        <v>0.9997560069495844</v>
       </c>
       <c r="R13">
-        <v>0.9999700495333114</v>
+        <v>1.000353013814482</v>
       </c>
       <c r="S13">
-        <v>1.00228192557387</v>
+        <v>1.003896715935434</v>
       </c>
       <c r="T13">
-        <v>0.9999700495333114</v>
+        <v>1.000353013814482</v>
       </c>
       <c r="U13">
-        <v>1.000324203251611</v>
+        <v>1.000918103667236</v>
       </c>
       <c r="V13">
-        <v>0.9991495698582563</v>
+        <v>0.9991309363063173</v>
       </c>
       <c r="W13">
-        <v>1.000376074292274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.000805098122833</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9967624633574996</v>
+        <v>0.9768293699999995</v>
       </c>
       <c r="D14">
-        <v>0.996195832254395</v>
+        <v>1.0405934</v>
       </c>
       <c r="E14">
-        <v>1.004198720700661</v>
+        <v>1.067568100000001</v>
       </c>
       <c r="F14">
-        <v>0.9967624633574996</v>
+        <v>1.067568100000001</v>
       </c>
       <c r="G14">
-        <v>0.9993777859702941</v>
+        <v>0.92986294</v>
       </c>
       <c r="H14">
-        <v>1.001752986563079</v>
+        <v>1.025639699999999</v>
       </c>
       <c r="I14">
-        <v>0.9967624633574996</v>
+        <v>0.8914080199999997</v>
       </c>
       <c r="J14">
-        <v>0.996195832254395</v>
+        <v>0.980019159999999</v>
       </c>
       <c r="K14">
-        <v>1.001317684068608</v>
+        <v>1.067568100000001</v>
       </c>
       <c r="L14">
-        <v>0.9991467770460045</v>
+        <v>1.029862899999999</v>
       </c>
       <c r="M14">
-        <v>0.998088828514448</v>
+        <v>0.8914080199999997</v>
       </c>
       <c r="N14">
-        <v>0.9967624633574996</v>
+        <v>1.067568100000001</v>
       </c>
       <c r="O14">
-        <v>1.004198720700661</v>
+        <v>1.029862899999999</v>
       </c>
       <c r="P14">
-        <v>1.000197276477528</v>
+        <v>0.9606354599999993</v>
       </c>
       <c r="Q14">
-        <v>1.001788253335478</v>
+        <v>1.003346134999999</v>
       </c>
       <c r="R14">
-        <v>0.9990523387708521</v>
+        <v>0.9962796733333333</v>
       </c>
       <c r="S14">
-        <v>0.9999241129751169</v>
+        <v>0.9660334299999994</v>
       </c>
       <c r="T14">
-        <v>0.9990523387708521</v>
+        <v>0.9962796733333331</v>
       </c>
       <c r="U14">
-        <v>0.9991337005707126</v>
+        <v>0.9914170974999997</v>
       </c>
       <c r="V14">
-        <v>0.9986594531280699</v>
+        <v>1.006647298</v>
       </c>
       <c r="W14">
-        <v>0.9996051348093737</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9927229487499998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.002007939115971</v>
+        <v>0.96028664</v>
       </c>
       <c r="D15">
-        <v>1.000538818749538</v>
+        <v>1.0671107</v>
       </c>
       <c r="E15">
-        <v>0.9985337662525965</v>
+        <v>1.1345903</v>
       </c>
       <c r="F15">
-        <v>1.002007939115971</v>
+        <v>1.1345903</v>
       </c>
       <c r="G15">
-        <v>1.000035746338731</v>
+        <v>0.87989147</v>
       </c>
       <c r="H15">
-        <v>0.9996602188557281</v>
+        <v>1.049677</v>
       </c>
       <c r="I15">
-        <v>1.002007939115971</v>
+        <v>0.8171799800000001</v>
       </c>
       <c r="J15">
-        <v>1.000538818749538</v>
+        <v>0.9588603</v>
       </c>
       <c r="K15">
-        <v>0.9992555882860786</v>
+        <v>1.1345903</v>
       </c>
       <c r="L15">
-        <v>1.000605025881231</v>
+        <v>1.0385555</v>
       </c>
       <c r="M15">
-        <v>1.000119795477235</v>
+        <v>0.8171799800000001</v>
       </c>
       <c r="N15">
-        <v>1.002007939115971</v>
+        <v>1.1345903</v>
       </c>
       <c r="O15">
-        <v>0.9985337662525965</v>
+        <v>1.0385555</v>
       </c>
       <c r="P15">
-        <v>0.9995362925010673</v>
+        <v>0.9278677400000001</v>
       </c>
       <c r="Q15">
-        <v>0.9992847562956639</v>
+        <v>0.9994210699999999</v>
       </c>
       <c r="R15">
-        <v>1.000360174706035</v>
+        <v>0.9967752600000001</v>
       </c>
       <c r="S15">
-        <v>0.999702777113622</v>
+        <v>0.93867404</v>
       </c>
       <c r="T15">
-        <v>1.000360174706035</v>
+        <v>0.9967752600000001</v>
       </c>
       <c r="U15">
-        <v>1.000279067614209</v>
+        <v>0.987653105</v>
       </c>
       <c r="V15">
-        <v>1.000624841914562</v>
+        <v>1.017040544</v>
       </c>
       <c r="W15">
-        <v>1.000094612369639</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.98826898625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.00000389934697</v>
+        <v>0.96110507</v>
       </c>
       <c r="D16">
-        <v>0.9999923567510214</v>
+        <v>1.0670152</v>
       </c>
       <c r="E16">
-        <v>1.000002584275864</v>
+        <v>1.1220036</v>
       </c>
       <c r="F16">
-        <v>1.00000389934697</v>
+        <v>1.1220036</v>
       </c>
       <c r="G16">
-        <v>0.9999983981427837</v>
+        <v>0.88231288</v>
       </c>
       <c r="H16">
-        <v>1.000002908349659</v>
+        <v>1.0456585</v>
       </c>
       <c r="I16">
-        <v>1.00000389934697</v>
+        <v>0.81922268</v>
       </c>
       <c r="J16">
-        <v>0.9999923567510214</v>
+        <v>0.96330981</v>
       </c>
       <c r="K16">
-        <v>0.9999989028806054</v>
+        <v>1.1220036</v>
       </c>
       <c r="L16">
-        <v>1.000001535617804</v>
+        <v>1.0443588</v>
       </c>
       <c r="M16">
-        <v>0.99999514721752</v>
+        <v>0.81922268</v>
       </c>
       <c r="N16">
-        <v>1.00000389934697</v>
+        <v>1.1220036</v>
       </c>
       <c r="O16">
-        <v>1.000002584275864</v>
+        <v>1.0443588</v>
       </c>
       <c r="P16">
-        <v>0.9999974705134426</v>
+        <v>0.93179074</v>
       </c>
       <c r="Q16">
-        <v>1.000000491209324</v>
+        <v>1.002731935</v>
       </c>
       <c r="R16">
-        <v>0.9999996134579515</v>
+        <v>0.9951950266666666</v>
       </c>
       <c r="S16">
-        <v>0.9999977797232229</v>
+        <v>0.9415621833333333</v>
       </c>
       <c r="T16">
-        <v>0.9999996134579515</v>
+        <v>0.9951950266666666</v>
       </c>
       <c r="U16">
-        <v>0.9999993096291596</v>
+        <v>0.9866725374999999</v>
       </c>
       <c r="V16">
-        <v>1.000000227572722</v>
+        <v>1.01373875</v>
       </c>
       <c r="W16">
-        <v>0.9999994665727783</v>
+        <v>0.9881233174999999</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000095585640128</v>
+        <v>0.98875996</v>
       </c>
       <c r="D17">
-        <v>0.9998454599710284</v>
+        <v>1.0193501</v>
       </c>
       <c r="E17">
-        <v>1.000042821234297</v>
+        <v>1.0353811</v>
       </c>
       <c r="F17">
-        <v>1.000095585640128</v>
+        <v>1.0353811</v>
       </c>
       <c r="G17">
-        <v>0.9999670447001311</v>
+        <v>0.9659909</v>
       </c>
       <c r="H17">
-        <v>1.000057804151613</v>
+        <v>1.0132324</v>
       </c>
       <c r="I17">
-        <v>1.000095585640128</v>
+        <v>0.94777989</v>
       </c>
       <c r="J17">
-        <v>0.9998454599710284</v>
+        <v>0.98935163</v>
       </c>
       <c r="K17">
-        <v>0.999971771730028</v>
+        <v>1.0353811</v>
       </c>
       <c r="L17">
-        <v>1.000036308079828</v>
+        <v>1.0127357</v>
       </c>
       <c r="M17">
-        <v>0.9999002420402409</v>
+        <v>0.94777989</v>
       </c>
       <c r="N17">
-        <v>1.000095585640128</v>
+        <v>1.0353811</v>
       </c>
       <c r="O17">
-        <v>1.000042821234297</v>
+        <v>1.0127357</v>
       </c>
       <c r="P17">
-        <v>0.9999441406026628</v>
+        <v>0.980257795</v>
       </c>
       <c r="Q17">
-        <v>1.000004932967214</v>
+        <v>1.00074783</v>
       </c>
       <c r="R17">
-        <v>0.9999946222818178</v>
+        <v>0.99863223</v>
       </c>
       <c r="S17">
-        <v>0.9999517753018189</v>
+        <v>0.98309185</v>
       </c>
       <c r="T17">
-        <v>0.9999946222818178</v>
+        <v>0.99863223</v>
       </c>
       <c r="U17">
-        <v>0.9999877278863961</v>
+        <v>0.9961641625</v>
       </c>
       <c r="V17">
-        <v>1.000009299437143</v>
+        <v>1.00400755</v>
       </c>
       <c r="W17">
-        <v>0.9999896296934117</v>
+        <v>0.99657271</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000373220388429</v>
+        <v>0.9910630621917811</v>
       </c>
       <c r="D18">
-        <v>0.9994765508480162</v>
+        <v>1.015243086849315</v>
       </c>
       <c r="E18">
-        <v>1.000117220026403</v>
+        <v>1.029214869863014</v>
       </c>
       <c r="F18">
-        <v>1.000373220388429</v>
+        <v>1.029214869863014</v>
       </c>
       <c r="G18">
-        <v>0.9998867011012613</v>
+        <v>0.9729653639726028</v>
       </c>
       <c r="H18">
-        <v>1.000192867738235</v>
+        <v>1.010851709589041</v>
       </c>
       <c r="I18">
-        <v>1.000373220388429</v>
+        <v>0.9586703263013698</v>
       </c>
       <c r="J18">
-        <v>0.9994765508480162</v>
+        <v>0.9911358361643837</v>
       </c>
       <c r="K18">
-        <v>0.9998865798380171</v>
+        <v>1.029214869863014</v>
       </c>
       <c r="L18">
-        <v>1.00013844084429</v>
+        <v>1.009397679726028</v>
       </c>
       <c r="M18">
-        <v>0.9996572885712874</v>
+        <v>0.9586703263013698</v>
       </c>
       <c r="N18">
-        <v>1.000373220388429</v>
+        <v>1.029214869863014</v>
       </c>
       <c r="O18">
-        <v>1.000117220026403</v>
+        <v>1.009397679726028</v>
       </c>
       <c r="P18">
-        <v>0.9997968854372095</v>
+        <v>0.9840340030136987</v>
       </c>
       <c r="Q18">
-        <v>1.000001960563832</v>
+        <v>1.000230370958904</v>
       </c>
       <c r="R18">
-        <v>0.9999889970876158</v>
+        <v>0.9990942919634705</v>
       </c>
       <c r="S18">
-        <v>0.9998268239918934</v>
+        <v>0.9863770227397262</v>
       </c>
       <c r="T18">
-        <v>0.9999889970876158</v>
+        <v>0.9990942919634705</v>
       </c>
       <c r="U18">
-        <v>0.9999634230910273</v>
+        <v>0.9970864845205482</v>
       </c>
       <c r="V18">
-        <v>1.000045382550508</v>
+        <v>1.003512161589041</v>
       </c>
       <c r="W18">
-        <v>0.9999661086694923</v>
+        <v>0.9973177418321919</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000901635956265</v>
+        <v>0.9838101831578948</v>
       </c>
       <c r="D19">
-        <v>0.9987890720773258</v>
+        <v>1.02841965</v>
       </c>
       <c r="E19">
-        <v>1.000249657946664</v>
+        <v>1.046783046842105</v>
       </c>
       <c r="F19">
-        <v>1.000901635956265</v>
+        <v>1.046783046842105</v>
       </c>
       <c r="G19">
-        <v>0.9997366092165839</v>
+        <v>0.950991384736842</v>
       </c>
       <c r="H19">
-        <v>1.000443916177159</v>
+        <v>1.01778432368421</v>
       </c>
       <c r="I19">
-        <v>1.000901635956265</v>
+        <v>0.9240491821052631</v>
       </c>
       <c r="J19">
-        <v>0.9987890720773258</v>
+        <v>0.9861961394736843</v>
       </c>
       <c r="K19">
-        <v>0.9997238508623143</v>
+        <v>1.046783046842105</v>
       </c>
       <c r="L19">
-        <v>1.000332212753864</v>
+        <v>1.021153789473684</v>
       </c>
       <c r="M19">
-        <v>0.9992034572916542</v>
+        <v>0.9240491821052631</v>
       </c>
       <c r="N19">
-        <v>1.000901635956265</v>
+        <v>1.046783046842105</v>
       </c>
       <c r="O19">
-        <v>1.000249657946664</v>
+        <v>1.021153789473684</v>
       </c>
       <c r="P19">
-        <v>0.999519365011995</v>
+        <v>0.9726014857894736</v>
       </c>
       <c r="Q19">
-        <v>0.9999931335816241</v>
+        <v>1.002481986315789</v>
       </c>
       <c r="R19">
-        <v>0.9999801219934185</v>
+        <v>0.9973286728070173</v>
       </c>
       <c r="S19">
-        <v>0.999591779746858</v>
+        <v>0.976337718245614</v>
       </c>
       <c r="T19">
-        <v>0.9999801219934185</v>
+        <v>0.9973286728070175</v>
       </c>
       <c r="U19">
-        <v>0.9999192437992098</v>
+        <v>0.9939490503947368</v>
       </c>
       <c r="V19">
-        <v>1.000115722230621</v>
+        <v>1.00451584968421</v>
       </c>
       <c r="W19">
-        <v>0.999922551535229</v>
+        <v>0.9948984624342105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9844748889473686</v>
+      </c>
+      <c r="D20">
+        <v>1.026846393157895</v>
+      </c>
+      <c r="E20">
+        <v>1.04795975368421</v>
+      </c>
+      <c r="F20">
+        <v>1.04795975368421</v>
+      </c>
+      <c r="G20">
+        <v>0.9530205294736841</v>
+      </c>
+      <c r="H20">
+        <v>1.017999425789474</v>
+      </c>
+      <c r="I20">
+        <v>0.9277119763157895</v>
+      </c>
+      <c r="J20">
+        <v>0.985626017368421</v>
+      </c>
+      <c r="K20">
+        <v>1.04795975368421</v>
+      </c>
+      <c r="L20">
+        <v>1.01820266</v>
+      </c>
+      <c r="M20">
+        <v>0.9277119763157895</v>
+      </c>
+      <c r="N20">
+        <v>1.04795975368421</v>
+      </c>
+      <c r="O20">
+        <v>1.01820266</v>
+      </c>
+      <c r="P20">
+        <v>0.9729573181578947</v>
+      </c>
+      <c r="Q20">
+        <v>1.001338774473684</v>
+      </c>
+      <c r="R20">
+        <v>0.9979581299999999</v>
+      </c>
+      <c r="S20">
+        <v>0.9767965084210526</v>
+      </c>
+      <c r="T20">
+        <v>0.9979581299999999</v>
+      </c>
+      <c r="U20">
+        <v>0.9945873197368421</v>
+      </c>
+      <c r="V20">
+        <v>1.005261806526316</v>
+      </c>
+      <c r="W20">
+        <v>0.9952302055921052</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9993777859702941</v>
+      </c>
+      <c r="D21">
+        <v>1.001752986563079</v>
+      </c>
+      <c r="E21">
+        <v>0.9967624633574996</v>
+      </c>
+      <c r="F21">
+        <v>0.9967624633574996</v>
+      </c>
+      <c r="G21">
+        <v>0.998088828514448</v>
+      </c>
+      <c r="H21">
+        <v>0.9991467770460045</v>
+      </c>
+      <c r="I21">
+        <v>0.996195832254395</v>
+      </c>
+      <c r="J21">
+        <v>1.001317684068608</v>
+      </c>
+      <c r="K21">
+        <v>0.9967624633574996</v>
+      </c>
+      <c r="L21">
+        <v>1.004198720700661</v>
+      </c>
+      <c r="M21">
+        <v>0.996195832254395</v>
+      </c>
+      <c r="N21">
+        <v>0.9967624633574996</v>
+      </c>
+      <c r="O21">
+        <v>1.004198720700661</v>
+      </c>
+      <c r="P21">
+        <v>1.000197276477528</v>
+      </c>
+      <c r="Q21">
+        <v>1.001788253335478</v>
+      </c>
+      <c r="R21">
+        <v>0.9990523387708521</v>
+      </c>
+      <c r="S21">
+        <v>0.9999241129751169</v>
+      </c>
+      <c r="T21">
+        <v>0.9990523387708521</v>
+      </c>
+      <c r="U21">
+        <v>0.9991337005707126</v>
+      </c>
+      <c r="V21">
+        <v>0.9986594531280699</v>
+      </c>
+      <c r="W21">
+        <v>0.9996051348093737</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000035746338731</v>
+      </c>
+      <c r="D22">
+        <v>0.9996602188557281</v>
+      </c>
+      <c r="E22">
+        <v>1.002007939115971</v>
+      </c>
+      <c r="F22">
+        <v>1.002007939115971</v>
+      </c>
+      <c r="G22">
+        <v>1.000119795477235</v>
+      </c>
+      <c r="H22">
+        <v>1.000605025881231</v>
+      </c>
+      <c r="I22">
+        <v>1.000538818749538</v>
+      </c>
+      <c r="J22">
+        <v>0.9992555882860785</v>
+      </c>
+      <c r="K22">
+        <v>1.002007939115971</v>
+      </c>
+      <c r="L22">
+        <v>0.9985337662525966</v>
+      </c>
+      <c r="M22">
+        <v>1.000538818749538</v>
+      </c>
+      <c r="N22">
+        <v>1.002007939115971</v>
+      </c>
+      <c r="O22">
+        <v>0.9985337662525966</v>
+      </c>
+      <c r="P22">
+        <v>0.9995362925010673</v>
+      </c>
+      <c r="Q22">
+        <v>0.9992847562956639</v>
+      </c>
+      <c r="R22">
+        <v>1.000360174706035</v>
+      </c>
+      <c r="S22">
+        <v>0.999702777113622</v>
+      </c>
+      <c r="T22">
+        <v>1.000360174706035</v>
+      </c>
+      <c r="U22">
+        <v>1.000279067614209</v>
+      </c>
+      <c r="V22">
+        <v>1.000624841914562</v>
+      </c>
+      <c r="W22">
+        <v>1.000094612369639</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.005818068488067</v>
+      </c>
+      <c r="D23">
+        <v>0.9895609093610205</v>
+      </c>
+      <c r="E23">
+        <v>0.9849104901507927</v>
+      </c>
+      <c r="F23">
+        <v>0.9849104901507927</v>
+      </c>
+      <c r="G23">
+        <v>1.01762146140804</v>
+      </c>
+      <c r="H23">
+        <v>0.9941346584451078</v>
+      </c>
+      <c r="I23">
+        <v>1.027596943453301</v>
+      </c>
+      <c r="J23">
+        <v>1.004328343866613</v>
+      </c>
+      <c r="K23">
+        <v>0.9849104901507927</v>
+      </c>
+      <c r="L23">
+        <v>0.9912397611167881</v>
+      </c>
+      <c r="M23">
+        <v>1.027596943453301</v>
+      </c>
+      <c r="N23">
+        <v>0.9849104901507927</v>
+      </c>
+      <c r="O23">
+        <v>0.9912397611167881</v>
+      </c>
+      <c r="P23">
+        <v>1.009418352285045</v>
+      </c>
+      <c r="Q23">
+        <v>0.9985289148024277</v>
+      </c>
+      <c r="R23">
+        <v>1.001249064906961</v>
+      </c>
+      <c r="S23">
+        <v>1.008218257686052</v>
+      </c>
+      <c r="T23">
+        <v>1.001249064906961</v>
+      </c>
+      <c r="U23">
+        <v>1.002391315802238</v>
+      </c>
+      <c r="V23">
+        <v>0.9988951506719486</v>
+      </c>
+      <c r="W23">
+        <v>1.001901329536216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.001386664406511</v>
+      </c>
+      <c r="D24">
+        <v>0.9977681729269999</v>
+      </c>
+      <c r="E24">
+        <v>0.9944510362848364</v>
+      </c>
+      <c r="F24">
+        <v>0.9944510362848364</v>
+      </c>
+      <c r="G24">
+        <v>1.004189154967502</v>
+      </c>
+      <c r="H24">
+        <v>0.9980061916441396</v>
+      </c>
+      <c r="I24">
+        <v>1.006234178046038</v>
+      </c>
+      <c r="J24">
+        <v>1.001748261793105</v>
+      </c>
+      <c r="K24">
+        <v>0.9944510362848364</v>
+      </c>
+      <c r="L24">
+        <v>0.999224934269059</v>
+      </c>
+      <c r="M24">
+        <v>1.006234178046038</v>
+      </c>
+      <c r="N24">
+        <v>0.9944510362848364</v>
+      </c>
+      <c r="O24">
+        <v>0.999224934269059</v>
+      </c>
+      <c r="P24">
+        <v>1.002729556157549</v>
+      </c>
+      <c r="Q24">
+        <v>1.000305799337785</v>
+      </c>
+      <c r="R24">
+        <v>0.9999700495333114</v>
+      </c>
+      <c r="S24">
+        <v>1.002281925573869</v>
+      </c>
+      <c r="T24">
+        <v>0.9999700495333111</v>
+      </c>
+      <c r="U24">
+        <v>1.000324203251611</v>
+      </c>
+      <c r="V24">
+        <v>0.9991495698582561</v>
+      </c>
+      <c r="W24">
+        <v>1.000376074292274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.001235954354288</v>
+      </c>
+      <c r="D25">
+        <v>0.9974409140473626</v>
+      </c>
+      <c r="E25">
+        <v>0.9993968025386902</v>
+      </c>
+      <c r="F25">
+        <v>0.9993968025386902</v>
+      </c>
+      <c r="G25">
+        <v>1.003757681824231</v>
+      </c>
+      <c r="H25">
+        <v>0.9995481699713024</v>
+      </c>
+      <c r="I25">
+        <v>1.006319995567821</v>
+      </c>
+      <c r="J25">
+        <v>0.9999643600709193</v>
+      </c>
+      <c r="K25">
+        <v>0.9993968025386902</v>
+      </c>
+      <c r="L25">
+        <v>0.9963893061932103</v>
+      </c>
+      <c r="M25">
+        <v>1.006319995567821</v>
+      </c>
+      <c r="N25">
+        <v>0.9993968025386902</v>
+      </c>
+      <c r="O25">
+        <v>0.9963893061932103</v>
+      </c>
+      <c r="P25">
+        <v>1.001354650880516</v>
+      </c>
+      <c r="Q25">
+        <v>0.9988126302737493</v>
+      </c>
+      <c r="R25">
+        <v>1.000702034766574</v>
+      </c>
+      <c r="S25">
+        <v>1.001315085371773</v>
+      </c>
+      <c r="T25">
+        <v>1.000702034766574</v>
+      </c>
+      <c r="U25">
+        <v>1.000835514663502</v>
+      </c>
+      <c r="V25">
+        <v>1.00054777223854</v>
+      </c>
+      <c r="W25">
+        <v>1.000506648070978</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.000188620586372</v>
+      </c>
+      <c r="D26">
+        <v>0.9998483544216437</v>
+      </c>
+      <c r="E26">
+        <v>0.998087289624052</v>
+      </c>
+      <c r="F26">
+        <v>0.998087289624052</v>
+      </c>
+      <c r="G26">
+        <v>1.000563461108115</v>
+      </c>
+      <c r="H26">
+        <v>0.9993754327668292</v>
+      </c>
+      <c r="I26">
+        <v>1.000644452838345</v>
+      </c>
+      <c r="J26">
+        <v>1.000662801811344</v>
+      </c>
+      <c r="K26">
+        <v>0.998087289624052</v>
+      </c>
+      <c r="L26">
+        <v>1.000673115966052</v>
+      </c>
+      <c r="M26">
+        <v>1.000644452838345</v>
+      </c>
+      <c r="N26">
+        <v>0.998087289624052</v>
+      </c>
+      <c r="O26">
+        <v>1.000673115966052</v>
+      </c>
+      <c r="P26">
+        <v>1.000658784402198</v>
+      </c>
+      <c r="Q26">
+        <v>1.000430868276212</v>
+      </c>
+      <c r="R26">
+        <v>0.9998016194761495</v>
+      </c>
+      <c r="S26">
+        <v>1.000502063130256</v>
+      </c>
+      <c r="T26">
+        <v>0.9998016194761497</v>
+      </c>
+      <c r="U26">
+        <v>0.9998983697537052</v>
+      </c>
+      <c r="V26">
+        <v>0.9995361537277745</v>
+      </c>
+      <c r="W26">
+        <v>1.000005441140344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9986405543001359</v>
+      </c>
+      <c r="D27">
+        <v>1.002335496753226</v>
+      </c>
+      <c r="E27">
+        <v>1.00431627673697</v>
+      </c>
+      <c r="F27">
+        <v>1.00431627673697</v>
+      </c>
+      <c r="G27">
+        <v>0.9958868630628936</v>
+      </c>
+      <c r="H27">
+        <v>1.001611731054661</v>
+      </c>
+      <c r="I27">
+        <v>0.9936905877891872</v>
+      </c>
+      <c r="J27">
+        <v>0.9986985232780632</v>
+      </c>
+      <c r="K27">
+        <v>1.00431627673697</v>
+      </c>
+      <c r="L27">
+        <v>1.001515473139585</v>
+      </c>
+      <c r="M27">
+        <v>0.9936905877891872</v>
+      </c>
+      <c r="N27">
+        <v>1.00431627673697</v>
+      </c>
+      <c r="O27">
+        <v>1.001515473139585</v>
+      </c>
+      <c r="P27">
+        <v>0.9976030304643861</v>
+      </c>
+      <c r="Q27">
+        <v>1.00007801371986</v>
+      </c>
+      <c r="R27">
+        <v>0.9998407792219141</v>
+      </c>
+      <c r="S27">
+        <v>0.9979488717429694</v>
+      </c>
+      <c r="T27">
+        <v>0.9998407792219141</v>
+      </c>
+      <c r="U27">
+        <v>0.9995407229914696</v>
+      </c>
+      <c r="V27">
+        <v>1.00049583374057</v>
+      </c>
+      <c r="W27">
+        <v>0.9995869382643402</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9983175073790799</v>
+      </c>
+      <c r="D28">
+        <v>1.002890120456655</v>
+      </c>
+      <c r="E28">
+        <v>1.005344394480356</v>
+      </c>
+      <c r="F28">
+        <v>1.005344394480356</v>
+      </c>
+      <c r="G28">
+        <v>0.9949095512680121</v>
+      </c>
+      <c r="H28">
+        <v>1.001995462239654</v>
+      </c>
+      <c r="I28">
+        <v>0.9921918324376</v>
+      </c>
+      <c r="J28">
+        <v>0.9983883455549354</v>
+      </c>
+      <c r="K28">
+        <v>1.005344394480356</v>
+      </c>
+      <c r="L28">
+        <v>1.001873887087524</v>
+      </c>
+      <c r="M28">
+        <v>0.9921918324376</v>
+      </c>
+      <c r="N28">
+        <v>1.005344394480356</v>
+      </c>
+      <c r="O28">
+        <v>1.001873887087524</v>
+      </c>
+      <c r="P28">
+        <v>0.9970328597625621</v>
+      </c>
+      <c r="Q28">
+        <v>1.000095697233302</v>
+      </c>
+      <c r="R28">
+        <v>0.99980337133516</v>
+      </c>
+      <c r="S28">
+        <v>0.9974610756347347</v>
+      </c>
+      <c r="T28">
+        <v>0.99980337133516</v>
+      </c>
+      <c r="U28">
+        <v>0.9994319053461399</v>
+      </c>
+      <c r="V28">
+        <v>1.000614403172983</v>
+      </c>
+      <c r="W28">
+        <v>0.9994888876129769</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.002573931768366</v>
+      </c>
+      <c r="D29">
+        <v>0.9953952171782479</v>
+      </c>
+      <c r="E29">
+        <v>0.9932212693825084</v>
+      </c>
+      <c r="F29">
+        <v>0.9932212693825084</v>
+      </c>
+      <c r="G29">
+        <v>1.00779525092572</v>
+      </c>
+      <c r="H29">
+        <v>0.9973736966612945</v>
+      </c>
+      <c r="I29">
+        <v>1.012190903277881</v>
+      </c>
+      <c r="J29">
+        <v>1.001952711078432</v>
+      </c>
+      <c r="K29">
+        <v>0.9932212693825084</v>
+      </c>
+      <c r="L29">
+        <v>0.9961937151710825</v>
+      </c>
+      <c r="M29">
+        <v>1.012190903277881</v>
+      </c>
+      <c r="N29">
+        <v>0.9932212693825084</v>
+      </c>
+      <c r="O29">
+        <v>0.9961937151710825</v>
+      </c>
+      <c r="P29">
+        <v>1.004192309224482</v>
+      </c>
+      <c r="Q29">
+        <v>0.9993838234697242</v>
+      </c>
+      <c r="R29">
+        <v>1.000535295943824</v>
+      </c>
+      <c r="S29">
+        <v>1.003652850072443</v>
+      </c>
+      <c r="T29">
+        <v>1.000535295943824</v>
+      </c>
+      <c r="U29">
+        <v>1.001044954899959</v>
+      </c>
+      <c r="V29">
+        <v>0.9994802177964692</v>
+      </c>
+      <c r="W29">
+        <v>1.000837086930442</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9944567125369514</v>
+        <v>0.9968386538464037</v>
       </c>
       <c r="D4">
-        <v>1.009572868225955</v>
+        <v>1.005524107968805</v>
       </c>
       <c r="E4">
-        <v>1.017221081942067</v>
+        <v>1.009328248411235</v>
       </c>
       <c r="F4">
-        <v>1.017221081942067</v>
+        <v>1.009328248411235</v>
       </c>
       <c r="G4">
-        <v>0.9832263725247519</v>
+        <v>0.9904312671449856</v>
       </c>
       <c r="H4">
-        <v>1.006456320847752</v>
+        <v>1.003531610213833</v>
       </c>
       <c r="I4">
-        <v>0.9742063800023989</v>
+        <v>0.9852032015031532</v>
       </c>
       <c r="J4">
-        <v>0.9948321550494886</v>
+        <v>0.9972337030717157</v>
       </c>
       <c r="K4">
-        <v>1.017221081942067</v>
+        <v>1.009328248411235</v>
       </c>
       <c r="L4">
-        <v>1.006434153933914</v>
+        <v>1.004000857888902</v>
       </c>
       <c r="M4">
-        <v>0.9742063800023989</v>
+        <v>0.9852032015031532</v>
       </c>
       <c r="N4">
-        <v>1.017221081942067</v>
+        <v>1.009328248411235</v>
       </c>
       <c r="O4">
-        <v>1.006434153933914</v>
+        <v>1.004000857888902</v>
       </c>
       <c r="P4">
-        <v>0.9903202669681566</v>
+        <v>0.9946020296960276</v>
       </c>
       <c r="Q4">
-        <v>1.000445433235433</v>
+        <v>1.000419755867653</v>
       </c>
       <c r="R4">
-        <v>0.9992872052927932</v>
+        <v>0.9995107692677635</v>
       </c>
       <c r="S4">
-        <v>0.9916990821577549</v>
+        <v>0.9953475710794862</v>
       </c>
       <c r="T4">
-        <v>0.9992872052927932</v>
+        <v>0.9995107692677635</v>
       </c>
       <c r="U4">
-        <v>0.9980795821038329</v>
+        <v>0.9988427404124235</v>
       </c>
       <c r="V4">
-        <v>1.00190788207148</v>
+        <v>1.000939842012186</v>
       </c>
       <c r="W4">
-        <v>0.9983007556329099</v>
+        <v>0.9990114562561292</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9959171899135427</v>
+        <v>0.9856508305758456</v>
       </c>
       <c r="D5">
-        <v>1.007115500194525</v>
+        <v>1.024814008464684</v>
       </c>
       <c r="E5">
-        <v>1.012190248328529</v>
+        <v>1.044318817442543</v>
       </c>
       <c r="F5">
-        <v>1.012190248328529</v>
+        <v>1.044318817442543</v>
       </c>
       <c r="G5">
-        <v>0.987642972982709</v>
+        <v>0.9565789207091203</v>
       </c>
       <c r="H5">
-        <v>1.004604643681553</v>
+        <v>1.016633551037466</v>
       </c>
       <c r="I5">
-        <v>0.9809153944308359</v>
+        <v>0.9331859467236912</v>
       </c>
       <c r="J5">
-        <v>0.996374895482707</v>
+        <v>0.9867177960707471</v>
       </c>
       <c r="K5">
-        <v>1.012190248328529</v>
+        <v>1.044318817442543</v>
       </c>
       <c r="L5">
-        <v>1.005070861844384</v>
+        <v>1.016829456448513</v>
       </c>
       <c r="M5">
-        <v>0.9809153944308359</v>
+        <v>0.9331859467236912</v>
       </c>
       <c r="N5">
-        <v>1.012190248328529</v>
+        <v>1.044318817442543</v>
       </c>
       <c r="O5">
-        <v>1.005070861844384</v>
+        <v>1.016829456448513</v>
       </c>
       <c r="P5">
-        <v>0.9929931281376099</v>
+        <v>0.9750077015861019</v>
       </c>
       <c r="Q5">
-        <v>1.000494025878963</v>
+        <v>1.001240143512179</v>
       </c>
       <c r="R5">
-        <v>0.9993921682012497</v>
+        <v>0.9981114068715823</v>
       </c>
       <c r="S5">
-        <v>0.9939678153962541</v>
+        <v>0.9785554112493499</v>
       </c>
       <c r="T5">
-        <v>0.9993921682012497</v>
+        <v>0.9981114068715823</v>
       </c>
       <c r="U5">
-        <v>0.9985234236293229</v>
+        <v>0.9949962627976481</v>
       </c>
       <c r="V5">
-        <v>1.001256788569164</v>
+        <v>1.004860773726627</v>
       </c>
       <c r="W5">
-        <v>0.9987289633573482</v>
+        <v>0.9955911659340761</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9867907332494996</v>
+        <v>0.9944567125369514</v>
       </c>
       <c r="D6">
-        <v>1.023129713658028</v>
+        <v>1.009572868225955</v>
       </c>
       <c r="E6">
-        <v>1.038611432706954</v>
+        <v>1.017221081942067</v>
       </c>
       <c r="F6">
-        <v>1.038611432706954</v>
+        <v>1.017221081942067</v>
       </c>
       <c r="G6">
-        <v>0.9600163027225374</v>
+        <v>0.9832263725247519</v>
       </c>
       <c r="H6">
-        <v>1.014644853222266</v>
+        <v>1.006456320847752</v>
       </c>
       <c r="I6">
-        <v>0.9381092926669972</v>
+        <v>0.9742063800023989</v>
       </c>
       <c r="J6">
-        <v>0.988575511280151</v>
+        <v>0.9948321550494886</v>
       </c>
       <c r="K6">
-        <v>1.038611432706954</v>
+        <v>1.017221081942067</v>
       </c>
       <c r="L6">
-        <v>1.016962744990002</v>
+        <v>1.006434153933914</v>
       </c>
       <c r="M6">
-        <v>0.9381092926669972</v>
+        <v>0.9742063800023989</v>
       </c>
       <c r="N6">
-        <v>1.038611432706954</v>
+        <v>1.017221081942067</v>
       </c>
       <c r="O6">
-        <v>1.016962744990002</v>
+        <v>1.006434153933914</v>
       </c>
       <c r="P6">
-        <v>0.9775360188284998</v>
+        <v>0.9903202669681566</v>
       </c>
       <c r="Q6">
-        <v>1.001876739119751</v>
+        <v>1.000445433235433</v>
       </c>
       <c r="R6">
-        <v>0.9978944901213179</v>
+        <v>0.9992872052927932</v>
       </c>
       <c r="S6">
-        <v>0.9806209236354997</v>
+        <v>0.9916990821577549</v>
       </c>
       <c r="T6">
-        <v>0.9978944901213179</v>
+        <v>0.9992872052927932</v>
       </c>
       <c r="U6">
-        <v>0.9951185509033633</v>
+        <v>0.9980795821038329</v>
       </c>
       <c r="V6">
-        <v>1.003817127264081</v>
+        <v>1.00190788207148</v>
       </c>
       <c r="W6">
-        <v>0.9958550730620543</v>
+        <v>0.9983007556329099</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9995519959253087</v>
+        <v>0.9959171899135427</v>
       </c>
       <c r="D7">
-        <v>1.000763454272709</v>
+        <v>1.007115500194525</v>
       </c>
       <c r="E7">
-        <v>1.001469672136492</v>
+        <v>1.012190248328529</v>
       </c>
       <c r="F7">
-        <v>1.001469672136492</v>
+        <v>1.012190248328529</v>
       </c>
       <c r="G7">
-        <v>0.9986447945778206</v>
+        <v>0.987642972982709</v>
       </c>
       <c r="H7">
-        <v>1.000545559598994</v>
+        <v>1.004604643681553</v>
       </c>
       <c r="I7">
-        <v>0.9979290667351292</v>
+        <v>0.9809153944308359</v>
       </c>
       <c r="J7">
-        <v>0.9995537566894522</v>
+        <v>0.996374895482707</v>
       </c>
       <c r="K7">
-        <v>1.001469672136492</v>
+        <v>1.012190248328529</v>
       </c>
       <c r="L7">
-        <v>1.000467643747605</v>
+        <v>1.005070861844384</v>
       </c>
       <c r="M7">
-        <v>0.9979290667351292</v>
+        <v>0.9809153944308359</v>
       </c>
       <c r="N7">
-        <v>1.001469672136492</v>
+        <v>1.012190248328529</v>
       </c>
       <c r="O7">
-        <v>1.000467643747605</v>
+        <v>1.005070861844384</v>
       </c>
       <c r="P7">
-        <v>0.9991983552413672</v>
+        <v>0.9929931281376099</v>
       </c>
       <c r="Q7">
-        <v>1.000009819836457</v>
+        <v>1.000494025878963</v>
       </c>
       <c r="R7">
-        <v>0.9999554608730755</v>
+        <v>0.9993921682012497</v>
       </c>
       <c r="S7">
-        <v>0.9993162354693478</v>
+        <v>0.9939678153962541</v>
       </c>
       <c r="T7">
-        <v>0.9999554608730755</v>
+        <v>0.9993921682012497</v>
       </c>
       <c r="U7">
-        <v>0.9998545946361338</v>
+        <v>0.9985234236293229</v>
       </c>
       <c r="V7">
-        <v>1.000177610136205</v>
+        <v>1.001256788569164</v>
       </c>
       <c r="W7">
-        <v>0.9998657429604388</v>
+        <v>0.9987289633573482</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999670447001311</v>
+        <v>0.9867907332494996</v>
       </c>
       <c r="D8">
-        <v>1.000057804151613</v>
+        <v>1.023129713658028</v>
       </c>
       <c r="E8">
-        <v>1.000095585640128</v>
+        <v>1.038611432706954</v>
       </c>
       <c r="F8">
-        <v>1.000095585640128</v>
+        <v>1.038611432706954</v>
       </c>
       <c r="G8">
-        <v>0.9999002420402409</v>
+        <v>0.9600163027225374</v>
       </c>
       <c r="H8">
-        <v>1.000036308079828</v>
+        <v>1.014644853222266</v>
       </c>
       <c r="I8">
-        <v>0.9998454599710284</v>
+        <v>0.9381092926669972</v>
       </c>
       <c r="J8">
-        <v>0.999971771730028</v>
+        <v>0.988575511280151</v>
       </c>
       <c r="K8">
-        <v>1.000095585640128</v>
+        <v>1.038611432706954</v>
       </c>
       <c r="L8">
-        <v>1.000042821234298</v>
+        <v>1.016962744990002</v>
       </c>
       <c r="M8">
-        <v>0.9998454599710284</v>
+        <v>0.9381092926669972</v>
       </c>
       <c r="N8">
-        <v>1.000095585640128</v>
+        <v>1.038611432706954</v>
       </c>
       <c r="O8">
-        <v>1.000042821234298</v>
+        <v>1.016962744990002</v>
       </c>
       <c r="P8">
-        <v>0.999944140602663</v>
+        <v>0.9775360188284998</v>
       </c>
       <c r="Q8">
-        <v>1.000004932967214</v>
+        <v>1.001876739119751</v>
       </c>
       <c r="R8">
-        <v>0.999994622281818</v>
+        <v>0.9978944901213179</v>
       </c>
       <c r="S8">
-        <v>0.999951775301819</v>
+        <v>0.9806209236354997</v>
       </c>
       <c r="T8">
-        <v>0.9999946222818181</v>
+        <v>0.9978944901213179</v>
       </c>
       <c r="U8">
-        <v>0.9999877278863963</v>
+        <v>0.9951185509033633</v>
       </c>
       <c r="V8">
-        <v>1.000009299437143</v>
+        <v>1.003817127264081</v>
       </c>
       <c r="W8">
-        <v>0.9999896296934119</v>
+        <v>0.9958550730620543</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9992874982002709</v>
+        <v>0.9995519959253087</v>
       </c>
       <c r="D9">
-        <v>1.001217588746727</v>
+        <v>1.000763454272709</v>
       </c>
       <c r="E9">
-        <v>1.002311449309538</v>
+        <v>1.001469672136492</v>
       </c>
       <c r="F9">
-        <v>1.002311449309538</v>
+        <v>1.001469672136492</v>
       </c>
       <c r="G9">
-        <v>0.9978445532733927</v>
+        <v>0.9986447945778206</v>
       </c>
       <c r="H9">
-        <v>1.000859748084961</v>
+        <v>1.000545559598994</v>
       </c>
       <c r="I9">
-        <v>0.9967018547998792</v>
+        <v>0.9979290667351292</v>
       </c>
       <c r="J9">
-        <v>0.9992998045701011</v>
+        <v>0.9995537566894522</v>
       </c>
       <c r="K9">
-        <v>1.002311449309538</v>
+        <v>1.001469672136492</v>
       </c>
       <c r="L9">
-        <v>1.000761151139993</v>
+        <v>1.000467643747605</v>
       </c>
       <c r="M9">
-        <v>0.9967018547998792</v>
+        <v>0.9979290667351292</v>
       </c>
       <c r="N9">
-        <v>1.002311449309538</v>
+        <v>1.001469672136492</v>
       </c>
       <c r="O9">
-        <v>1.000761151139993</v>
+        <v>1.000467643747605</v>
       </c>
       <c r="P9">
-        <v>0.9987315029699361</v>
+        <v>0.9991983552413672</v>
       </c>
       <c r="Q9">
-        <v>1.000024324670132</v>
+        <v>1.000009819836457</v>
       </c>
       <c r="R9">
-        <v>0.9999248184164699</v>
+        <v>0.9999554608730755</v>
       </c>
       <c r="S9">
-        <v>0.998916834713381</v>
+        <v>0.9993162354693478</v>
       </c>
       <c r="T9">
-        <v>0.9999248184164699</v>
+        <v>0.9999554608730755</v>
       </c>
       <c r="U9">
-        <v>0.9997654883624201</v>
+        <v>0.9998545946361338</v>
       </c>
       <c r="V9">
-        <v>1.000274680551844</v>
+        <v>1.000177610136205</v>
       </c>
       <c r="W9">
-        <v>0.9997854560156079</v>
+        <v>0.9998657429604388</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9865922006843681</v>
+        <v>0.9999670447001311</v>
       </c>
       <c r="D10">
-        <v>1.023482383260828</v>
+        <v>1.000057804151613</v>
       </c>
       <c r="E10">
-        <v>1.039153382634587</v>
+        <v>1.000095585640128</v>
       </c>
       <c r="F10">
-        <v>1.039153382634587</v>
+        <v>1.000095585640128</v>
       </c>
       <c r="G10">
-        <v>0.9594151461576711</v>
+        <v>0.9999002420402409</v>
       </c>
       <c r="H10">
-        <v>1.014853252546956</v>
+        <v>1.000036308079828</v>
       </c>
       <c r="I10">
-        <v>0.9371723439895621</v>
+        <v>0.9998454599710284</v>
       </c>
       <c r="J10">
-        <v>0.9884178872281654</v>
+        <v>0.999971771730028</v>
       </c>
       <c r="K10">
-        <v>1.039153382634587</v>
+        <v>1.000095585640128</v>
       </c>
       <c r="L10">
-        <v>1.017243490327882</v>
+        <v>1.000042821234298</v>
       </c>
       <c r="M10">
-        <v>0.9371723439895621</v>
+        <v>0.9998454599710284</v>
       </c>
       <c r="N10">
-        <v>1.039153382634587</v>
+        <v>1.000095585640128</v>
       </c>
       <c r="O10">
-        <v>1.017243490327882</v>
+        <v>1.000042821234298</v>
       </c>
       <c r="P10">
-        <v>0.9772079171587222</v>
+        <v>0.999944140602663</v>
       </c>
       <c r="Q10">
-        <v>1.001917845506125</v>
+        <v>1.000004932967214</v>
       </c>
       <c r="R10">
-        <v>0.9978564056506771</v>
+        <v>0.999994622281818</v>
       </c>
       <c r="S10">
-        <v>0.9803360116672709</v>
+        <v>0.999951775301819</v>
       </c>
       <c r="T10">
-        <v>0.9978564056506771</v>
+        <v>0.9999946222818181</v>
       </c>
       <c r="U10">
-        <v>0.9950403544090999</v>
+        <v>0.9999877278863963</v>
       </c>
       <c r="V10">
-        <v>1.003862960054197</v>
+        <v>1.000009299437143</v>
       </c>
       <c r="W10">
-        <v>0.9957912608537525</v>
+        <v>0.9999896296934119</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9972538424526401</v>
+        <v>0.9992874982002709</v>
       </c>
       <c r="D11">
-        <v>1.004708238466542</v>
+        <v>1.001217588746727</v>
       </c>
       <c r="E11">
-        <v>1.008791869277584</v>
+        <v>1.002311449309538</v>
       </c>
       <c r="F11">
-        <v>1.008791869277584</v>
+        <v>1.002311449309538</v>
       </c>
       <c r="G11">
-        <v>0.9916917363504226</v>
+        <v>0.9978445532733927</v>
       </c>
       <c r="H11">
-        <v>1.003277974977679</v>
+        <v>1.000859748084961</v>
       </c>
       <c r="I11">
-        <v>0.9872675742589541</v>
+        <v>0.9967018547998792</v>
       </c>
       <c r="J11">
-        <v>0.9973442244845649</v>
+        <v>0.9992998045701011</v>
       </c>
       <c r="K11">
-        <v>1.008791869277584</v>
+        <v>1.002311449309538</v>
       </c>
       <c r="L11">
-        <v>1.003012341781056</v>
+        <v>1.000761151139993</v>
       </c>
       <c r="M11">
-        <v>0.9872675742589541</v>
+        <v>0.9967018547998792</v>
       </c>
       <c r="N11">
-        <v>1.008791869277584</v>
+        <v>1.002311449309538</v>
       </c>
       <c r="O11">
-        <v>1.003012341781056</v>
+        <v>1.000761151139993</v>
       </c>
       <c r="P11">
-        <v>0.9951399580200051</v>
+        <v>0.9987315029699361</v>
       </c>
       <c r="Q11">
-        <v>1.000133092116848</v>
+        <v>1.000024324670132</v>
       </c>
       <c r="R11">
-        <v>0.9996905951058649</v>
+        <v>0.9999248184164699</v>
       </c>
       <c r="S11">
-        <v>0.9958445861642168</v>
+        <v>0.998916834713381</v>
       </c>
       <c r="T11">
-        <v>0.9996905951058649</v>
+        <v>0.9999248184164699</v>
       </c>
       <c r="U11">
-        <v>0.9990814069425588</v>
+        <v>0.9997654883624201</v>
       </c>
       <c r="V11">
-        <v>1.001023499409564</v>
+        <v>1.000274680551844</v>
       </c>
       <c r="W11">
-        <v>0.9991684752561804</v>
+        <v>0.9997854560156079</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9959168649368393</v>
+        <v>0.9865922006843681</v>
       </c>
       <c r="D12">
-        <v>1.007152400663158</v>
+        <v>1.023482383260828</v>
       </c>
       <c r="E12">
-        <v>1.011914317978948</v>
+        <v>1.039153382634587</v>
       </c>
       <c r="F12">
-        <v>1.011914317978948</v>
+        <v>1.039153382634587</v>
       </c>
       <c r="G12">
-        <v>0.9876404707368425</v>
+        <v>0.9594151461576711</v>
       </c>
       <c r="H12">
-        <v>1.00452050773684</v>
+        <v>1.014853252546956</v>
       </c>
       <c r="I12">
-        <v>0.980865202526313</v>
+        <v>0.9371723439895621</v>
       </c>
       <c r="J12">
-        <v>0.9964762379894708</v>
+        <v>0.9884178872281654</v>
       </c>
       <c r="K12">
-        <v>1.011914317978948</v>
+        <v>1.039153382634587</v>
       </c>
       <c r="L12">
-        <v>1.005257440757897</v>
+        <v>1.017243490327882</v>
       </c>
       <c r="M12">
-        <v>0.980865202526313</v>
+        <v>0.9371723439895621</v>
       </c>
       <c r="N12">
-        <v>1.011914317978948</v>
+        <v>1.039153382634587</v>
       </c>
       <c r="O12">
-        <v>1.005257440757897</v>
+        <v>1.017243490327882</v>
       </c>
       <c r="P12">
-        <v>0.9930613216421051</v>
+        <v>0.9772079171587222</v>
       </c>
       <c r="Q12">
-        <v>1.000587152847368</v>
+        <v>1.001917845506125</v>
       </c>
       <c r="R12">
-        <v>0.9993456537543862</v>
+        <v>0.9978564056506771</v>
       </c>
       <c r="S12">
-        <v>0.9940131694070166</v>
+        <v>0.9803360116672709</v>
       </c>
       <c r="T12">
-        <v>0.9993456537543861</v>
+        <v>0.9978564056506771</v>
       </c>
       <c r="U12">
-        <v>0.9984884565499994</v>
+        <v>0.9950403544090999</v>
       </c>
       <c r="V12">
-        <v>1.001173628835789</v>
+        <v>1.003862960054197</v>
       </c>
       <c r="W12">
-        <v>0.9987179304157886</v>
+        <v>0.9957912608537525</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.002613373225497</v>
+        <v>0.9972538424526401</v>
       </c>
       <c r="D13">
-        <v>0.9954736217128148</v>
+        <v>1.004708238466542</v>
       </c>
       <c r="E13">
-        <v>0.9919822668626431</v>
+        <v>1.008791869277584</v>
       </c>
       <c r="F13">
-        <v>0.9919822668626431</v>
+        <v>1.008791869277584</v>
       </c>
       <c r="G13">
-        <v>1.007908453878432</v>
+        <v>0.9916917363504226</v>
       </c>
       <c r="H13">
-        <v>0.9969870352280384</v>
+        <v>1.003277974977679</v>
       </c>
       <c r="I13">
-        <v>1.012178133907131</v>
+        <v>0.9872675742589541</v>
       </c>
       <c r="J13">
-        <v>1.002399259494436</v>
+        <v>0.9973442244845649</v>
       </c>
       <c r="K13">
-        <v>0.9919822668626431</v>
+        <v>1.008791869277584</v>
       </c>
       <c r="L13">
-        <v>0.9968986406736717</v>
+        <v>1.003012341781056</v>
       </c>
       <c r="M13">
-        <v>1.012178133907131</v>
+        <v>0.9872675742589541</v>
       </c>
       <c r="N13">
-        <v>0.9919822668626431</v>
+        <v>1.008791869277584</v>
       </c>
       <c r="O13">
-        <v>0.9968986406736717</v>
+        <v>1.003012341781056</v>
       </c>
       <c r="P13">
-        <v>1.004538387290402</v>
+        <v>0.9951399580200051</v>
       </c>
       <c r="Q13">
-        <v>0.9997560069495844</v>
+        <v>1.000133092116848</v>
       </c>
       <c r="R13">
-        <v>1.000353013814482</v>
+        <v>0.9996905951058649</v>
       </c>
       <c r="S13">
-        <v>1.003896715935434</v>
+        <v>0.9958445861642168</v>
       </c>
       <c r="T13">
-        <v>1.000353013814482</v>
+        <v>0.9996905951058649</v>
       </c>
       <c r="U13">
-        <v>1.000918103667236</v>
+        <v>0.9990814069425588</v>
       </c>
       <c r="V13">
-        <v>0.9991309363063173</v>
+        <v>1.001023499409564</v>
       </c>
       <c r="W13">
-        <v>1.000805098122833</v>
+        <v>0.9991684752561804</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9768293699999995</v>
+        <v>0.9959168649368393</v>
       </c>
       <c r="D14">
-        <v>1.0405934</v>
+        <v>1.007152400663158</v>
       </c>
       <c r="E14">
-        <v>1.067568100000001</v>
+        <v>1.011914317978948</v>
       </c>
       <c r="F14">
-        <v>1.067568100000001</v>
+        <v>1.011914317978948</v>
       </c>
       <c r="G14">
-        <v>0.92986294</v>
+        <v>0.9876404707368425</v>
       </c>
       <c r="H14">
-        <v>1.025639699999999</v>
+        <v>1.00452050773684</v>
       </c>
       <c r="I14">
-        <v>0.8914080199999997</v>
+        <v>0.980865202526313</v>
       </c>
       <c r="J14">
-        <v>0.980019159999999</v>
+        <v>0.9964762379894708</v>
       </c>
       <c r="K14">
-        <v>1.067568100000001</v>
+        <v>1.011914317978948</v>
       </c>
       <c r="L14">
-        <v>1.029862899999999</v>
+        <v>1.005257440757897</v>
       </c>
       <c r="M14">
-        <v>0.8914080199999997</v>
+        <v>0.980865202526313</v>
       </c>
       <c r="N14">
-        <v>1.067568100000001</v>
+        <v>1.011914317978948</v>
       </c>
       <c r="O14">
-        <v>1.029862899999999</v>
+        <v>1.005257440757897</v>
       </c>
       <c r="P14">
-        <v>0.9606354599999993</v>
+        <v>0.9930613216421051</v>
       </c>
       <c r="Q14">
-        <v>1.003346134999999</v>
+        <v>1.000587152847368</v>
       </c>
       <c r="R14">
-        <v>0.9962796733333333</v>
+        <v>0.9993456537543862</v>
       </c>
       <c r="S14">
-        <v>0.9660334299999994</v>
+        <v>0.9940131694070166</v>
       </c>
       <c r="T14">
-        <v>0.9962796733333331</v>
+        <v>0.9993456537543861</v>
       </c>
       <c r="U14">
-        <v>0.9914170974999997</v>
+        <v>0.9984884565499994</v>
       </c>
       <c r="V14">
-        <v>1.006647298</v>
+        <v>1.001173628835789</v>
       </c>
       <c r="W14">
-        <v>0.9927229487499998</v>
+        <v>0.9987179304157886</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.96028664</v>
+        <v>1.002613373225497</v>
       </c>
       <c r="D15">
-        <v>1.0671107</v>
+        <v>0.9954736217128148</v>
       </c>
       <c r="E15">
-        <v>1.1345903</v>
+        <v>0.9919822668626431</v>
       </c>
       <c r="F15">
-        <v>1.1345903</v>
+        <v>0.9919822668626431</v>
       </c>
       <c r="G15">
-        <v>0.87989147</v>
+        <v>1.007908453878432</v>
       </c>
       <c r="H15">
-        <v>1.049677</v>
+        <v>0.9969870352280384</v>
       </c>
       <c r="I15">
-        <v>0.8171799800000001</v>
+        <v>1.012178133907131</v>
       </c>
       <c r="J15">
-        <v>0.9588603</v>
+        <v>1.002399259494436</v>
       </c>
       <c r="K15">
-        <v>1.1345903</v>
+        <v>0.9919822668626431</v>
       </c>
       <c r="L15">
-        <v>1.0385555</v>
+        <v>0.9968986406736717</v>
       </c>
       <c r="M15">
-        <v>0.8171799800000001</v>
+        <v>1.012178133907131</v>
       </c>
       <c r="N15">
-        <v>1.1345903</v>
+        <v>0.9919822668626431</v>
       </c>
       <c r="O15">
-        <v>1.0385555</v>
+        <v>0.9968986406736717</v>
       </c>
       <c r="P15">
-        <v>0.9278677400000001</v>
+        <v>1.004538387290402</v>
       </c>
       <c r="Q15">
-        <v>0.9994210699999999</v>
+        <v>0.9997560069495844</v>
       </c>
       <c r="R15">
-        <v>0.9967752600000001</v>
+        <v>1.000353013814482</v>
       </c>
       <c r="S15">
-        <v>0.93867404</v>
+        <v>1.003896715935434</v>
       </c>
       <c r="T15">
-        <v>0.9967752600000001</v>
+        <v>1.000353013814482</v>
       </c>
       <c r="U15">
-        <v>0.987653105</v>
+        <v>1.000918103667236</v>
       </c>
       <c r="V15">
-        <v>1.017040544</v>
+        <v>0.9991309363063173</v>
       </c>
       <c r="W15">
-        <v>0.98826898625</v>
+        <v>1.000805098122833</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.96110507</v>
+        <v>0.9768293699999995</v>
       </c>
       <c r="D16">
-        <v>1.0670152</v>
+        <v>1.0405934</v>
       </c>
       <c r="E16">
-        <v>1.1220036</v>
+        <v>1.067568100000001</v>
       </c>
       <c r="F16">
-        <v>1.1220036</v>
+        <v>1.067568100000001</v>
       </c>
       <c r="G16">
-        <v>0.88231288</v>
+        <v>0.92986294</v>
       </c>
       <c r="H16">
-        <v>1.0456585</v>
+        <v>1.025639699999999</v>
       </c>
       <c r="I16">
-        <v>0.81922268</v>
+        <v>0.8914080199999997</v>
       </c>
       <c r="J16">
-        <v>0.96330981</v>
+        <v>0.980019159999999</v>
       </c>
       <c r="K16">
-        <v>1.1220036</v>
+        <v>1.067568100000001</v>
       </c>
       <c r="L16">
-        <v>1.0443588</v>
+        <v>1.029862899999999</v>
       </c>
       <c r="M16">
-        <v>0.81922268</v>
+        <v>0.8914080199999997</v>
       </c>
       <c r="N16">
-        <v>1.1220036</v>
+        <v>1.067568100000001</v>
       </c>
       <c r="O16">
-        <v>1.0443588</v>
+        <v>1.029862899999999</v>
       </c>
       <c r="P16">
-        <v>0.93179074</v>
+        <v>0.9606354599999993</v>
       </c>
       <c r="Q16">
-        <v>1.002731935</v>
+        <v>1.003346134999999</v>
       </c>
       <c r="R16">
-        <v>0.9951950266666666</v>
+        <v>0.9962796733333333</v>
       </c>
       <c r="S16">
-        <v>0.9415621833333333</v>
+        <v>0.9660334299999994</v>
       </c>
       <c r="T16">
-        <v>0.9951950266666666</v>
+        <v>0.9962796733333331</v>
       </c>
       <c r="U16">
-        <v>0.9866725374999999</v>
+        <v>0.9914170974999997</v>
       </c>
       <c r="V16">
-        <v>1.01373875</v>
+        <v>1.006647298</v>
       </c>
       <c r="W16">
-        <v>0.9881233174999999</v>
+        <v>0.9927229487499998</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.98875996</v>
+        <v>0.96028664</v>
       </c>
       <c r="D17">
-        <v>1.0193501</v>
+        <v>1.0671107</v>
       </c>
       <c r="E17">
-        <v>1.0353811</v>
+        <v>1.1345903</v>
       </c>
       <c r="F17">
-        <v>1.0353811</v>
+        <v>1.1345903</v>
       </c>
       <c r="G17">
-        <v>0.9659909</v>
+        <v>0.87989147</v>
       </c>
       <c r="H17">
-        <v>1.0132324</v>
+        <v>1.049677</v>
       </c>
       <c r="I17">
-        <v>0.94777989</v>
+        <v>0.8171799800000001</v>
       </c>
       <c r="J17">
-        <v>0.98935163</v>
+        <v>0.9588603</v>
       </c>
       <c r="K17">
-        <v>1.0353811</v>
+        <v>1.1345903</v>
       </c>
       <c r="L17">
-        <v>1.0127357</v>
+        <v>1.0385555</v>
       </c>
       <c r="M17">
-        <v>0.94777989</v>
+        <v>0.8171799800000001</v>
       </c>
       <c r="N17">
-        <v>1.0353811</v>
+        <v>1.1345903</v>
       </c>
       <c r="O17">
-        <v>1.0127357</v>
+        <v>1.0385555</v>
       </c>
       <c r="P17">
-        <v>0.980257795</v>
+        <v>0.9278677400000001</v>
       </c>
       <c r="Q17">
-        <v>1.00074783</v>
+        <v>0.9994210699999999</v>
       </c>
       <c r="R17">
-        <v>0.99863223</v>
+        <v>0.9967752600000001</v>
       </c>
       <c r="S17">
-        <v>0.98309185</v>
+        <v>0.93867404</v>
       </c>
       <c r="T17">
-        <v>0.99863223</v>
+        <v>0.9967752600000001</v>
       </c>
       <c r="U17">
-        <v>0.9961641625</v>
+        <v>0.987653105</v>
       </c>
       <c r="V17">
-        <v>1.00400755</v>
+        <v>1.017040544</v>
       </c>
       <c r="W17">
-        <v>0.99657271</v>
+        <v>0.98826898625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9910630621917811</v>
+        <v>0.96110507</v>
       </c>
       <c r="D18">
-        <v>1.015243086849315</v>
+        <v>1.0670152</v>
       </c>
       <c r="E18">
-        <v>1.029214869863014</v>
+        <v>1.1220036</v>
       </c>
       <c r="F18">
-        <v>1.029214869863014</v>
+        <v>1.1220036</v>
       </c>
       <c r="G18">
-        <v>0.9729653639726028</v>
+        <v>0.88231288</v>
       </c>
       <c r="H18">
-        <v>1.010851709589041</v>
+        <v>1.0456585</v>
       </c>
       <c r="I18">
-        <v>0.9586703263013698</v>
+        <v>0.81922268</v>
       </c>
       <c r="J18">
-        <v>0.9911358361643837</v>
+        <v>0.96330981</v>
       </c>
       <c r="K18">
-        <v>1.029214869863014</v>
+        <v>1.1220036</v>
       </c>
       <c r="L18">
-        <v>1.009397679726028</v>
+        <v>1.0443588</v>
       </c>
       <c r="M18">
-        <v>0.9586703263013698</v>
+        <v>0.81922268</v>
       </c>
       <c r="N18">
-        <v>1.029214869863014</v>
+        <v>1.1220036</v>
       </c>
       <c r="O18">
-        <v>1.009397679726028</v>
+        <v>1.0443588</v>
       </c>
       <c r="P18">
-        <v>0.9840340030136987</v>
+        <v>0.93179074</v>
       </c>
       <c r="Q18">
-        <v>1.000230370958904</v>
+        <v>1.002731935</v>
       </c>
       <c r="R18">
-        <v>0.9990942919634705</v>
+        <v>0.9951950266666666</v>
       </c>
       <c r="S18">
-        <v>0.9863770227397262</v>
+        <v>0.9415621833333333</v>
       </c>
       <c r="T18">
-        <v>0.9990942919634705</v>
+        <v>0.9951950266666666</v>
       </c>
       <c r="U18">
-        <v>0.9970864845205482</v>
+        <v>0.9866725374999999</v>
       </c>
       <c r="V18">
-        <v>1.003512161589041</v>
+        <v>1.01373875</v>
       </c>
       <c r="W18">
-        <v>0.9973177418321919</v>
+        <v>0.9881233174999999</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9838101831578948</v>
+        <v>0.98875996</v>
       </c>
       <c r="D19">
-        <v>1.02841965</v>
+        <v>1.0193501</v>
       </c>
       <c r="E19">
-        <v>1.046783046842105</v>
+        <v>1.0353811</v>
       </c>
       <c r="F19">
-        <v>1.046783046842105</v>
+        <v>1.0353811</v>
       </c>
       <c r="G19">
-        <v>0.950991384736842</v>
+        <v>0.9659909</v>
       </c>
       <c r="H19">
-        <v>1.01778432368421</v>
+        <v>1.0132324</v>
       </c>
       <c r="I19">
-        <v>0.9240491821052631</v>
+        <v>0.94777989</v>
       </c>
       <c r="J19">
-        <v>0.9861961394736843</v>
+        <v>0.98935163</v>
       </c>
       <c r="K19">
-        <v>1.046783046842105</v>
+        <v>1.0353811</v>
       </c>
       <c r="L19">
-        <v>1.021153789473684</v>
+        <v>1.0127357</v>
       </c>
       <c r="M19">
-        <v>0.9240491821052631</v>
+        <v>0.94777989</v>
       </c>
       <c r="N19">
-        <v>1.046783046842105</v>
+        <v>1.0353811</v>
       </c>
       <c r="O19">
-        <v>1.021153789473684</v>
+        <v>1.0127357</v>
       </c>
       <c r="P19">
-        <v>0.9726014857894736</v>
+        <v>0.980257795</v>
       </c>
       <c r="Q19">
-        <v>1.002481986315789</v>
+        <v>1.00074783</v>
       </c>
       <c r="R19">
-        <v>0.9973286728070173</v>
+        <v>0.99863223</v>
       </c>
       <c r="S19">
-        <v>0.976337718245614</v>
+        <v>0.98309185</v>
       </c>
       <c r="T19">
-        <v>0.9973286728070175</v>
+        <v>0.99863223</v>
       </c>
       <c r="U19">
-        <v>0.9939490503947368</v>
+        <v>0.9961641625</v>
       </c>
       <c r="V19">
-        <v>1.00451584968421</v>
+        <v>1.00400755</v>
       </c>
       <c r="W19">
-        <v>0.9948984624342105</v>
+        <v>0.99657271</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9844748889473686</v>
+        <v>0.9910630621917811</v>
       </c>
       <c r="D20">
-        <v>1.026846393157895</v>
+        <v>1.015243086849315</v>
       </c>
       <c r="E20">
-        <v>1.04795975368421</v>
+        <v>1.029214869863014</v>
       </c>
       <c r="F20">
-        <v>1.04795975368421</v>
+        <v>1.029214869863014</v>
       </c>
       <c r="G20">
-        <v>0.9530205294736841</v>
+        <v>0.9729653639726028</v>
       </c>
       <c r="H20">
-        <v>1.017999425789474</v>
+        <v>1.010851709589041</v>
       </c>
       <c r="I20">
-        <v>0.9277119763157895</v>
+        <v>0.9586703263013698</v>
       </c>
       <c r="J20">
-        <v>0.985626017368421</v>
+        <v>0.9911358361643837</v>
       </c>
       <c r="K20">
-        <v>1.04795975368421</v>
+        <v>1.029214869863014</v>
       </c>
       <c r="L20">
-        <v>1.01820266</v>
+        <v>1.009397679726028</v>
       </c>
       <c r="M20">
-        <v>0.9277119763157895</v>
+        <v>0.9586703263013698</v>
       </c>
       <c r="N20">
-        <v>1.04795975368421</v>
+        <v>1.029214869863014</v>
       </c>
       <c r="O20">
-        <v>1.01820266</v>
+        <v>1.009397679726028</v>
       </c>
       <c r="P20">
-        <v>0.9729573181578947</v>
+        <v>0.9840340030136987</v>
       </c>
       <c r="Q20">
-        <v>1.001338774473684</v>
+        <v>1.000230370958904</v>
       </c>
       <c r="R20">
-        <v>0.9979581299999999</v>
+        <v>0.9990942919634705</v>
       </c>
       <c r="S20">
-        <v>0.9767965084210526</v>
+        <v>0.9863770227397262</v>
       </c>
       <c r="T20">
-        <v>0.9979581299999999</v>
+        <v>0.9990942919634705</v>
       </c>
       <c r="U20">
-        <v>0.9945873197368421</v>
+        <v>0.9970864845205482</v>
       </c>
       <c r="V20">
-        <v>1.005261806526316</v>
+        <v>1.003512161589041</v>
       </c>
       <c r="W20">
-        <v>0.9952302055921052</v>
+        <v>0.9973177418321919</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9993777859702941</v>
+        <v>0.9838101831578948</v>
       </c>
       <c r="D21">
-        <v>1.001752986563079</v>
+        <v>1.02841965</v>
       </c>
       <c r="E21">
-        <v>0.9967624633574996</v>
+        <v>1.046783046842105</v>
       </c>
       <c r="F21">
-        <v>0.9967624633574996</v>
+        <v>1.046783046842105</v>
       </c>
       <c r="G21">
-        <v>0.998088828514448</v>
+        <v>0.950991384736842</v>
       </c>
       <c r="H21">
-        <v>0.9991467770460045</v>
+        <v>1.01778432368421</v>
       </c>
       <c r="I21">
-        <v>0.996195832254395</v>
+        <v>0.9240491821052631</v>
       </c>
       <c r="J21">
-        <v>1.001317684068608</v>
+        <v>0.9861961394736843</v>
       </c>
       <c r="K21">
-        <v>0.9967624633574996</v>
+        <v>1.046783046842105</v>
       </c>
       <c r="L21">
-        <v>1.004198720700661</v>
+        <v>1.021153789473684</v>
       </c>
       <c r="M21">
-        <v>0.996195832254395</v>
+        <v>0.9240491821052631</v>
       </c>
       <c r="N21">
-        <v>0.9967624633574996</v>
+        <v>1.046783046842105</v>
       </c>
       <c r="O21">
-        <v>1.004198720700661</v>
+        <v>1.021153789473684</v>
       </c>
       <c r="P21">
-        <v>1.000197276477528</v>
+        <v>0.9726014857894736</v>
       </c>
       <c r="Q21">
-        <v>1.001788253335478</v>
+        <v>1.002481986315789</v>
       </c>
       <c r="R21">
-        <v>0.9990523387708521</v>
+        <v>0.9973286728070173</v>
       </c>
       <c r="S21">
-        <v>0.9999241129751169</v>
+        <v>0.976337718245614</v>
       </c>
       <c r="T21">
-        <v>0.9990523387708521</v>
+        <v>0.9973286728070175</v>
       </c>
       <c r="U21">
-        <v>0.9991337005707126</v>
+        <v>0.9939490503947368</v>
       </c>
       <c r="V21">
-        <v>0.9986594531280699</v>
+        <v>1.00451584968421</v>
       </c>
       <c r="W21">
-        <v>0.9996051348093737</v>
+        <v>0.9948984624342105</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000035746338731</v>
+        <v>0.9844748889473686</v>
       </c>
       <c r="D22">
-        <v>0.9996602188557281</v>
+        <v>1.026846393157895</v>
       </c>
       <c r="E22">
-        <v>1.002007939115971</v>
+        <v>1.04795975368421</v>
       </c>
       <c r="F22">
-        <v>1.002007939115971</v>
+        <v>1.04795975368421</v>
       </c>
       <c r="G22">
-        <v>1.000119795477235</v>
+        <v>0.9530205294736841</v>
       </c>
       <c r="H22">
-        <v>1.000605025881231</v>
+        <v>1.017999425789474</v>
       </c>
       <c r="I22">
-        <v>1.000538818749538</v>
+        <v>0.9277119763157895</v>
       </c>
       <c r="J22">
-        <v>0.9992555882860785</v>
+        <v>0.985626017368421</v>
       </c>
       <c r="K22">
-        <v>1.002007939115971</v>
+        <v>1.04795975368421</v>
       </c>
       <c r="L22">
-        <v>0.9985337662525966</v>
+        <v>1.01820266</v>
       </c>
       <c r="M22">
-        <v>1.000538818749538</v>
+        <v>0.9277119763157895</v>
       </c>
       <c r="N22">
-        <v>1.002007939115971</v>
+        <v>1.04795975368421</v>
       </c>
       <c r="O22">
-        <v>0.9985337662525966</v>
+        <v>1.01820266</v>
       </c>
       <c r="P22">
-        <v>0.9995362925010673</v>
+        <v>0.9729573181578947</v>
       </c>
       <c r="Q22">
-        <v>0.9992847562956639</v>
+        <v>1.001338774473684</v>
       </c>
       <c r="R22">
-        <v>1.000360174706035</v>
+        <v>0.9979581299999999</v>
       </c>
       <c r="S22">
-        <v>0.999702777113622</v>
+        <v>0.9767965084210526</v>
       </c>
       <c r="T22">
-        <v>1.000360174706035</v>
+        <v>0.9979581299999999</v>
       </c>
       <c r="U22">
-        <v>1.000279067614209</v>
+        <v>0.9945873197368421</v>
       </c>
       <c r="V22">
-        <v>1.000624841914562</v>
+        <v>1.005261806526316</v>
       </c>
       <c r="W22">
-        <v>1.000094612369639</v>
+        <v>0.9952302055921052</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.005818068488067</v>
+        <v>0.9993777859702941</v>
       </c>
       <c r="D23">
-        <v>0.9895609093610205</v>
+        <v>1.001752986563079</v>
       </c>
       <c r="E23">
-        <v>0.9849104901507927</v>
+        <v>0.9967624633574996</v>
       </c>
       <c r="F23">
-        <v>0.9849104901507927</v>
+        <v>0.9967624633574996</v>
       </c>
       <c r="G23">
-        <v>1.01762146140804</v>
+        <v>0.998088828514448</v>
       </c>
       <c r="H23">
-        <v>0.9941346584451078</v>
+        <v>0.9991467770460045</v>
       </c>
       <c r="I23">
-        <v>1.027596943453301</v>
+        <v>0.996195832254395</v>
       </c>
       <c r="J23">
-        <v>1.004328343866613</v>
+        <v>1.001317684068608</v>
       </c>
       <c r="K23">
-        <v>0.9849104901507927</v>
+        <v>0.9967624633574996</v>
       </c>
       <c r="L23">
-        <v>0.9912397611167881</v>
+        <v>1.004198720700661</v>
       </c>
       <c r="M23">
-        <v>1.027596943453301</v>
+        <v>0.996195832254395</v>
       </c>
       <c r="N23">
-        <v>0.9849104901507927</v>
+        <v>0.9967624633574996</v>
       </c>
       <c r="O23">
-        <v>0.9912397611167881</v>
+        <v>1.004198720700661</v>
       </c>
       <c r="P23">
-        <v>1.009418352285045</v>
+        <v>1.000197276477528</v>
       </c>
       <c r="Q23">
-        <v>0.9985289148024277</v>
+        <v>1.001788253335478</v>
       </c>
       <c r="R23">
-        <v>1.001249064906961</v>
+        <v>0.9990523387708521</v>
       </c>
       <c r="S23">
-        <v>1.008218257686052</v>
+        <v>0.9999241129751169</v>
       </c>
       <c r="T23">
-        <v>1.001249064906961</v>
+        <v>0.9990523387708521</v>
       </c>
       <c r="U23">
-        <v>1.002391315802238</v>
+        <v>0.9991337005707126</v>
       </c>
       <c r="V23">
-        <v>0.9988951506719486</v>
+        <v>0.9986594531280699</v>
       </c>
       <c r="W23">
-        <v>1.001901329536216</v>
+        <v>0.9996051348093737</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.001386664406511</v>
+        <v>1.000035746338731</v>
       </c>
       <c r="D24">
-        <v>0.9977681729269999</v>
+        <v>0.9996602188557281</v>
       </c>
       <c r="E24">
-        <v>0.9944510362848364</v>
+        <v>1.002007939115971</v>
       </c>
       <c r="F24">
-        <v>0.9944510362848364</v>
+        <v>1.002007939115971</v>
       </c>
       <c r="G24">
-        <v>1.004189154967502</v>
+        <v>1.000119795477235</v>
       </c>
       <c r="H24">
-        <v>0.9980061916441396</v>
+        <v>1.000605025881231</v>
       </c>
       <c r="I24">
-        <v>1.006234178046038</v>
+        <v>1.000538818749538</v>
       </c>
       <c r="J24">
-        <v>1.001748261793105</v>
+        <v>0.9992555882860785</v>
       </c>
       <c r="K24">
-        <v>0.9944510362848364</v>
+        <v>1.002007939115971</v>
       </c>
       <c r="L24">
-        <v>0.999224934269059</v>
+        <v>0.9985337662525966</v>
       </c>
       <c r="M24">
-        <v>1.006234178046038</v>
+        <v>1.000538818749538</v>
       </c>
       <c r="N24">
-        <v>0.9944510362848364</v>
+        <v>1.002007939115971</v>
       </c>
       <c r="O24">
-        <v>0.999224934269059</v>
+        <v>0.9985337662525966</v>
       </c>
       <c r="P24">
-        <v>1.002729556157549</v>
+        <v>0.9995362925010673</v>
       </c>
       <c r="Q24">
-        <v>1.000305799337785</v>
+        <v>0.9992847562956639</v>
       </c>
       <c r="R24">
-        <v>0.9999700495333114</v>
+        <v>1.000360174706035</v>
       </c>
       <c r="S24">
-        <v>1.002281925573869</v>
+        <v>0.999702777113622</v>
       </c>
       <c r="T24">
-        <v>0.9999700495333111</v>
+        <v>1.000360174706035</v>
       </c>
       <c r="U24">
-        <v>1.000324203251611</v>
+        <v>1.000279067614209</v>
       </c>
       <c r="V24">
-        <v>0.9991495698582561</v>
+        <v>1.000624841914562</v>
       </c>
       <c r="W24">
-        <v>1.000376074292274</v>
+        <v>1.000094612369639</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.001235954354288</v>
+        <v>1.005818068488067</v>
       </c>
       <c r="D25">
-        <v>0.9974409140473626</v>
+        <v>0.9895609093610205</v>
       </c>
       <c r="E25">
-        <v>0.9993968025386902</v>
+        <v>0.9849104901507927</v>
       </c>
       <c r="F25">
-        <v>0.9993968025386902</v>
+        <v>0.9849104901507927</v>
       </c>
       <c r="G25">
-        <v>1.003757681824231</v>
+        <v>1.01762146140804</v>
       </c>
       <c r="H25">
-        <v>0.9995481699713024</v>
+        <v>0.9941346584451078</v>
       </c>
       <c r="I25">
-        <v>1.006319995567821</v>
+        <v>1.027596943453301</v>
       </c>
       <c r="J25">
-        <v>0.9999643600709193</v>
+        <v>1.004328343866613</v>
       </c>
       <c r="K25">
-        <v>0.9993968025386902</v>
+        <v>0.9849104901507927</v>
       </c>
       <c r="L25">
-        <v>0.9963893061932103</v>
+        <v>0.9912397611167881</v>
       </c>
       <c r="M25">
-        <v>1.006319995567821</v>
+        <v>1.027596943453301</v>
       </c>
       <c r="N25">
-        <v>0.9993968025386902</v>
+        <v>0.9849104901507927</v>
       </c>
       <c r="O25">
-        <v>0.9963893061932103</v>
+        <v>0.9912397611167881</v>
       </c>
       <c r="P25">
-        <v>1.001354650880516</v>
+        <v>1.009418352285045</v>
       </c>
       <c r="Q25">
-        <v>0.9988126302737493</v>
+        <v>0.9985289148024277</v>
       </c>
       <c r="R25">
-        <v>1.000702034766574</v>
+        <v>1.001249064906961</v>
       </c>
       <c r="S25">
-        <v>1.001315085371773</v>
+        <v>1.008218257686052</v>
       </c>
       <c r="T25">
-        <v>1.000702034766574</v>
+        <v>1.001249064906961</v>
       </c>
       <c r="U25">
-        <v>1.000835514663502</v>
+        <v>1.002391315802238</v>
       </c>
       <c r="V25">
-        <v>1.00054777223854</v>
+        <v>0.9988951506719486</v>
       </c>
       <c r="W25">
-        <v>1.000506648070978</v>
+        <v>1.001901329536216</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.000188620586372</v>
+        <v>1.001386664406511</v>
       </c>
       <c r="D26">
-        <v>0.9998483544216437</v>
+        <v>0.9977681729269999</v>
       </c>
       <c r="E26">
-        <v>0.998087289624052</v>
+        <v>0.9944510362848364</v>
       </c>
       <c r="F26">
-        <v>0.998087289624052</v>
+        <v>0.9944510362848364</v>
       </c>
       <c r="G26">
-        <v>1.000563461108115</v>
+        <v>1.004189154967502</v>
       </c>
       <c r="H26">
-        <v>0.9993754327668292</v>
+        <v>0.9980061916441396</v>
       </c>
       <c r="I26">
-        <v>1.000644452838345</v>
+        <v>1.006234178046038</v>
       </c>
       <c r="J26">
-        <v>1.000662801811344</v>
+        <v>1.001748261793105</v>
       </c>
       <c r="K26">
-        <v>0.998087289624052</v>
+        <v>0.9944510362848364</v>
       </c>
       <c r="L26">
-        <v>1.000673115966052</v>
+        <v>0.999224934269059</v>
       </c>
       <c r="M26">
-        <v>1.000644452838345</v>
+        <v>1.006234178046038</v>
       </c>
       <c r="N26">
-        <v>0.998087289624052</v>
+        <v>0.9944510362848364</v>
       </c>
       <c r="O26">
-        <v>1.000673115966052</v>
+        <v>0.999224934269059</v>
       </c>
       <c r="P26">
-        <v>1.000658784402198</v>
+        <v>1.002729556157549</v>
       </c>
       <c r="Q26">
-        <v>1.000430868276212</v>
+        <v>1.000305799337785</v>
       </c>
       <c r="R26">
-        <v>0.9998016194761495</v>
+        <v>0.9999700495333114</v>
       </c>
       <c r="S26">
-        <v>1.000502063130256</v>
+        <v>1.002281925573869</v>
       </c>
       <c r="T26">
-        <v>0.9998016194761497</v>
+        <v>0.9999700495333111</v>
       </c>
       <c r="U26">
-        <v>0.9998983697537052</v>
+        <v>1.000324203251611</v>
       </c>
       <c r="V26">
-        <v>0.9995361537277745</v>
+        <v>0.9991495698582561</v>
       </c>
       <c r="W26">
-        <v>1.000005441140344</v>
+        <v>1.000376074292274</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9986405543001359</v>
+        <v>1.001235954354288</v>
       </c>
       <c r="D27">
-        <v>1.002335496753226</v>
+        <v>0.9974409140473626</v>
       </c>
       <c r="E27">
-        <v>1.00431627673697</v>
+        <v>0.9993968025386902</v>
       </c>
       <c r="F27">
-        <v>1.00431627673697</v>
+        <v>0.9993968025386902</v>
       </c>
       <c r="G27">
-        <v>0.9958868630628936</v>
+        <v>1.003757681824231</v>
       </c>
       <c r="H27">
-        <v>1.001611731054661</v>
+        <v>0.9995481699713024</v>
       </c>
       <c r="I27">
-        <v>0.9936905877891872</v>
+        <v>1.006319995567821</v>
       </c>
       <c r="J27">
-        <v>0.9986985232780632</v>
+        <v>0.9999643600709193</v>
       </c>
       <c r="K27">
-        <v>1.00431627673697</v>
+        <v>0.9993968025386902</v>
       </c>
       <c r="L27">
-        <v>1.001515473139585</v>
+        <v>0.9963893061932103</v>
       </c>
       <c r="M27">
-        <v>0.9936905877891872</v>
+        <v>1.006319995567821</v>
       </c>
       <c r="N27">
-        <v>1.00431627673697</v>
+        <v>0.9993968025386902</v>
       </c>
       <c r="O27">
-        <v>1.001515473139585</v>
+        <v>0.9963893061932103</v>
       </c>
       <c r="P27">
-        <v>0.9976030304643861</v>
+        <v>1.001354650880516</v>
       </c>
       <c r="Q27">
-        <v>1.00007801371986</v>
+        <v>0.9988126302737493</v>
       </c>
       <c r="R27">
-        <v>0.9998407792219141</v>
+        <v>1.000702034766574</v>
       </c>
       <c r="S27">
-        <v>0.9979488717429694</v>
+        <v>1.001315085371773</v>
       </c>
       <c r="T27">
-        <v>0.9998407792219141</v>
+        <v>1.000702034766574</v>
       </c>
       <c r="U27">
-        <v>0.9995407229914696</v>
+        <v>1.000835514663502</v>
       </c>
       <c r="V27">
-        <v>1.00049583374057</v>
+        <v>1.00054777223854</v>
       </c>
       <c r="W27">
-        <v>0.9995869382643402</v>
+        <v>1.000506648070978</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9983175073790799</v>
+        <v>1.000188620586372</v>
       </c>
       <c r="D28">
-        <v>1.002890120456655</v>
+        <v>0.9998483544216437</v>
       </c>
       <c r="E28">
-        <v>1.005344394480356</v>
+        <v>0.998087289624052</v>
       </c>
       <c r="F28">
-        <v>1.005344394480356</v>
+        <v>0.998087289624052</v>
       </c>
       <c r="G28">
-        <v>0.9949095512680121</v>
+        <v>1.000563461108115</v>
       </c>
       <c r="H28">
-        <v>1.001995462239654</v>
+        <v>0.9993754327668292</v>
       </c>
       <c r="I28">
-        <v>0.9921918324376</v>
+        <v>1.000644452838345</v>
       </c>
       <c r="J28">
-        <v>0.9983883455549354</v>
+        <v>1.000662801811344</v>
       </c>
       <c r="K28">
-        <v>1.005344394480356</v>
+        <v>0.998087289624052</v>
       </c>
       <c r="L28">
-        <v>1.001873887087524</v>
+        <v>1.000673115966052</v>
       </c>
       <c r="M28">
-        <v>0.9921918324376</v>
+        <v>1.000644452838345</v>
       </c>
       <c r="N28">
-        <v>1.005344394480356</v>
+        <v>0.998087289624052</v>
       </c>
       <c r="O28">
-        <v>1.001873887087524</v>
+        <v>1.000673115966052</v>
       </c>
       <c r="P28">
-        <v>0.9970328597625621</v>
+        <v>1.000658784402198</v>
       </c>
       <c r="Q28">
-        <v>1.000095697233302</v>
+        <v>1.000430868276212</v>
       </c>
       <c r="R28">
-        <v>0.99980337133516</v>
+        <v>0.9998016194761495</v>
       </c>
       <c r="S28">
-        <v>0.9974610756347347</v>
+        <v>1.000502063130256</v>
       </c>
       <c r="T28">
-        <v>0.99980337133516</v>
+        <v>0.9998016194761497</v>
       </c>
       <c r="U28">
-        <v>0.9994319053461399</v>
+        <v>0.9998983697537052</v>
       </c>
       <c r="V28">
-        <v>1.000614403172983</v>
+        <v>0.9995361537277745</v>
       </c>
       <c r="W28">
-        <v>0.9994888876129769</v>
+        <v>1.000005441140344</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9986405543001359</v>
+      </c>
+      <c r="D29">
+        <v>1.002335496753226</v>
+      </c>
+      <c r="E29">
+        <v>1.00431627673697</v>
+      </c>
+      <c r="F29">
+        <v>1.00431627673697</v>
+      </c>
+      <c r="G29">
+        <v>0.9958868630628936</v>
+      </c>
+      <c r="H29">
+        <v>1.001611731054661</v>
+      </c>
+      <c r="I29">
+        <v>0.9936905877891872</v>
+      </c>
+      <c r="J29">
+        <v>0.9986985232780632</v>
+      </c>
+      <c r="K29">
+        <v>1.00431627673697</v>
+      </c>
+      <c r="L29">
+        <v>1.001515473139585</v>
+      </c>
+      <c r="M29">
+        <v>0.9936905877891872</v>
+      </c>
+      <c r="N29">
+        <v>1.00431627673697</v>
+      </c>
+      <c r="O29">
+        <v>1.001515473139585</v>
+      </c>
+      <c r="P29">
+        <v>0.9976030304643861</v>
+      </c>
+      <c r="Q29">
+        <v>1.00007801371986</v>
+      </c>
+      <c r="R29">
+        <v>0.9998407792219141</v>
+      </c>
+      <c r="S29">
+        <v>0.9979488717429694</v>
+      </c>
+      <c r="T29">
+        <v>0.9998407792219141</v>
+      </c>
+      <c r="U29">
+        <v>0.9995407229914696</v>
+      </c>
+      <c r="V29">
+        <v>1.00049583374057</v>
+      </c>
+      <c r="W29">
+        <v>0.9995869382643402</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9983175073790799</v>
+      </c>
+      <c r="D30">
+        <v>1.002890120456655</v>
+      </c>
+      <c r="E30">
+        <v>1.005344394480356</v>
+      </c>
+      <c r="F30">
+        <v>1.005344394480356</v>
+      </c>
+      <c r="G30">
+        <v>0.9949095512680121</v>
+      </c>
+      <c r="H30">
+        <v>1.001995462239654</v>
+      </c>
+      <c r="I30">
+        <v>0.9921918324376</v>
+      </c>
+      <c r="J30">
+        <v>0.9983883455549354</v>
+      </c>
+      <c r="K30">
+        <v>1.005344394480356</v>
+      </c>
+      <c r="L30">
+        <v>1.001873887087524</v>
+      </c>
+      <c r="M30">
+        <v>0.9921918324376</v>
+      </c>
+      <c r="N30">
+        <v>1.005344394480356</v>
+      </c>
+      <c r="O30">
+        <v>1.001873887087524</v>
+      </c>
+      <c r="P30">
+        <v>0.9970328597625621</v>
+      </c>
+      <c r="Q30">
+        <v>1.000095697233302</v>
+      </c>
+      <c r="R30">
+        <v>0.99980337133516</v>
+      </c>
+      <c r="S30">
+        <v>0.9974610756347347</v>
+      </c>
+      <c r="T30">
+        <v>0.99980337133516</v>
+      </c>
+      <c r="U30">
+        <v>0.9994319053461399</v>
+      </c>
+      <c r="V30">
+        <v>1.000614403172983</v>
+      </c>
+      <c r="W30">
+        <v>0.9994888876129769</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.002573931768366</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9953952171782479</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9932212693825084</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9932212693825084</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.00779525092572</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9973736966612945</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.012190903277881</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.001952711078432</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9932212693825084</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9961937151710825</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.012190903277881</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9932212693825084</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9961937151710825</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.004192309224482</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9993838234697242</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000535295943824</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.003652850072443</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000535295943824</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.001044954899959</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9994802177964692</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.000837086930442</v>
       </c>
     </row>
